--- a/data/AllData_ZnCuCaMg_19-20.xlsx
+++ b/data/AllData_ZnCuCaMg_19-20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmeyer/Google Drive/KWF/KWF R Projects/KWF_metals_2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\KWF_Metals_2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078C76C-3A65-184F-A1BA-D095292048D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" firstSheet="1" activeTab="2" xr2:uid="{F3549A43-9083-4608-867C-9A3A3A85EBA6}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comments, notes" sheetId="2" r:id="rId1"/>
@@ -854,10 +853,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -966,7 +964,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +997,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="85">
     <border>
@@ -2044,7 +2048,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2532,160 +2536,229 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3339,37 +3412,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A2621E-6D47-4B40-A293-69A3CB6683CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="98.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="179" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3384,7 +3457,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3399,7 +3472,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3410,7 +3483,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3426,7 +3499,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3443,7 +3516,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3455,7 +3528,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -3463,7 +3536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -3471,10 +3544,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>50</v>
@@ -3483,7 +3556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
@@ -3505,42 +3578,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="179" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -3556,20 +3629,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3595,7 +3668,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="178">
         <v>43585</v>
       </c>
@@ -3621,7 +3694,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="178">
         <v>43585</v>
       </c>
@@ -3647,7 +3720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="178">
         <v>43676</v>
       </c>
@@ -3673,7 +3746,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="178">
         <v>44033</v>
       </c>
@@ -3705,31 +3778,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA70FD9-092D-4378-9410-76D454306EB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
       <c r="E1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="80" t="s">
         <v>36</v>
       </c>
@@ -3739,11 +3812,11 @@
       <c r="C2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="230" t="s">
+      <c r="E2" s="181" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
@@ -3754,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
@@ -3765,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -3775,30 +3848,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D11BF7-F1DC-4206-A26A-147C2FF919CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.5" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" style="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.6640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.83203125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.33203125" style="20" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.1640625" style="20" collapsed="1"/>
-    <col min="11" max="23" width="8.83203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9.1640625" style="20" collapsed="1"/>
+    <col min="10" max="10" width="9.109375" style="20" collapsed="1"/>
+    <col min="11" max="23" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.109375" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>136</v>
       </c>
@@ -3810,42 +3883,42 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
-      <c r="L1" s="231" t="s">
+      <c r="L1" s="182" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="232" t="s">
+      <c r="L2" s="183" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="194" t="s">
+      <c r="G4" s="203"/>
+      <c r="H4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="195"/>
+      <c r="I4" s="203"/>
       <c r="L4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
@@ -3874,11 +3947,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="196" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="201"/>
+      <c r="B6" s="208"/>
       <c r="C6" s="36">
         <v>43607</v>
       </c>
@@ -3901,9 +3974,9 @@
         <v>39.916682611895808</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="197"/>
-      <c r="B7" s="181"/>
+    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="205"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -3940,9 +4013,9 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="197"/>
-      <c r="B8" s="181"/>
+    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="205"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -3965,7 +4038,7 @@
         <v>137</v>
       </c>
       <c r="J8" s="108"/>
-      <c r="K8" s="233"/>
+      <c r="K8" s="184"/>
       <c r="L8" s="1"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -3979,9 +4052,9 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="197"/>
-      <c r="B9" s="181"/>
+    <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="205"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="37">
         <v>44034</v>
       </c>
@@ -4004,7 +4077,7 @@
         <v>87.53</v>
       </c>
       <c r="J9" s="107"/>
-      <c r="K9" s="233"/>
+      <c r="K9" s="184"/>
       <c r="L9" s="1"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4018,11 +4091,11 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="198" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="200"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="45">
         <v>43607</v>
       </c>
@@ -4044,12 +4117,12 @@
       <c r="I10" s="72">
         <v>50.554834324345521</v>
       </c>
-      <c r="K10" s="233"/>
+      <c r="K10" s="184"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="197"/>
-      <c r="B11" s="181"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="205"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="37">
         <v>43670</v>
       </c>
@@ -4074,9 +4147,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="197"/>
-      <c r="B12" s="181"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="205"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="135">
         <v>43971</v>
       </c>
@@ -4101,9 +4174,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="182"/>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="207"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="48">
         <v>44034</v>
       </c>
@@ -4126,63 +4199,63 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="198" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="200">
+      <c r="B14" s="189">
         <v>19</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="256">
         <v>43607</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="244" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="243" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="197"/>
-      <c r="B15" s="181"/>
-      <c r="C15" s="37">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="205"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="234">
         <v>43670</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="237">
         <v>8.16</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="238" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="197"/>
-      <c r="B16" s="181"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="205"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="135">
         <v>43971</v>
       </c>
@@ -4205,9 +4278,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="182"/>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="207"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="48">
         <v>44034</v>
       </c>
@@ -4230,61 +4303,61 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="198" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="45">
+      <c r="B18" s="189"/>
+      <c r="C18" s="245">
         <v>43607</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="247">
         <v>38.449369999999995</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="248" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="249">
         <v>5.0691949101186182</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="250">
         <v>67.599999999999994</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="249">
         <v>46.218870417240375</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="197"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="37">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="205"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="251">
         <v>43670</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="253">
         <v>73.583059999999989</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="254" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="255">
         <v>8.8269936178549457</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="255">
         <v>79.595787160671918</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="197"/>
-      <c r="B20" s="181"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="205"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="135">
         <v>43971</v>
       </c>
@@ -4307,9 +4380,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="182"/>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="207"/>
+      <c r="B21" s="190"/>
       <c r="C21" s="48">
         <v>44034</v>
       </c>
@@ -4332,11 +4405,11 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="202" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="181"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="34">
         <v>43607</v>
       </c>
@@ -4359,9 +4432,9 @@
         <v>65.956467062491583</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="202"/>
-      <c r="B23" s="181"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="209"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="37">
         <v>43670</v>
       </c>
@@ -4384,9 +4457,9 @@
         <v>86.696105818258914</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="202"/>
-      <c r="B24" s="181"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="209"/>
+      <c r="B24" s="187"/>
       <c r="C24" s="135">
         <v>43971</v>
       </c>
@@ -4409,9 +4482,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="205"/>
-      <c r="B25" s="182"/>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="212"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="48">
         <v>44034</v>
       </c>
@@ -4434,11 +4507,11 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="204" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="200">
+      <c r="B26" s="189">
         <v>50</v>
       </c>
       <c r="C26" s="45">
@@ -4463,9 +4536,9 @@
         <v>40.055408244062285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="202"/>
-      <c r="B27" s="181"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="209"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="37">
         <v>43670</v>
       </c>
@@ -4488,9 +4561,9 @@
         <v>40.555774461639999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="202"/>
-      <c r="B28" s="181"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="209"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="135">
         <v>43971</v>
       </c>
@@ -4513,9 +4586,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
-      <c r="B29" s="182"/>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="212"/>
+      <c r="B29" s="190"/>
       <c r="C29" s="48">
         <v>44034</v>
       </c>
@@ -4538,11 +4611,11 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="202" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="181">
+      <c r="B30" s="187">
         <v>70</v>
       </c>
       <c r="C30" s="34">
@@ -4567,9 +4640,9 @@
         <v>50.431439204138087</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="202"/>
-      <c r="B31" s="181"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="209"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="37">
         <v>43670</v>
       </c>
@@ -4592,9 +4665,9 @@
         <v>47.560267438577668</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="202"/>
-      <c r="B32" s="181"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="209"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="135">
         <v>43971</v>
       </c>
@@ -4617,9 +4690,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="203"/>
-      <c r="B33" s="207"/>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="210"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="34">
         <v>44034</v>
       </c>
@@ -4642,73 +4715,68 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="183" t="s">
+    <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="184"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="185" t="s">
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="187"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="190"/>
-    </row>
-    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="193"/>
-    </row>
-    <row r="39" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="195"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="196"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="198"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="196"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="198"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="199"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="201"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I38"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -4718,10 +4786,15 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I38"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4729,44 +4802,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3591D840-BF2B-44CB-AB7C-890BD64B07C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="180"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
       <c r="E2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="E3" s="229" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="E3" s="180" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="80" t="s">
         <v>36</v>
       </c>
@@ -4776,11 +4849,11 @@
       <c r="C4" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="228" t="s">
+      <c r="E4" s="179" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>1</v>
       </c>
@@ -4791,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="82" t="s">
         <v>4</v>
       </c>
@@ -4802,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C3"/>
@@ -4812,29 +4885,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCCF1BE-E7C0-4A03-A7F0-1F99DF5E00FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="149" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.5" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.109375" style="21" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.6640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.83203125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12.33203125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="29.6640625" style="20" collapsed="1"/>
     <col min="24" max="16384" width="29.6640625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="148"/>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -4856,18 +4929,18 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="209" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="226" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -4880,7 +4953,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="152"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -4894,20 +4967,20 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="35"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="194" t="s">
+      <c r="G4" s="203"/>
+      <c r="H4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="195"/>
+      <c r="I4" s="203"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -4920,7 +4993,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" s="21" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="21" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
@@ -4951,11 +5024,11 @@
       <c r="K5" s="150"/>
       <c r="L5" s="150"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="216" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="218"/>
+      <c r="B6" s="228"/>
       <c r="C6" s="36">
         <v>43585</v>
       </c>
@@ -4989,9 +5062,9 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
-      <c r="B7" s="211"/>
+    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="220"/>
+      <c r="B7" s="217"/>
       <c r="C7" s="37">
         <v>43676</v>
       </c>
@@ -5017,9 +5090,9 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
-      <c r="B8" s="211"/>
+    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="220"/>
+      <c r="B8" s="217"/>
       <c r="C8" s="37">
         <v>44033</v>
       </c>
@@ -5045,11 +5118,11 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="214">
+      <c r="B9" s="222">
         <v>1.5</v>
       </c>
       <c r="C9" s="45">
@@ -5085,9 +5158,9 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
-      <c r="B10" s="211"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="220"/>
+      <c r="B10" s="217"/>
       <c r="C10" s="37">
         <v>43676</v>
       </c>
@@ -5121,9 +5194,9 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
-      <c r="B11" s="215"/>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="221"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="37">
         <v>44033</v>
       </c>
@@ -5157,11 +5230,11 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="219" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="214">
+      <c r="B12" s="222">
         <v>6.5</v>
       </c>
       <c r="C12" s="45">
@@ -5197,9 +5270,9 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="217"/>
-      <c r="B13" s="211"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="220"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="37">
         <v>43676</v>
       </c>
@@ -5233,9 +5306,9 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="215"/>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="221"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="37">
         <v>44033</v>
       </c>
@@ -5269,11 +5342,11 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="45">
         <v>43585</v>
       </c>
@@ -5307,9 +5380,9 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="217"/>
-      <c r="B16" s="211"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="220"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="37">
         <v>43676</v>
       </c>
@@ -5343,9 +5416,9 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="220"/>
-      <c r="B17" s="215"/>
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="221"/>
+      <c r="B17" s="223"/>
       <c r="C17" s="37">
         <v>44033</v>
       </c>
@@ -5379,11 +5452,11 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="210" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="211">
+      <c r="B18" s="217">
         <v>10.1</v>
       </c>
       <c r="C18" s="45">
@@ -5419,9 +5492,9 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="210"/>
-      <c r="B19" s="211"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="215"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="37">
         <v>43676</v>
       </c>
@@ -5455,9 +5528,9 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
-      <c r="B20" s="215"/>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="225"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="37">
         <v>44033</v>
       </c>
@@ -5491,11 +5564,11 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="212" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="224" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="214">
+      <c r="B21" s="222">
         <v>12.5</v>
       </c>
       <c r="C21" s="45">
@@ -5531,9 +5604,9 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="210"/>
-      <c r="B22" s="211"/>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="215"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="37">
         <v>43676</v>
       </c>
@@ -5567,9 +5640,9 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
-      <c r="B23" s="215"/>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="225"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="37">
         <v>44033</v>
       </c>
@@ -5603,11 +5676,11 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="210" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="211">
+      <c r="B24" s="217">
         <v>18</v>
       </c>
       <c r="C24" s="45">
@@ -5643,9 +5716,9 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="210"/>
-      <c r="B25" s="211"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="215"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -5679,9 +5752,9 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210"/>
-      <c r="B26" s="211"/>
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="215"/>
+      <c r="B26" s="217"/>
       <c r="C26" s="37">
         <v>44033</v>
       </c>
@@ -5715,11 +5788,11 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="212" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="214"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="45">
         <v>43585</v>
       </c>
@@ -5753,9 +5826,9 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="210"/>
-      <c r="B28" s="211"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="215"/>
+      <c r="B28" s="217"/>
       <c r="C28" s="37">
         <v>43676</v>
       </c>
@@ -5789,9 +5862,9 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="213"/>
-      <c r="B29" s="215"/>
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="225"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="37">
         <v>44033</v>
       </c>
@@ -5825,11 +5898,11 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="212" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="224" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="214">
+      <c r="B30" s="222">
         <v>21</v>
       </c>
       <c r="C30" s="45">
@@ -5865,9 +5938,9 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="210"/>
-      <c r="B31" s="211"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="215"/>
+      <c r="B31" s="217"/>
       <c r="C31" s="37">
         <v>43676</v>
       </c>
@@ -5901,9 +5974,9 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="213"/>
-      <c r="B32" s="215"/>
+    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="225"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="37">
         <v>44033</v>
       </c>
@@ -5937,11 +6010,11 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="212" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="214"/>
+      <c r="B33" s="222"/>
       <c r="C33" s="45">
         <v>43585</v>
       </c>
@@ -5975,9 +6048,9 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="210"/>
-      <c r="B34" s="211"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="215"/>
+      <c r="B34" s="217"/>
       <c r="C34" s="37">
         <v>43676</v>
       </c>
@@ -6011,9 +6084,9 @@
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
     </row>
-    <row r="35" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="213"/>
-      <c r="B35" s="215"/>
+    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="225"/>
+      <c r="B35" s="223"/>
       <c r="C35" s="37">
         <v>44033</v>
       </c>
@@ -6047,11 +6120,11 @@
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="212" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="214">
+      <c r="B36" s="222">
         <v>23</v>
       </c>
       <c r="C36" s="45">
@@ -6087,9 +6160,9 @@
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="210"/>
-      <c r="B37" s="211"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="215"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="37">
         <v>43676</v>
       </c>
@@ -6123,9 +6196,9 @@
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
     </row>
-    <row r="38" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
-      <c r="B38" s="215"/>
+    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="225"/>
+      <c r="B38" s="223"/>
       <c r="C38" s="37">
         <v>44033</v>
       </c>
@@ -6159,11 +6232,11 @@
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="210" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="215" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="211"/>
+      <c r="B39" s="217"/>
       <c r="C39" s="136">
         <v>43585</v>
       </c>
@@ -6197,9 +6270,9 @@
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="210"/>
-      <c r="B40" s="211"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="215"/>
+      <c r="B40" s="217"/>
       <c r="C40" s="135">
         <v>43676</v>
       </c>
@@ -6233,9 +6306,9 @@
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
     </row>
-    <row r="41" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="221"/>
-      <c r="B41" s="222"/>
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="216"/>
+      <c r="B41" s="218"/>
       <c r="C41" s="34">
         <v>44033</v>
       </c>
@@ -6269,18 +6342,18 @@
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="183" t="s">
+    <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="184"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="192"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -6293,18 +6366,18 @@
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
     </row>
-    <row r="43" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="185" t="s">
+    <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="187"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="195"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -6317,16 +6390,16 @@
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
-      <c r="B44" s="189"/>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="189"/>
-      <c r="G44" s="189"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="190"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="196"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="197"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="198"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -6339,45 +6412,31 @@
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
-      <c r="B45" s="189"/>
-      <c r="C45" s="189"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="190"/>
-    </row>
-    <row r="46" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="191"/>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="193"/>
-    </row>
-    <row r="47" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="196"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="198"/>
+    </row>
+    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="199"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="201"/>
+    </row>
+    <row r="47" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -6393,6 +6452,20 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6400,26 +6473,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C5647E-997F-41E9-87DF-29F8808DED3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="155" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.83203125" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.44140625" style="155" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.77734375" style="155" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5" style="155" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1640625" style="155" collapsed="1"/>
+    <col min="6" max="6" width="14.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" style="155" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.109375" style="155" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="153" t="s">
         <v>236</v>
       </c>
@@ -6435,21 +6508,21 @@
       <c r="K1" s="153"/>
       <c r="L1" s="153"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="156"/>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="223" t="s">
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="229" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="224"/>
+      <c r="F3" s="230"/>
       <c r="G3" s="154"/>
     </row>
-    <row r="4" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="169" t="s">
         <v>232</v>
       </c>
@@ -6470,7 +6543,7 @@
       </c>
       <c r="G4" s="154"/>
     </row>
-    <row r="5" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="160">
         <v>43585</v>
       </c>
@@ -6491,7 +6564,7 @@
       </c>
       <c r="G5" s="154"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="160">
         <v>43676</v>
       </c>
@@ -6512,7 +6585,7 @@
       </c>
       <c r="G6" s="154"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="164">
         <v>44033</v>
       </c>
@@ -6533,24 +6606,24 @@
       </c>
       <c r="G7" s="154"/>
     </row>
-    <row r="8" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="168"/>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="156"/>
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="226"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="223" t="s">
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="229" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="224"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="154"/>
     </row>
-    <row r="11" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="169" t="s">
         <v>232</v>
       </c>
@@ -6571,7 +6644,7 @@
       </c>
       <c r="G11" s="154"/>
     </row>
-    <row r="12" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="160">
         <v>43607</v>
       </c>
@@ -6592,7 +6665,7 @@
       </c>
       <c r="G12" s="154"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="160">
         <v>43670</v>
       </c>
@@ -6613,7 +6686,7 @@
       </c>
       <c r="G13" s="154"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="160">
         <v>43971</v>
       </c>
@@ -6634,7 +6707,7 @@
       </c>
       <c r="G14" s="154"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="164">
         <v>44034</v>
       </c>
@@ -6655,7 +6728,7 @@
       </c>
       <c r="G15" s="154"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:F3"/>
@@ -6668,7 +6741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0BE805-BBFA-4BED-8A0D-CEAAD000EDCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -6676,38 +6749,38 @@
       <selection pane="topRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="150" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="150" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
@@ -6790,7 +6863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="83">
         <v>43585</v>
       </c>
@@ -6876,7 +6949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112">
         <v>43585</v>
       </c>
@@ -6962,7 +7035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="112">
         <v>43585</v>
       </c>
@@ -7048,7 +7121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="83">
         <v>43585</v>
       </c>
@@ -7134,7 +7207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="83">
         <v>43585</v>
       </c>
@@ -7220,7 +7293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>43585</v>
       </c>
@@ -7306,7 +7379,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>43585</v>
       </c>
@@ -7392,7 +7465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>43585</v>
       </c>
@@ -7478,7 +7551,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>43585</v>
       </c>
@@ -7564,7 +7637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>43585</v>
       </c>
@@ -7650,7 +7723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>43585</v>
       </c>
@@ -7736,7 +7809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>43585</v>
       </c>
@@ -7822,7 +7895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
         <v>43585</v>
       </c>
@@ -7908,7 +7981,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
         <v>43585</v>
       </c>
@@ -7994,7 +8067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>43676</v>
       </c>
@@ -8080,7 +8153,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
         <v>43676</v>
       </c>
@@ -8166,7 +8239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
         <v>43676</v>
       </c>
@@ -8252,7 +8325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
         <v>43676</v>
       </c>
@@ -8338,7 +8411,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
         <v>43676</v>
       </c>
@@ -8424,7 +8497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="83">
         <v>43676</v>
       </c>
@@ -8510,7 +8583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="83">
         <v>43676</v>
       </c>
@@ -8596,7 +8669,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
         <v>43676</v>
       </c>
@@ -8682,7 +8755,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
         <v>43676</v>
       </c>
@@ -8768,7 +8841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="83">
         <v>43676</v>
       </c>
@@ -8854,7 +8927,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
         <v>43676</v>
       </c>
@@ -8940,7 +9013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
         <v>43676</v>
       </c>
@@ -9026,7 +9099,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
         <v>43676</v>
       </c>
@@ -9112,7 +9185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
         <v>44033</v>
       </c>
@@ -9198,7 +9271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83">
         <v>44033</v>
       </c>
@@ -9284,7 +9357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="83">
         <v>44033</v>
       </c>
@@ -9370,7 +9443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="83">
         <v>44033</v>
       </c>
@@ -9456,7 +9529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="83">
         <v>44033</v>
       </c>
@@ -9542,7 +9615,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="83">
         <v>44033</v>
       </c>
@@ -9628,7 +9701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="83">
         <v>44033</v>
       </c>
@@ -9714,7 +9787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="83">
         <v>44033</v>
       </c>
@@ -9800,7 +9873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="83">
         <v>44033</v>
       </c>
@@ -9886,7 +9959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="83">
         <v>44033</v>
       </c>
@@ -9972,7 +10045,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="83">
         <v>44033</v>
       </c>
@@ -10058,7 +10131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="83">
         <v>44033</v>
       </c>
@@ -10144,7 +10217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="83">
         <v>44033</v>
       </c>
@@ -10236,53 +10309,53 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51123B14-CEFF-4792-8B93-758A903ABFF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="14.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="14.44140625" style="10" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="17.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="14.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="14.44140625" style="10" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="17.33203125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.83203125" style="10" collapsed="1"/>
+    <col min="36" max="36" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.77734375" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -10395,7 +10468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>43971</v>
       </c>
@@ -10511,7 +10584,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>43971</v>
       </c>
@@ -10627,7 +10700,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>43971</v>
       </c>
@@ -10743,7 +10816,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43971</v>
       </c>
@@ -10859,7 +10932,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>43971</v>
       </c>
@@ -10975,7 +11048,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>43971</v>
       </c>
@@ -11091,7 +11164,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>43971</v>
       </c>
@@ -11207,7 +11280,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>43971</v>
       </c>
@@ -11323,7 +11396,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>43971</v>
       </c>
@@ -11439,7 +11512,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>43971</v>
       </c>
@@ -11555,7 +11628,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>43971</v>
       </c>
@@ -11671,7 +11744,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>43971</v>
       </c>
@@ -11787,7 +11860,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>43971</v>
       </c>
@@ -11903,7 +11976,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>43971</v>
       </c>
@@ -12019,7 +12092,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>44034</v>
       </c>
@@ -12135,7 +12208,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>44034</v>
       </c>
@@ -12251,7 +12324,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>44034</v>
       </c>
@@ -12367,7 +12440,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44034</v>
       </c>
@@ -12483,7 +12556,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44034</v>
       </c>
@@ -12599,7 +12672,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44034</v>
       </c>
@@ -12715,7 +12788,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44034</v>
       </c>
@@ -12831,7 +12904,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44034</v>
       </c>
@@ -12947,7 +13020,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44034</v>
       </c>
@@ -13063,111 +13136,111 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Characteristic" prompt="REQUIRED:  The name of the characteristic - or type of parameter/pollutant being tested - as it is to be displayed in applications and on reports. Use drop down list provided." sqref="E1 X1 AE1 N1" xr:uid="{6DE3773B-7A28-4451-887A-81F56211405F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Value" prompt="REQUIRED unless Result Detection Condition is BLANK. Numeric representation of the result value for fully numeric values. If below Method Detection Limit or Quantification Limit, leave &quot;Result Value&quot; blank and enter into &quot;Result Detection Limit Value. " sqref="F1 Y1 AF1 O1" xr:uid="{07F79F15-A282-4542-A0FE-3C8A9651BA17}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Value Units" prompt="REQUIRED: Unit of measurement of Result Value (numeric result value). Use drop down list provided. " sqref="G1 Z1 AG1 P1" xr:uid="{846C0018-1B4D-42CB-AA87-49DEFE6E2424}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Qualifier" prompt="Required if available: Lab Result Qualifier Code if laboratory analysis of sample requires a qualification." sqref="H1:I1 AA1:AB1 AH1:AI1 Q1:R1" xr:uid="{950FFF52-F528-4BC0-8CA9-84A033BD65BA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Monitoring Location ID" prompt="REQUIRED: A code up to 15-characters that uniquely identifies the Station within the Organization. Use drop down list provided. " sqref="D1" xr:uid="{1753D546-2A9E-40C4-B101-6B0DFFD63022}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Activity Start Date" prompt="REQUIRED:  For Samples Collected or for Measurements/Observations made - the date and time that the Field Activity began.  For Samples Created from other samples - the date and time on which a sample is created by compositing, splitting, or subsampling " sqref="A1:D1" xr:uid="{3445AB04-1303-4927-B57E-C29DFCC9B1EF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Activity Type" prompt="REQUIRED:  The type of the Field Activity being performed, used to distinguish between field samples, field measurements and observations, and QA samples. Use drop down menu provided." sqref="I1 AB1 AI1 R1" xr:uid="{B82FBDD0-BD00-4BEE-A6B7-BE15C61DD37B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Characteristic" prompt="REQUIRED:  The name of the characteristic - or type of parameter/pollutant being tested - as it is to be displayed in applications and on reports. Use drop down list provided." sqref="E1 X1 AE1 N1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Value" prompt="REQUIRED unless Result Detection Condition is BLANK. Numeric representation of the result value for fully numeric values. If below Method Detection Limit or Quantification Limit, leave &quot;Result Value&quot; blank and enter into &quot;Result Detection Limit Value. " sqref="F1 Y1 AF1 O1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Value Units" prompt="REQUIRED: Unit of measurement of Result Value (numeric result value). Use drop down list provided. " sqref="G1 Z1 AG1 P1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Result Qualifier" prompt="Required if available: Lab Result Qualifier Code if laboratory analysis of sample requires a qualification." sqref="H1:I1 AA1:AB1 AH1:AI1 Q1:R1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Monitoring Location ID" prompt="REQUIRED: A code up to 15-characters that uniquely identifies the Station within the Organization. Use drop down list provided. " sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Activity Start Date" prompt="REQUIRED:  For Samples Collected or for Measurements/Observations made - the date and time that the Field Activity began.  For Samples Created from other samples - the date and time on which a sample is created by compositing, splitting, or subsampling " sqref="A1:D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Activity Type" prompt="REQUIRED:  The type of the Field Activity being performed, used to distinguish between field samples, field measurements and observations, and QA samples. Use drop down menu provided." sqref="I1 AB1 AI1 R1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13175,7 +13248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595E2761-EE80-8F49-B4F5-F1B72028E617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13183,20 +13256,20 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
@@ -13228,7 +13301,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="83">
         <v>43585</v>
       </c>
@@ -13254,7 +13327,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83">
         <v>43585</v>
       </c>
@@ -13281,7 +13354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="83">
         <v>43585</v>
       </c>
@@ -13308,7 +13381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="112">
         <v>43585</v>
       </c>
@@ -13335,7 +13408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="112">
         <v>43585</v>
       </c>
@@ -13361,7 +13434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83">
         <v>43585</v>
       </c>
@@ -13388,7 +13461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
         <v>43585</v>
       </c>
@@ -13414,7 +13487,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
         <v>43585</v>
       </c>
@@ -13441,7 +13514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="83">
         <v>43585</v>
       </c>
@@ -13468,7 +13541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
         <v>43585</v>
       </c>
@@ -13495,7 +13568,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
         <v>43585</v>
       </c>
@@ -13521,7 +13594,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
         <v>43585</v>
       </c>
@@ -13548,7 +13621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
         <v>43585</v>
       </c>
@@ -13574,7 +13647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
         <v>43585</v>
       </c>
@@ -13601,7 +13674,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>43676</v>
       </c>
@@ -13628,7 +13701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
         <v>43676</v>
       </c>
@@ -13655,7 +13728,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
         <v>43676</v>
       </c>
@@ -13681,7 +13754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
         <v>43676</v>
       </c>
@@ -13708,7 +13781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
         <v>43676</v>
       </c>
@@ -13734,7 +13807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="83">
         <v>43676</v>
       </c>
@@ -13761,7 +13834,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="83">
         <v>43676</v>
       </c>
@@ -13787,7 +13860,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
         <v>43676</v>
       </c>
@@ -13814,7 +13887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
         <v>43676</v>
       </c>
@@ -13840,7 +13913,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="83">
         <v>43676</v>
       </c>
@@ -13867,7 +13940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
         <v>43676</v>
       </c>
@@ -13893,7 +13966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
         <v>43676</v>
       </c>
@@ -13920,7 +13993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
         <v>43676</v>
       </c>
@@ -13946,7 +14019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
         <v>44033</v>
       </c>
@@ -13973,7 +14046,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83">
         <v>44033</v>
       </c>
@@ -14000,7 +14073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="83">
         <v>44033</v>
       </c>
@@ -14026,7 +14099,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="83">
         <v>44033</v>
       </c>
@@ -14053,7 +14126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="83">
         <v>44033</v>
       </c>
@@ -14080,7 +14153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="83">
         <v>44033</v>
       </c>
@@ -14106,7 +14179,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="83">
         <v>44033</v>
       </c>
@@ -14132,7 +14205,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="83">
         <v>44033</v>
       </c>
@@ -14159,7 +14232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="83">
         <v>44033</v>
       </c>
@@ -14186,7 +14259,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="83">
         <v>44033</v>
       </c>
@@ -14212,7 +14285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="83">
         <v>44033</v>
       </c>
@@ -14238,7 +14311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="83">
         <v>44033</v>
       </c>
@@ -14265,7 +14338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="83">
         <v>44033</v>
       </c>
@@ -14292,7 +14365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="83">
         <v>43585</v>
       </c>
@@ -14321,7 +14394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="83">
         <v>43585</v>
       </c>
@@ -14350,7 +14423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="83">
         <v>43585</v>
       </c>
@@ -14379,7 +14452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="112">
         <v>43585</v>
       </c>
@@ -14408,7 +14481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="112">
         <v>43585</v>
       </c>
@@ -14437,7 +14510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="83">
         <v>43585</v>
       </c>
@@ -14466,7 +14539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="83">
         <v>43585</v>
       </c>
@@ -14495,7 +14568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="83">
         <v>43585</v>
       </c>
@@ -14524,7 +14597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="83">
         <v>43585</v>
       </c>
@@ -14553,7 +14626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="83">
         <v>43585</v>
       </c>
@@ -14582,7 +14655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="83">
         <v>43585</v>
       </c>
@@ -14611,7 +14684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="83">
         <v>43585</v>
       </c>
@@ -14640,7 +14713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="83">
         <v>43585</v>
       </c>
@@ -14669,7 +14742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="83">
         <v>43585</v>
       </c>
@@ -14698,7 +14771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="83">
         <v>43676</v>
       </c>
@@ -14727,7 +14800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="83">
         <v>43676</v>
       </c>
@@ -14756,7 +14829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="83">
         <v>43676</v>
       </c>
@@ -14785,7 +14858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="83">
         <v>43676</v>
       </c>
@@ -14814,7 +14887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="83">
         <v>43676</v>
       </c>
@@ -14843,7 +14916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="83">
         <v>43676</v>
       </c>
@@ -14872,7 +14945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="83">
         <v>43676</v>
       </c>
@@ -14901,7 +14974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="83">
         <v>43676</v>
       </c>
@@ -14930,7 +15003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="83">
         <v>43676</v>
       </c>
@@ -14959,7 +15032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="83">
         <v>43676</v>
       </c>
@@ -14988,7 +15061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="83">
         <v>43676</v>
       </c>
@@ -15017,7 +15090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="83">
         <v>43676</v>
       </c>
@@ -15046,7 +15119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="83">
         <v>43676</v>
       </c>
@@ -15075,7 +15148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="83">
         <v>44033</v>
       </c>
@@ -15104,7 +15177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="83">
         <v>44033</v>
       </c>
@@ -15133,7 +15206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="83">
         <v>44033</v>
       </c>
@@ -15162,7 +15235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="83">
         <v>44033</v>
       </c>
@@ -15191,7 +15264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="83">
         <v>44033</v>
       </c>
@@ -15220,7 +15293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="83">
         <v>44033</v>
       </c>
@@ -15249,7 +15322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="83">
         <v>44033</v>
       </c>
@@ -15278,7 +15351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="83">
         <v>44033</v>
       </c>
@@ -15307,7 +15380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="83">
         <v>44033</v>
       </c>
@@ -15336,7 +15409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="83">
         <v>44033</v>
       </c>
@@ -15365,7 +15438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="83">
         <v>44033</v>
       </c>
@@ -15394,7 +15467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="83">
         <v>44033</v>
       </c>
@@ -15423,7 +15496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="83">
         <v>44033</v>
       </c>
@@ -15452,7 +15525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="83">
         <v>43585</v>
       </c>
@@ -15478,7 +15551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="83">
         <v>43585</v>
       </c>
@@ -15505,7 +15578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="83">
         <v>43585</v>
       </c>
@@ -15531,7 +15604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="112">
         <v>43585</v>
       </c>
@@ -15558,7 +15631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="112">
         <v>43585</v>
       </c>
@@ -15584,7 +15657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="83">
         <v>43585</v>
       </c>
@@ -15611,7 +15684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="83">
         <v>43585</v>
       </c>
@@ -15637,7 +15710,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="83">
         <v>43585</v>
       </c>
@@ -15664,7 +15737,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="83">
         <v>43585</v>
       </c>
@@ -15690,7 +15763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="83">
         <v>43585</v>
       </c>
@@ -15717,7 +15790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="83">
         <v>43585</v>
       </c>
@@ -15743,7 +15816,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="83">
         <v>43585</v>
       </c>
@@ -15770,7 +15843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="83">
         <v>43585</v>
       </c>
@@ -15796,7 +15869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="83">
         <v>43585</v>
       </c>
@@ -15823,7 +15896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="83">
         <v>43676</v>
       </c>
@@ -15849,7 +15922,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="83">
         <v>43676</v>
       </c>
@@ -15876,7 +15949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="83">
         <v>43676</v>
       </c>
@@ -15902,7 +15975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="83">
         <v>43676</v>
       </c>
@@ -15929,7 +16002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="83">
         <v>43676</v>
       </c>
@@ -15955,7 +16028,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="83">
         <v>43676</v>
       </c>
@@ -15982,7 +16055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="83">
         <v>43676</v>
       </c>
@@ -16008,7 +16081,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="83">
         <v>43676</v>
       </c>
@@ -16035,7 +16108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="83">
         <v>43676</v>
       </c>
@@ -16061,7 +16134,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="83">
         <v>43676</v>
       </c>
@@ -16088,7 +16161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="83">
         <v>43676</v>
       </c>
@@ -16114,7 +16187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="83">
         <v>43676</v>
       </c>
@@ -16141,7 +16214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="83">
         <v>43676</v>
       </c>
@@ -16167,7 +16240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="83">
         <v>44033</v>
       </c>
@@ -16194,7 +16267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="83">
         <v>44033</v>
       </c>
@@ -16220,7 +16293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="83">
         <v>44033</v>
       </c>
@@ -16247,7 +16320,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="83">
         <v>44033</v>
       </c>
@@ -16273,7 +16346,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="83">
         <v>44033</v>
       </c>
@@ -16300,7 +16373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="83">
         <v>44033</v>
       </c>
@@ -16326,7 +16399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="83">
         <v>44033</v>
       </c>
@@ -16353,7 +16426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="83">
         <v>44033</v>
       </c>
@@ -16379,7 +16452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="83">
         <v>44033</v>
       </c>
@@ -16406,7 +16479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="83">
         <v>44033</v>
       </c>
@@ -16432,7 +16505,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="83">
         <v>44033</v>
       </c>
@@ -16459,7 +16532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="83">
         <v>44033</v>
       </c>
@@ -16485,7 +16558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="83">
         <v>44033</v>
       </c>
@@ -16512,7 +16585,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="83">
         <v>43585</v>
       </c>
@@ -16541,7 +16614,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="83">
         <v>43585</v>
       </c>
@@ -16570,7 +16643,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="83">
         <v>43585</v>
       </c>
@@ -16599,7 +16672,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="112">
         <v>43585</v>
       </c>
@@ -16628,7 +16701,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="112">
         <v>43585</v>
       </c>
@@ -16657,7 +16730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="83">
         <v>43585</v>
       </c>
@@ -16686,7 +16759,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="83">
         <v>43585</v>
       </c>
@@ -16715,7 +16788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="83">
         <v>43585</v>
       </c>
@@ -16744,7 +16817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="83">
         <v>43585</v>
       </c>
@@ -16773,7 +16846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="83">
         <v>43585</v>
       </c>
@@ -16802,7 +16875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="83">
         <v>43585</v>
       </c>
@@ -16831,7 +16904,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="83">
         <v>43585</v>
       </c>
@@ -16860,7 +16933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="83">
         <v>43585</v>
       </c>
@@ -16889,7 +16962,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="83">
         <v>43585</v>
       </c>
@@ -16918,7 +16991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="83">
         <v>43676</v>
       </c>
@@ -16947,7 +17020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="83">
         <v>43676</v>
       </c>
@@ -16976,7 +17049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="83">
         <v>43676</v>
       </c>
@@ -17005,7 +17078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="83">
         <v>43676</v>
       </c>
@@ -17034,7 +17107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="83">
         <v>43676</v>
       </c>
@@ -17063,7 +17136,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="83">
         <v>43676</v>
       </c>
@@ -17092,7 +17165,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="83">
         <v>43676</v>
       </c>
@@ -17121,7 +17194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="83">
         <v>43676</v>
       </c>
@@ -17150,7 +17223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="83">
         <v>43676</v>
       </c>
@@ -17179,7 +17252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="83">
         <v>43676</v>
       </c>
@@ -17208,7 +17281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="83">
         <v>43676</v>
       </c>
@@ -17237,7 +17310,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="83">
         <v>43676</v>
       </c>
@@ -17266,7 +17339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="83">
         <v>43676</v>
       </c>
@@ -17295,7 +17368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="83">
         <v>44033</v>
       </c>
@@ -17324,7 +17397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="83">
         <v>44033</v>
       </c>
@@ -17353,7 +17426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="83">
         <v>44033</v>
       </c>
@@ -17382,7 +17455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="83">
         <v>44033</v>
       </c>
@@ -17411,7 +17484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="83">
         <v>44033</v>
       </c>
@@ -17440,7 +17513,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="83">
         <v>44033</v>
       </c>
@@ -17469,7 +17542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="83">
         <v>44033</v>
       </c>
@@ -17498,7 +17571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="83">
         <v>44033</v>
       </c>
@@ -17527,7 +17600,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="83">
         <v>44033</v>
       </c>
@@ -17556,7 +17629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="83">
         <v>44033</v>
       </c>
@@ -17585,7 +17658,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="83">
         <v>44033</v>
       </c>
@@ -17614,7 +17687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="83">
         <v>44033</v>
       </c>
@@ -17643,7 +17716,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="83">
         <v>44033</v>
       </c>
@@ -17673,7 +17746,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I161">
+  <sortState ref="A2:I161">
     <sortCondition ref="E2:E161"/>
     <sortCondition ref="A2:A161"/>
   </sortState>

--- a/data/AllData_ZnCuCaMg_19-20.xlsx
+++ b/data/AllData_ZnCuCaMg_19-20.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Comments, notes" sheetId="2" r:id="rId1"/>
     <sheet name="FINALREPORT_ZnCuSmplg_19-20_RDL" sheetId="4" r:id="rId2"/>
     <sheet name="FINALREPORT_ZnCuSampling_19-20" sheetId="3" r:id="rId3"/>
     <sheet name="FINALREPORT_Baseline_19-20_RDL" sheetId="7" r:id="rId4"/>
-    <sheet name="FINALREPORT_Baseline_19-20" sheetId="6" r:id="rId5"/>
-    <sheet name="FINALREPORT_Weather" sheetId="8" r:id="rId6"/>
-    <sheet name="Raw_Baseline_19-20" sheetId="5" r:id="rId7"/>
-    <sheet name="Raw_ZnCuSampling_2020" sheetId="1" r:id="rId8"/>
-    <sheet name="BM_format_2020" sheetId="9" r:id="rId9"/>
+    <sheet name="BM_format_2020" sheetId="9" r:id="rId5"/>
+    <sheet name="FINALREPORT_Baseline_19-20" sheetId="6" r:id="rId6"/>
+    <sheet name="FINALREPORT_Weather" sheetId="8" r:id="rId7"/>
+    <sheet name="Raw_Baseline_19-20" sheetId="5" r:id="rId8"/>
+    <sheet name="Raw_ZnCuSampling_2020" sheetId="1" r:id="rId9"/>
     <sheet name="BM_Edit_FINALREPORT_ZnCuSmplg_1" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Raw_Baseline_19-20'!$A$1:$AA$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7">Raw_ZnCuSampling_2020!$A$1:$BZ$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Raw_Baseline_19-20'!$A$1:$AA$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8">Raw_ZnCuSampling_2020!$A$1:$BZ$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="272">
   <si>
     <t>KR RM 70-Jims Landing</t>
   </si>
@@ -847,15 +847,43 @@
     <t>find out: which data used paired Mg/Ca data and which used 2000-2014 averages</t>
   </si>
   <si>
-    <t>Ca_Mg_Data_Source</t>
+    <t>Upper No Name Creek</t>
+  </si>
+  <si>
+    <t>Upper Slikok Creek</t>
+  </si>
+  <si>
+    <t>Lower Soldotna Creek</t>
+  </si>
+  <si>
+    <t>Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t>Upper Beaver Creek</t>
+  </si>
+  <si>
+    <t>Lower No Name Creek</t>
+  </si>
+  <si>
+    <t>Lower Slikok Creek</t>
+  </si>
+  <si>
+    <t>Upper Soldotna Creek</t>
+  </si>
+  <si>
+    <t>Lower Funny River</t>
+  </si>
+  <si>
+    <t>Slikok Creek Kenai River Confluence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1004,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="85">
+  <borders count="108">
     <border>
       <left/>
       <right/>
@@ -2040,6 +2068,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2048,7 +2383,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2514,28 +2849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2545,22 +2858,115 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2596,27 +3002,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2628,137 +3013,221 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3426,11 +3895,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3582,11 +4051,11 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3633,7 +4102,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3669,7 +4138,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="178">
+      <c r="A2" s="170">
         <v>43585</v>
       </c>
       <c r="B2" t="s">
@@ -3695,7 +4164,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="178">
+      <c r="A3" s="170">
         <v>43585</v>
       </c>
       <c r="B3" t="s">
@@ -3721,7 +4190,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="178">
+      <c r="A4" s="170">
         <v>43676</v>
       </c>
       <c r="B4" t="s">
@@ -3747,7 +4216,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="178">
+      <c r="A5" s="170">
         <v>44033</v>
       </c>
       <c r="B5" t="s">
@@ -3793,11 +4262,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
       <c r="E1" t="s">
         <v>257</v>
       </c>
@@ -3812,7 +4281,7 @@
       <c r="C2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="173" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3851,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3883,7 +4352,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
-      <c r="L1" s="182" t="s">
+      <c r="L1" s="174" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3891,7 +4360,7 @@
       <c r="A2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="183" t="s">
+      <c r="L2" s="175" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3906,7 +4375,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="212" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="203"/>
@@ -3951,7 +4420,7 @@
       <c r="A6" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="208"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="36">
         <v>43607</v>
       </c>
@@ -3976,7 +4445,7 @@
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="205"/>
-      <c r="B7" s="187"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -4015,7 +4484,7 @@
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="205"/>
-      <c r="B8" s="187"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -4038,7 +4507,7 @@
         <v>137</v>
       </c>
       <c r="J8" s="108"/>
-      <c r="K8" s="184"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="1"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4054,7 +4523,7 @@
     </row>
     <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="205"/>
-      <c r="B9" s="187"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="37">
         <v>44034</v>
       </c>
@@ -4077,7 +4546,7 @@
         <v>87.53</v>
       </c>
       <c r="J9" s="107"/>
-      <c r="K9" s="184"/>
+      <c r="K9" s="176"/>
       <c r="L9" s="1"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4095,7 +4564,7 @@
       <c r="A10" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="189"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="45">
         <v>43607</v>
       </c>
@@ -4117,12 +4586,12 @@
       <c r="I10" s="72">
         <v>50.554834324345521</v>
       </c>
-      <c r="K10" s="184"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="205"/>
-      <c r="B11" s="187"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="37">
         <v>43670</v>
       </c>
@@ -4149,7 +4618,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="205"/>
-      <c r="B12" s="187"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="135">
         <v>43971</v>
       </c>
@@ -4176,7 +4645,7 @@
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="207"/>
-      <c r="B13" s="190"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="48">
         <v>44034</v>
       </c>
@@ -4203,59 +4672,59 @@
       <c r="A14" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="189">
+      <c r="B14" s="208">
         <v>19</v>
       </c>
-      <c r="C14" s="256">
+      <c r="C14" s="199">
         <v>43607</v>
       </c>
-      <c r="D14" s="240" t="s">
+      <c r="D14" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="241" t="s">
+      <c r="E14" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="242" t="s">
+      <c r="F14" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="243" t="s">
+      <c r="G14" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="244" t="s">
+      <c r="H14" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="243" t="s">
+      <c r="I14" s="186" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="205"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="234">
+      <c r="B15" s="209"/>
+      <c r="C15" s="177">
         <v>43670</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="236" t="s">
+      <c r="E15" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="237">
+      <c r="F15" s="180">
         <v>8.16</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="G15" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="239" t="s">
+      <c r="H15" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="238" t="s">
+      <c r="I15" s="181" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="205"/>
-      <c r="B16" s="187"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="135">
         <v>43971</v>
       </c>
@@ -4280,7 +4749,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="207"/>
-      <c r="B17" s="190"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="48">
         <v>44034</v>
       </c>
@@ -4307,57 +4776,57 @@
       <c r="A18" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="245">
+      <c r="B18" s="208"/>
+      <c r="C18" s="188">
         <v>43607</v>
       </c>
-      <c r="D18" s="246" t="s">
+      <c r="D18" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="247">
+      <c r="E18" s="190">
         <v>38.449369999999995</v>
       </c>
-      <c r="F18" s="248" t="s">
+      <c r="F18" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="249">
+      <c r="G18" s="192">
         <v>5.0691949101186182</v>
       </c>
-      <c r="H18" s="250">
+      <c r="H18" s="193">
         <v>67.599999999999994</v>
       </c>
-      <c r="I18" s="249">
+      <c r="I18" s="192">
         <v>46.218870417240375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="205"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="251">
+      <c r="B19" s="209"/>
+      <c r="C19" s="194">
         <v>43670</v>
       </c>
-      <c r="D19" s="252" t="s">
+      <c r="D19" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="253">
+      <c r="E19" s="196">
         <v>73.583059999999989</v>
       </c>
-      <c r="F19" s="254" t="s">
+      <c r="F19" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="255">
+      <c r="G19" s="198">
         <v>8.8269936178549457</v>
       </c>
       <c r="H19" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="255">
+      <c r="I19" s="198">
         <v>79.595787160671918</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="205"/>
-      <c r="B20" s="187"/>
+      <c r="B20" s="209"/>
       <c r="C20" s="135">
         <v>43971</v>
       </c>
@@ -4382,7 +4851,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="207"/>
-      <c r="B21" s="190"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="48">
         <v>44034</v>
       </c>
@@ -4406,10 +4875,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="225" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="187"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="34">
         <v>43607</v>
       </c>
@@ -4433,8 +4902,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="209"/>
-      <c r="B23" s="187"/>
+      <c r="A23" s="225"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="37">
         <v>43670</v>
       </c>
@@ -4458,8 +4927,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="209"/>
-      <c r="B24" s="187"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="135">
         <v>43971</v>
       </c>
@@ -4483,8 +4952,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="212"/>
-      <c r="B25" s="190"/>
+      <c r="A25" s="228"/>
+      <c r="B25" s="210"/>
       <c r="C25" s="48">
         <v>44034</v>
       </c>
@@ -4508,10 +4977,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="211" t="s">
+      <c r="A26" s="227" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="189">
+      <c r="B26" s="208">
         <v>50</v>
       </c>
       <c r="C26" s="45">
@@ -4537,8 +5006,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="209"/>
-      <c r="B27" s="187"/>
+      <c r="A27" s="225"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="37">
         <v>43670</v>
       </c>
@@ -4562,8 +5031,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="209"/>
-      <c r="B28" s="187"/>
+      <c r="A28" s="225"/>
+      <c r="B28" s="209"/>
       <c r="C28" s="135">
         <v>43971</v>
       </c>
@@ -4587,8 +5056,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="212"/>
-      <c r="B29" s="190"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="48">
         <v>44034</v>
       </c>
@@ -4612,10 +5081,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="187">
+      <c r="B30" s="209">
         <v>70</v>
       </c>
       <c r="C30" s="34">
@@ -4641,8 +5110,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="187"/>
+      <c r="A31" s="225"/>
+      <c r="B31" s="209"/>
       <c r="C31" s="37">
         <v>43670</v>
       </c>
@@ -4666,8 +5135,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="209"/>
-      <c r="B32" s="187"/>
+      <c r="A32" s="225"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="135">
         <v>43971</v>
       </c>
@@ -4691,8 +5160,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="210"/>
-      <c r="B33" s="188"/>
+      <c r="A33" s="226"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="34">
         <v>44034</v>
       </c>
@@ -4716,67 +5185,75 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="191" t="s">
+      <c r="A34" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="193" t="s">
+      <c r="A35" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="195"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="218"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="221"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
+      <c r="A37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="199"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="201"/>
+      <c r="A38" s="222"/>
+      <c r="B38" s="223"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="224"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -4787,14 +5264,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4817,25 +5286,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
       <c r="E2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="E3" s="180" t="s">
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="E3" s="172" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4849,7 +5318,7 @@
       <c r="C4" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="171" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4886,10 +5355,1843 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="249" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="265" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="266"/>
+      <c r="H1" s="267" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="268"/>
+    </row>
+    <row r="2" spans="1:9" s="144" customFormat="1" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="269" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="270" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="270" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="271" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="271" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="272" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="273" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="274" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="144" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="251" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="129">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="F3" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="131">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="252">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="253"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="254" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="255"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="257" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="259" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="260" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="261" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="251" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="208"/>
+      <c r="C6" s="45">
+        <v>43607</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="47">
+        <v>32.585470000000001</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="72">
+        <v>4.4007849186914179</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="275">
+        <v>39.916682611895808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="253"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="37">
+        <v>43670</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="24">
+        <v>50.84966</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="70">
+        <v>6.4368633026853432</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="276">
+        <v>58.197868948497153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="253"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="37">
+        <v>43971</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="276" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="255"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="256">
+        <v>44034</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="50">
+        <v>82.32</v>
+      </c>
+      <c r="F9" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="G9" s="73">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="277">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="251" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="235"/>
+      <c r="C10" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="129">
+        <v>43.06</v>
+      </c>
+      <c r="F10" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="131">
+        <v>5.58</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="252">
+        <v>50.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="253"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="121">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="123">
+        <v>8.83</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="254">
+        <v>79.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="255"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="257">
+        <v>63.36</v>
+      </c>
+      <c r="F12" s="258" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="259">
+        <v>7.77</v>
+      </c>
+      <c r="H12" s="260" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="261">
+        <v>70.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="251" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="208"/>
+      <c r="C13" s="45">
+        <v>43607</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="47">
+        <v>43.064979999999998</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="72">
+        <v>5.5848346067597587</v>
+      </c>
+      <c r="H13" s="64">
+        <v>77.8</v>
+      </c>
+      <c r="I13" s="275">
+        <v>50.554834324345521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="37">
+        <v>43670</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="24">
+        <v>73.654969999999992</v>
+      </c>
+      <c r="F14" s="54">
+        <v>1.07</v>
+      </c>
+      <c r="G14" s="70">
+        <v>8.8343642622378571</v>
+      </c>
+      <c r="H14" s="62">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I14" s="276">
+        <v>79.66169033588649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="276" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="255"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="277" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="278" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="235"/>
+      <c r="C17" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="129" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="252" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="279"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="121">
+        <v>73.58</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="123">
+        <v>8.83</v>
+      </c>
+      <c r="H18" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="254">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="280"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="257">
+        <v>62.29</v>
+      </c>
+      <c r="F19" s="258" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="259">
+        <v>7.66</v>
+      </c>
+      <c r="H19" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="261">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="251" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="208"/>
+      <c r="C20" s="188">
+        <v>43607</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="190">
+        <v>38.449369999999995</v>
+      </c>
+      <c r="F20" s="191" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="192">
+        <v>5.0691949101186182</v>
+      </c>
+      <c r="H20" s="193">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="I20" s="281">
+        <v>46.218870417240375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="194">
+        <v>43670</v>
+      </c>
+      <c r="D21" s="195" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="196">
+        <v>73.583059999999989</v>
+      </c>
+      <c r="F21" s="197" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="198">
+        <v>8.8269936178549457</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="282">
+        <v>79.595787160671918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="276" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="255"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="50">
+        <v>49.82</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="73">
+        <v>6.33</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="277">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="278" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="235"/>
+      <c r="C24" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="129">
+        <v>58.94</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="131">
+        <v>7.3</v>
+      </c>
+      <c r="H24" s="151" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="252">
+        <v>65.959999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="279"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="121">
+        <v>81.39</v>
+      </c>
+      <c r="F25" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="123">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H25" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="254">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="280"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="257">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F26" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="259">
+        <v>9.19</v>
+      </c>
+      <c r="H26" s="260" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="261">
+        <v>82.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="278" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="208"/>
+      <c r="C27" s="45">
+        <v>43607</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="47">
+        <v>58.943150000000003</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="72">
+        <v>7.3027500246677448</v>
+      </c>
+      <c r="H27" s="66">
+        <v>48.5</v>
+      </c>
+      <c r="I27" s="275">
+        <v>65.956467062491583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="279"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="37">
+        <v>43670</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="24">
+        <v>81.390779999999992</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="70">
+        <v>9.6213865223768096</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="276">
+        <v>86.696105818258914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="279"/>
+      <c r="B29" s="209"/>
+      <c r="C29" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="276" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="280"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="50">
+        <v>49.78</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="73">
+        <v>6.32</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="277">
+        <v>57.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="278" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="235"/>
+      <c r="C31" s="136">
+        <v>43585</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="129">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="F31" s="130" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="131">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H31" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="252">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="279"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="135">
+        <v>43676</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="121">
+        <v>42.01</v>
+      </c>
+      <c r="F32" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="123">
+        <v>5.47</v>
+      </c>
+      <c r="H32" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="254">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="280"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="48">
+        <v>44033</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="257">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="F33" s="258" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="259">
+        <v>5.03</v>
+      </c>
+      <c r="H33" s="260" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="261">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="251" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="298">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="131" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="252" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="253"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="121">
+        <v>74.98</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="123">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H35" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="254">
+        <v>80.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="255"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="257">
+        <v>50.23</v>
+      </c>
+      <c r="F36" s="258" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="259">
+        <v>6.37</v>
+      </c>
+      <c r="H36" s="260" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="261">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="251" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="298">
+        <v>6.5</v>
+      </c>
+      <c r="C37" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="129">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="F37" s="130" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="131">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H37" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="252">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="253"/>
+      <c r="B38" s="299"/>
+      <c r="C38" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="121">
+        <v>33.74</v>
+      </c>
+      <c r="F38" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="123">
+        <v>4.53</v>
+      </c>
+      <c r="H38" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="254">
+        <v>41.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="255"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="257">
+        <v>33.229999999999997</v>
+      </c>
+      <c r="F39" s="258" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="259">
+        <v>4.47</v>
+      </c>
+      <c r="H39" s="260" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="261">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="278" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="298">
+        <v>10.1</v>
+      </c>
+      <c r="C40" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="129">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="F40" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="131">
+        <v>4.59</v>
+      </c>
+      <c r="H40" s="151" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" s="252">
+        <v>41.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="279"/>
+      <c r="B41" s="299"/>
+      <c r="C41" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="121">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="123">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" s="254">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="280"/>
+      <c r="B42" s="300"/>
+      <c r="C42" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="257">
+        <v>31.16</v>
+      </c>
+      <c r="F42" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="259">
+        <v>4.24</v>
+      </c>
+      <c r="H42" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="261">
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="278" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="298">
+        <v>12.5</v>
+      </c>
+      <c r="C43" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="129">
+        <v>33.9</v>
+      </c>
+      <c r="F43" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="131">
+        <v>4.55</v>
+      </c>
+      <c r="H43" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="252">
+        <v>41.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="279"/>
+      <c r="B44" s="299"/>
+      <c r="C44" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="121">
+        <v>33.58</v>
+      </c>
+      <c r="F44" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="123">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H44" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="254">
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="280"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="257">
+        <v>30.83</v>
+      </c>
+      <c r="F45" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="259">
+        <v>4.2</v>
+      </c>
+      <c r="H45" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="261">
+        <v>38.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="278" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="298">
+        <v>18</v>
+      </c>
+      <c r="C46" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="129">
+        <v>34.53</v>
+      </c>
+      <c r="F46" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="131">
+        <v>4.62</v>
+      </c>
+      <c r="H46" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="252">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="279"/>
+      <c r="B47" s="299"/>
+      <c r="C47" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="121">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="F47" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="123">
+        <v>4.55</v>
+      </c>
+      <c r="H47" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="254">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="280"/>
+      <c r="B48" s="300"/>
+      <c r="C48" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="257">
+        <v>29.96</v>
+      </c>
+      <c r="F48" s="258" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="259">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H48" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="261">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="251" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="298">
+        <v>19</v>
+      </c>
+      <c r="C49" s="199">
+        <v>43607</v>
+      </c>
+      <c r="D49" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="185" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="186" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="187" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="283" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="253"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="177">
+        <v>43670</v>
+      </c>
+      <c r="D50" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="179" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="180">
+        <v>8.16</v>
+      </c>
+      <c r="G50" s="181" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="284" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="253"/>
+      <c r="B51" s="299"/>
+      <c r="C51" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="276" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="255"/>
+      <c r="B52" s="300"/>
+      <c r="C52" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="277" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="278" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="298">
+        <v>21</v>
+      </c>
+      <c r="C53" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="129">
+        <v>33.49</v>
+      </c>
+      <c r="F53" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="131">
+        <v>4.5</v>
+      </c>
+      <c r="H53" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="I53" s="252">
+        <v>40.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="279"/>
+      <c r="B54" s="299"/>
+      <c r="C54" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="121">
+        <v>33.58</v>
+      </c>
+      <c r="F54" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="123">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H54" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="254">
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="280"/>
+      <c r="B55" s="300"/>
+      <c r="C55" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="257">
+        <v>30.33</v>
+      </c>
+      <c r="F55" s="258" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="259">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H55" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="261">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="278" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="298">
+        <v>23</v>
+      </c>
+      <c r="C56" s="45">
+        <v>43585</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="129">
+        <v>34.11</v>
+      </c>
+      <c r="F56" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="131">
+        <v>4.58</v>
+      </c>
+      <c r="H56" s="151" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="252">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="279"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="37">
+        <v>43676</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="121">
+        <v>33.33</v>
+      </c>
+      <c r="F57" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="123">
+        <v>4.49</v>
+      </c>
+      <c r="H57" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" s="254">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="280"/>
+      <c r="B58" s="300"/>
+      <c r="C58" s="256">
+        <v>44033</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="257">
+        <v>30.08</v>
+      </c>
+      <c r="F58" s="258" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="259">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H58" s="260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="261">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="278" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="298">
+        <v>50</v>
+      </c>
+      <c r="C59" s="45">
+        <v>43607</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="47">
+        <v>32.719167999999996</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="72">
+        <v>4.4162095105574455</v>
+      </c>
+      <c r="H59" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="275">
+        <v>40.055408244062285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="279"/>
+      <c r="B60" s="299"/>
+      <c r="C60" s="37">
+        <v>43670</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="24">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F60" s="54">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G60" s="70">
+        <v>4.4718478682849296</v>
+      </c>
+      <c r="H60" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="276">
+        <v>40.555774461639999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="279"/>
+      <c r="B61" s="299"/>
+      <c r="C61" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="I61" s="276" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="280"/>
+      <c r="B62" s="300"/>
+      <c r="C62" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="50">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="73">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="277">
+        <v>40.950000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="278" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="298">
+        <v>70</v>
+      </c>
+      <c r="C63" s="45">
+        <v>43607</v>
+      </c>
+      <c r="D63" s="285" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="286">
+        <v>42.940949999999994</v>
+      </c>
+      <c r="F63" s="287" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="288">
+        <v>5.5710873525624374</v>
+      </c>
+      <c r="H63" s="289" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63" s="290">
+        <v>50.431439204138087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="279"/>
+      <c r="B64" s="299"/>
+      <c r="C64" s="37">
+        <v>43670</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="24">
+        <v>40.07</v>
+      </c>
+      <c r="F64" s="54">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G64" s="70">
+        <v>5.2512968654625931</v>
+      </c>
+      <c r="H64" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="276">
+        <v>47.560267438577668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="279"/>
+      <c r="B65" s="299"/>
+      <c r="C65" s="135">
+        <v>43971</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="291" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="280"/>
+      <c r="B66" s="300"/>
+      <c r="C66" s="48">
+        <v>44034</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="50">
+        <v>42.77</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="73">
+        <v>5.55</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="277">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="295" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="296"/>
+      <c r="C67" s="296"/>
+      <c r="D67" s="296"/>
+      <c r="E67" s="296"/>
+      <c r="F67" s="296"/>
+      <c r="G67" s="296"/>
+      <c r="H67" s="296"/>
+      <c r="I67" s="297"/>
+    </row>
+    <row r="68" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="292" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="293"/>
+      <c r="C68" s="293"/>
+      <c r="D68" s="293"/>
+      <c r="E68" s="293"/>
+      <c r="F68" s="293"/>
+      <c r="G68" s="293"/>
+      <c r="H68" s="293"/>
+      <c r="I68" s="294"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="250"/>
+      <c r="B69" s="250"/>
+      <c r="C69" s="250"/>
+      <c r="D69" s="250"/>
+      <c r="E69" s="250"/>
+      <c r="F69" s="250"/>
+      <c r="G69" s="250"/>
+      <c r="H69" s="250"/>
+      <c r="I69" s="250"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="250"/>
+      <c r="B70" s="250"/>
+      <c r="C70" s="250"/>
+      <c r="D70" s="250"/>
+      <c r="E70" s="250"/>
+      <c r="F70" s="250"/>
+      <c r="G70" s="250"/>
+      <c r="H70" s="250"/>
+      <c r="I70" s="250"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="250"/>
+      <c r="B71" s="250"/>
+      <c r="C71" s="250"/>
+      <c r="D71" s="250"/>
+      <c r="E71" s="250"/>
+      <c r="F71" s="250"/>
+      <c r="G71" s="250"/>
+      <c r="H71" s="250"/>
+      <c r="I71" s="250"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4930,17 +7232,17 @@
       <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -4973,7 +7275,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="212" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="203"/>
@@ -5025,10 +7327,10 @@
       <c r="L5" s="150"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="228"/>
+      <c r="B6" s="239"/>
       <c r="C6" s="36">
         <v>43585</v>
       </c>
@@ -5063,8 +7365,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="220"/>
-      <c r="B7" s="217"/>
+      <c r="A7" s="238"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="37">
         <v>43676</v>
       </c>
@@ -5091,8 +7393,8 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="220"/>
-      <c r="B8" s="217"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="232"/>
       <c r="C8" s="37">
         <v>44033</v>
       </c>
@@ -5119,10 +7421,10 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="240" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="222">
+      <c r="B9" s="235">
         <v>1.5</v>
       </c>
       <c r="C9" s="45">
@@ -5159,8 +7461,8 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="220"/>
-      <c r="B10" s="217"/>
+      <c r="A10" s="238"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="37">
         <v>43676</v>
       </c>
@@ -5195,8 +7497,8 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="221"/>
-      <c r="B11" s="223"/>
+      <c r="A11" s="241"/>
+      <c r="B11" s="236"/>
       <c r="C11" s="37">
         <v>44033</v>
       </c>
@@ -5231,10 +7533,10 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="240" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="222">
+      <c r="B12" s="235">
         <v>6.5</v>
       </c>
       <c r="C12" s="45">
@@ -5271,8 +7573,8 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="220"/>
-      <c r="B13" s="217"/>
+      <c r="A13" s="238"/>
+      <c r="B13" s="232"/>
       <c r="C13" s="37">
         <v>43676</v>
       </c>
@@ -5307,8 +7609,8 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="221"/>
-      <c r="B14" s="223"/>
+      <c r="A14" s="241"/>
+      <c r="B14" s="236"/>
       <c r="C14" s="37">
         <v>44033</v>
       </c>
@@ -5343,10 +7645,10 @@
       <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="222"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="45">
         <v>43585</v>
       </c>
@@ -5381,8 +7683,8 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="220"/>
-      <c r="B16" s="217"/>
+      <c r="A16" s="238"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="37">
         <v>43676</v>
       </c>
@@ -5417,8 +7719,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="221"/>
-      <c r="B17" s="223"/>
+      <c r="A17" s="241"/>
+      <c r="B17" s="236"/>
       <c r="C17" s="37">
         <v>44033</v>
       </c>
@@ -5453,10 +7755,10 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="215" t="s">
+      <c r="A18" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="217">
+      <c r="B18" s="232">
         <v>10.1</v>
       </c>
       <c r="C18" s="45">
@@ -5493,8 +7795,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="215"/>
-      <c r="B19" s="217"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="37">
         <v>43676</v>
       </c>
@@ -5529,8 +7831,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="225"/>
-      <c r="B20" s="223"/>
+      <c r="A20" s="234"/>
+      <c r="B20" s="236"/>
       <c r="C20" s="37">
         <v>44033</v>
       </c>
@@ -5565,10 +7867,10 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="224" t="s">
+      <c r="A21" s="233" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="222">
+      <c r="B21" s="235">
         <v>12.5</v>
       </c>
       <c r="C21" s="45">
@@ -5605,8 +7907,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="215"/>
-      <c r="B22" s="217"/>
+      <c r="A22" s="231"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="37">
         <v>43676</v>
       </c>
@@ -5641,8 +7943,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="225"/>
-      <c r="B23" s="223"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="37">
         <v>44033</v>
       </c>
@@ -5677,10 +7979,10 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="217">
+      <c r="B24" s="232">
         <v>18</v>
       </c>
       <c r="C24" s="45">
@@ -5717,8 +8019,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="215"/>
-      <c r="B25" s="217"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -5753,8 +8055,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="215"/>
-      <c r="B26" s="217"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="37">
         <v>44033</v>
       </c>
@@ -5789,10 +8091,10 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="222"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="45">
         <v>43585</v>
       </c>
@@ -5827,8 +8129,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="215"/>
-      <c r="B28" s="217"/>
+      <c r="A28" s="231"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="37">
         <v>43676</v>
       </c>
@@ -5863,8 +8165,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="225"/>
-      <c r="B29" s="223"/>
+      <c r="A29" s="234"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="37">
         <v>44033</v>
       </c>
@@ -5899,10 +8201,10 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="233" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="222">
+      <c r="B30" s="235">
         <v>21</v>
       </c>
       <c r="C30" s="45">
@@ -5939,8 +8241,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="215"/>
-      <c r="B31" s="217"/>
+      <c r="A31" s="231"/>
+      <c r="B31" s="232"/>
       <c r="C31" s="37">
         <v>43676</v>
       </c>
@@ -5975,8 +8277,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="225"/>
-      <c r="B32" s="223"/>
+      <c r="A32" s="234"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="37">
         <v>44033</v>
       </c>
@@ -6011,10 +8313,10 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="222"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="45">
         <v>43585</v>
       </c>
@@ -6049,8 +8351,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="215"/>
-      <c r="B34" s="217"/>
+      <c r="A34" s="231"/>
+      <c r="B34" s="232"/>
       <c r="C34" s="37">
         <v>43676</v>
       </c>
@@ -6085,8 +8387,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="225"/>
-      <c r="B35" s="223"/>
+      <c r="A35" s="234"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="37">
         <v>44033</v>
       </c>
@@ -6121,10 +8423,10 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="233" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="222">
+      <c r="B36" s="235">
         <v>23</v>
       </c>
       <c r="C36" s="45">
@@ -6161,8 +8463,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="215"/>
-      <c r="B37" s="217"/>
+      <c r="A37" s="231"/>
+      <c r="B37" s="232"/>
       <c r="C37" s="37">
         <v>43676</v>
       </c>
@@ -6197,8 +8499,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="225"/>
-      <c r="B38" s="223"/>
+      <c r="A38" s="234"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="37">
         <v>44033</v>
       </c>
@@ -6233,10 +8535,10 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="217"/>
+      <c r="B39" s="232"/>
       <c r="C39" s="136">
         <v>43585</v>
       </c>
@@ -6271,8 +8573,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="215"/>
-      <c r="B40" s="217"/>
+      <c r="A40" s="231"/>
+      <c r="B40" s="232"/>
       <c r="C40" s="135">
         <v>43676</v>
       </c>
@@ -6307,8 +8609,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="216"/>
-      <c r="B41" s="218"/>
+      <c r="A41" s="242"/>
+      <c r="B41" s="243"/>
       <c r="C41" s="34">
         <v>44033</v>
       </c>
@@ -6343,17 +8645,17 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="191" t="s">
+      <c r="A42" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="192"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="215"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -6367,17 +8669,17 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="195"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="218"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -6391,15 +8693,15 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="196"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="197"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="198"/>
+      <c r="A44" s="219"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="220"/>
+      <c r="H44" s="220"/>
+      <c r="I44" s="221"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -6413,30 +8715,44 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="196"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="198"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="220"/>
+      <c r="E45" s="220"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="221"/>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="199"/>
-      <c r="B46" s="200"/>
-      <c r="C46" s="200"/>
-      <c r="D46" s="200"/>
-      <c r="E46" s="200"/>
-      <c r="F46" s="200"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="201"/>
+      <c r="A46" s="222"/>
+      <c r="B46" s="223"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="223"/>
+      <c r="F46" s="223"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="224"/>
     </row>
     <row r="47" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -6452,27 +8768,13 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -6511,15 +8813,15 @@
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="156"/>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="229" t="s">
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="244" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="230"/>
+      <c r="F3" s="245"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6612,15 +8914,15 @@
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="156"/>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="229" t="s">
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="244" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="245"/>
       <c r="G10" s="154"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6740,7 +9042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA41"/>
   <sheetViews>
@@ -10308,7 +12610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
@@ -13245,4511 +15547,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="150" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="170" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="170" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B2" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="84">
-        <v>12.1</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B3" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="84">
-        <v>8.75</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="177"/>
-      <c r="I3" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B4" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="176" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="137">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G4" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" s="137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B5" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="140">
-        <v>58.7</v>
-      </c>
-      <c r="G5" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B6" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="173" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="140">
-        <v>32.9</v>
-      </c>
-      <c r="G6" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B7" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="84">
-        <v>11.4</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B8" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="84">
-        <v>11.4</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B9" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="84">
-        <v>11.6</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B10" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="84">
-        <v>11.2</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B11" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="84">
-        <v>11.5</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B12" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="84">
-        <v>11.9</v>
-      </c>
-      <c r="G12" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B13" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="84">
-        <v>10.4</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="177"/>
-      <c r="I13" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B14" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="84">
-        <v>10.5</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B15" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="84">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="177"/>
-      <c r="I15" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B16" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="84">
-        <v>21.2</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B17" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="84">
-        <v>11</v>
-      </c>
-      <c r="G17" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="177"/>
-      <c r="I17" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B18" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="84">
-        <v>13.8</v>
-      </c>
-      <c r="G18" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B19" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="84">
-        <v>13.7</v>
-      </c>
-      <c r="G19" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="177"/>
-      <c r="I19" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B20" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="84">
-        <v>14.9</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B21" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="84">
-        <v>11.6</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="177"/>
-      <c r="I21" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B22" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="84">
-        <v>11.6</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B23" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="84">
-        <v>11.7</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="177"/>
-      <c r="I23" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B24" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="84">
-        <v>11.6</v>
-      </c>
-      <c r="G24" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B25" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="84">
-        <v>11.5</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="177"/>
-      <c r="I25" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B26" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="84">
-        <v>11.6</v>
-      </c>
-      <c r="G26" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B27" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="84">
-        <v>20</v>
-      </c>
-      <c r="G27" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="177"/>
-      <c r="I27" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B28" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="84">
-        <v>22.5</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B29" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="84">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="177"/>
-      <c r="I29" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="147" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B30" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="84">
-        <v>9.58</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B31" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="84">
-        <v>12.1</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B32" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="84">
-        <v>99.9</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="177"/>
-      <c r="I32" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B33" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="84">
-        <v>12.2</v>
-      </c>
-      <c r="G33" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="177"/>
-      <c r="I33" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B34" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="84">
-        <v>10.4</v>
-      </c>
-      <c r="G34" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B35" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="84">
-        <v>10.3</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B36" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="84">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G36" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="177"/>
-      <c r="I36" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B37" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="84">
-        <v>10.3</v>
-      </c>
-      <c r="G37" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="177"/>
-      <c r="I37" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B38" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="84">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G38" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B39" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="84">
-        <v>10.8</v>
-      </c>
-      <c r="G39" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B40" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="84">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G40" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="177"/>
-      <c r="I40" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B41" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="84">
-        <v>20.6</v>
-      </c>
-      <c r="G41" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="177"/>
-      <c r="I41" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B42" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="84">
-        <v>3.91</v>
-      </c>
-      <c r="G42" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B43" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="84">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="G43" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B44" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="137">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="G44" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B45" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="140">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G45" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B46" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C46" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="140">
-        <v>1.68</v>
-      </c>
-      <c r="G46" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B47" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="84">
-        <v>0.66</v>
-      </c>
-      <c r="G47" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H47" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B48" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="84">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="G48" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B49" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="110">
-        <v>0.47</v>
-      </c>
-      <c r="G49" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B50" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="84">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B51" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="84">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="G51" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B52" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="84">
-        <v>0.751</v>
-      </c>
-      <c r="G52" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H52" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B53" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="111">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="G53" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" s="110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B54" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B55" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="84">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="G55" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B56" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="84">
-        <v>1.77</v>
-      </c>
-      <c r="G56" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B57" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="84">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G57" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B58" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="84">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="G58" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H58" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B59" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="84">
-        <v>3.04</v>
-      </c>
-      <c r="G59" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B60" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="84">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="G60" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B61" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="84">
-        <v>0.497</v>
-      </c>
-      <c r="G61" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I61" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B62" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="84">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B63" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="84">
-        <v>0.42</v>
-      </c>
-      <c r="G63" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B64" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="84">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="G64" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B65" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="84">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="G65" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I65" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B66" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="110">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="G66" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="H66" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B67" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="84">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="G67" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I67" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B68" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="84">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G68" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H68" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I68" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B69" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C69" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="84">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="G69" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B70" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C70" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="84">
-        <v>0.495</v>
-      </c>
-      <c r="G70" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B71" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C71" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="111">
-        <v>0.5</v>
-      </c>
-      <c r="G71" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B72" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C72" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="110">
-        <v>1.79</v>
-      </c>
-      <c r="G72" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I72" s="110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B73" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C73" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="110">
-        <v>3.88</v>
-      </c>
-      <c r="G73" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B74" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C74" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G74" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B75" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C75" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H75" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B76" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C76" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G76" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B77" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C77" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="84">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G77" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B78" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C78" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="84">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="G78" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I78" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B79" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C79" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="84">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="G79" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I79" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B80" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C80" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G80" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H80" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B81" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C81" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="H81" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B82" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C82" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="84">
-        <v>3.12</v>
-      </c>
-      <c r="G82" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B83" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C83" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="84">
-        <v>3.05</v>
-      </c>
-      <c r="G83" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="177"/>
-      <c r="I83" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B84" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C84" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="176" t="s">
-        <v>153</v>
-      </c>
-      <c r="F84" s="137">
-        <v>2.74</v>
-      </c>
-      <c r="G84" s="137" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B85" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C85" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="173" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="140">
-        <v>169</v>
-      </c>
-      <c r="G85" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="177"/>
-      <c r="I85" s="140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B86" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C86" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="173" t="s">
-        <v>153</v>
-      </c>
-      <c r="F86" s="140">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="G86" s="140" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B87" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C87" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="84">
-        <v>1.4</v>
-      </c>
-      <c r="G87" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="177"/>
-      <c r="I87" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B88" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C88" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="84">
-        <v>1.32</v>
-      </c>
-      <c r="G88" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B89" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C89" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="84">
-        <v>1.35</v>
-      </c>
-      <c r="G89" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="177"/>
-      <c r="I89" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B90" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C90" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="84">
-        <v>1.34</v>
-      </c>
-      <c r="G90" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B91" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C91" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="84">
-        <v>1.31</v>
-      </c>
-      <c r="G91" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="177"/>
-      <c r="I91" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B92" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C92" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F92" s="84">
-        <v>1.73</v>
-      </c>
-      <c r="G92" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B93" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C93" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="84">
-        <v>3.03</v>
-      </c>
-      <c r="G93" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" s="177"/>
-      <c r="I93" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B94" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C94" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="84">
-        <v>3.04</v>
-      </c>
-      <c r="G94" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B95" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C95" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="84">
-        <v>4.55</v>
-      </c>
-      <c r="G95" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="177"/>
-      <c r="I95" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B96" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C96" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" s="84">
-        <v>5.03</v>
-      </c>
-      <c r="G96" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I96" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B97" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C97" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F97" s="84">
-        <v>3.53</v>
-      </c>
-      <c r="G97" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="177"/>
-      <c r="I97" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B98" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C98" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F98" s="84">
-        <v>4.07</v>
-      </c>
-      <c r="G98" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B99" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C99" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" s="84">
-        <v>4.04</v>
-      </c>
-      <c r="G99" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="177"/>
-      <c r="I99" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B100" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C100" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E100" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="84">
-        <v>9.17</v>
-      </c>
-      <c r="G100" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B101" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C101" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E101" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" s="84">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G101" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H101" s="177"/>
-      <c r="I101" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B102" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C102" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F102" s="84">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G102" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B103" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C103" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="84">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G103" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H103" s="177"/>
-      <c r="I103" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B104" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C104" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" s="84">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G104" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I104" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B105" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C105" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E105" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="84">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G105" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="177"/>
-      <c r="I105" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B106" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C106" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E106" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F106" s="84">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G106" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B107" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C107" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="84">
-        <v>5.74</v>
-      </c>
-      <c r="G107" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" s="177"/>
-      <c r="I107" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B108" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C108" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E108" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F108" s="84">
-        <v>6.12</v>
-      </c>
-      <c r="G108" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B109" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C109" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="84">
-        <v>4.53</v>
-      </c>
-      <c r="G109" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="177"/>
-      <c r="I109" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B110" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C110" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F110" s="84">
-        <v>3.45</v>
-      </c>
-      <c r="G110" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I110" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B111" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C111" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F111" s="84">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="G111" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H111" s="177"/>
-      <c r="I111" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B112" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C112" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112" s="84">
-        <v>323</v>
-      </c>
-      <c r="G112" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I112" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B113" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C113" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F113" s="84">
-        <v>4.8</v>
-      </c>
-      <c r="G113" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="177"/>
-      <c r="I113" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B114" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C114" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" s="84">
-        <v>1.26</v>
-      </c>
-      <c r="G114" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I114" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B115" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C115" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D115" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E115" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F115" s="84">
-        <v>1.24</v>
-      </c>
-      <c r="G115" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="177"/>
-      <c r="I115" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B116" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C116" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F116" s="84">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G116" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B117" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C117" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E117" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F117" s="84">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G117" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="177"/>
-      <c r="I117" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B118" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C118" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F118" s="84">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G118" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I118" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B119" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C119" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D119" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F119" s="84">
-        <v>1.52</v>
-      </c>
-      <c r="G119" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" s="177"/>
-      <c r="I119" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B120" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C120" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D120" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F120" s="84">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="G120" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B121" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C121" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D121" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E121" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F121" s="84">
-        <v>6.23</v>
-      </c>
-      <c r="G121" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H121" s="177"/>
-      <c r="I121" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B122" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C122" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F122" s="84">
-        <v>84.1</v>
-      </c>
-      <c r="G122" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B123" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C123" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D123" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F123" s="84">
-        <v>5</v>
-      </c>
-      <c r="G123" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H123" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I123" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B124" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C124" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D124" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E124" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F124" s="137">
-        <v>21.3</v>
-      </c>
-      <c r="G124" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="H124" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="I124" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B125" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C125" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D125" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E125" s="175" t="s">
-        <v>120</v>
-      </c>
-      <c r="F125" s="140">
-        <v>89.9</v>
-      </c>
-      <c r="G125" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="H125" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="I125" s="110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="112">
-        <v>43585</v>
-      </c>
-      <c r="B126" s="110">
-        <v>2019</v>
-      </c>
-      <c r="C126" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="E126" s="175" t="s">
-        <v>120</v>
-      </c>
-      <c r="F126" s="140">
-        <v>110</v>
-      </c>
-      <c r="G126" s="140" t="s">
-        <v>119</v>
-      </c>
-      <c r="H126" s="140" t="s">
-        <v>41</v>
-      </c>
-      <c r="I126" s="110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B127" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C127" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D127" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E127" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F127" s="84">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="G127" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H127" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I127" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B128" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C128" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F128" s="84">
-        <v>86</v>
-      </c>
-      <c r="G128" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H128" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I128" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B129" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C129" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129" s="110">
-        <v>5</v>
-      </c>
-      <c r="G129" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H129" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="I129" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B130" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C130" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E130" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F130" s="110">
-        <v>56.4</v>
-      </c>
-      <c r="G130" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H130" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="I130" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B131" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C131" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="84">
-        <v>59.6</v>
-      </c>
-      <c r="G131" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H131" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I131" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B132" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C132" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F132" s="84">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="G132" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H132" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I132" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B133" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C133" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E133" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F133" s="111">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G133" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H133" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="I133" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B134" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C134" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E134" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F134" s="111">
-        <v>5</v>
-      </c>
-      <c r="G134" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H134" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="I134" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="83">
-        <v>43585</v>
-      </c>
-      <c r="B135" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C135" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="D135" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E135" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F135" s="110">
-        <v>137</v>
-      </c>
-      <c r="G135" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H135" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="I135" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B136" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C136" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="84">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="G136" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H136" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I136" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B137" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C137" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E137" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F137" s="84">
-        <v>5.63</v>
-      </c>
-      <c r="G137" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H137" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I137" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B138" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C138" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D138" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F138" s="111">
-        <v>5.53</v>
-      </c>
-      <c r="G138" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H138" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="I138" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B139" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C139" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D139" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F139" s="111">
-        <v>5.31</v>
-      </c>
-      <c r="G139" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H139" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="I139" s="84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B140" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C140" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D140" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F140" s="84">
-        <v>5</v>
-      </c>
-      <c r="G140" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H140" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I140" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B141" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C141" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D141" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F141" s="84">
-        <v>10.7</v>
-      </c>
-      <c r="G141" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H141" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="I141" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B142" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C142" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D142" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E142" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F142" s="84">
-        <v>8.14</v>
-      </c>
-      <c r="G142" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H142" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I142" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B143" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C143" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F143" s="84">
-        <v>5</v>
-      </c>
-      <c r="G143" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H143" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I143" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B144" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C144" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D144" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E144" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F144" s="84">
-        <v>5</v>
-      </c>
-      <c r="G144" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H144" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I144" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B145" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C145" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E145" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F145" s="84">
-        <v>3.49</v>
-      </c>
-      <c r="G145" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H145" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I145" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B146" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C146" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D146" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E146" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F146" s="110">
-        <v>5</v>
-      </c>
-      <c r="G146" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H146" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="I146" s="110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B147" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C147" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D147" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F147" s="84">
-        <v>4.01</v>
-      </c>
-      <c r="G147" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H147" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I147" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="83">
-        <v>43676</v>
-      </c>
-      <c r="B148" s="84">
-        <v>2019</v>
-      </c>
-      <c r="C148" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D148" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E148" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F148" s="84">
-        <v>5</v>
-      </c>
-      <c r="G148" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H148" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="I148" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B149" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C149" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D149" s="171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F149" s="110">
-        <v>3.27</v>
-      </c>
-      <c r="G149" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H149" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I149" s="110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B150" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C150" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D150" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E150" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" s="84">
-        <v>3.53</v>
-      </c>
-      <c r="G150" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H150" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I150" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B151" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C151" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D151" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F151" s="111">
-        <v>5</v>
-      </c>
-      <c r="G151" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H151" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="I151" s="110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B152" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C152" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D152" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F152" s="111">
-        <v>3.75</v>
-      </c>
-      <c r="G152" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="H152" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="I152" s="110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B153" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C153" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D153" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="E153" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F153" s="110">
-        <v>4.16</v>
-      </c>
-      <c r="G153" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="H153" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I153" s="110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B154" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C154" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D154" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="E154" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F154" s="84">
-        <v>5</v>
-      </c>
-      <c r="G154" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H154" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I154" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B155" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C155" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D155" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F155" s="84">
-        <v>5</v>
-      </c>
-      <c r="G155" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H155" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I155" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B156" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C156" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="171" t="s">
-        <v>127</v>
-      </c>
-      <c r="E156" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F156" s="84">
-        <v>5</v>
-      </c>
-      <c r="G156" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H156" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I156" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B157" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C157" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D157" s="171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E157" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F157" s="84">
-        <v>5</v>
-      </c>
-      <c r="G157" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H157" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I157" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B158" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C158" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D158" s="171" t="s">
-        <v>131</v>
-      </c>
-      <c r="E158" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F158" s="84">
-        <v>5</v>
-      </c>
-      <c r="G158" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H158" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I158" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B159" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C159" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D159" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E159" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F159" s="84">
-        <v>3.59</v>
-      </c>
-      <c r="G159" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H159" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I159" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B160" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C160" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" s="171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E160" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F160" s="84">
-        <v>5</v>
-      </c>
-      <c r="G160" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H160" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="I160" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="83">
-        <v>44033</v>
-      </c>
-      <c r="B161" s="84">
-        <v>2020</v>
-      </c>
-      <c r="C161" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="171" t="s">
-        <v>63</v>
-      </c>
-      <c r="E161" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="F161" s="84">
-        <v>5.52</v>
-      </c>
-      <c r="G161" s="84" t="s">
-        <v>121</v>
-      </c>
-      <c r="H161" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="I161" s="84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:I161">
-    <sortCondition ref="E2:E161"/>
-    <sortCondition ref="A2:A161"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/AllData_ZnCuCaMg_19-20.xlsx
+++ b/data/AllData_ZnCuCaMg_19-20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Comments, notes" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="258">
   <si>
     <t>KR RM 70-Jims Landing</t>
   </si>
@@ -782,48 +782,6 @@
   </si>
   <si>
     <t>BM_Notes</t>
-  </si>
-  <si>
-    <t>Copper Rep. 1</t>
-  </si>
-  <si>
-    <t>Copper Rep. 2</t>
-  </si>
-  <si>
-    <t>Copper RPD</t>
-  </si>
-  <si>
-    <t>Zinc Rep. 1</t>
-  </si>
-  <si>
-    <t>Zinc Rep. 2</t>
-  </si>
-  <si>
-    <t>Zinc RPD</t>
-  </si>
-  <si>
-    <t>38.85 %</t>
-  </si>
-  <si>
-    <t>44.12 %</t>
-  </si>
-  <si>
-    <t>148.32 %</t>
-  </si>
-  <si>
-    <t>112.66 %</t>
-  </si>
-  <si>
-    <t>20.11 %</t>
-  </si>
-  <si>
-    <t>174.81 %</t>
-  </si>
-  <si>
-    <t>4.06 %</t>
-  </si>
-  <si>
-    <t>28.57 %</t>
   </si>
   <si>
     <t>Table calculations match those geneated in R analysis script</t>
@@ -2849,7 +2807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2927,12 +2884,168 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2951,284 +3064,131 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3895,11 +3855,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4051,11 +4011,11 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="200" t="s">
+      <c r="A20" s="232" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="200"/>
-      <c r="C20" s="200"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="232"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4099,150 +4059,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="170">
-        <v>43585</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D2">
-        <v>1.68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2">
-        <v>89.9</v>
-      </c>
-      <c r="G2">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="170">
-        <v>43585</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="170">
-        <v>43676</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="D4">
-        <v>3.04</v>
-      </c>
-      <c r="E4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4">
-        <v>5.53</v>
-      </c>
-      <c r="G4">
-        <v>5.31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="170">
-        <v>44033</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>1.79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>3.75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>254</v>
-      </c>
-    </row>
+    <row r="1" s="300" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4262,13 +4090,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4281,8 +4109,8 @@
       <c r="C2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="173" t="s">
-        <v>258</v>
+      <c r="E2" s="172" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -4352,7 +4180,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
-      <c r="L1" s="174" t="s">
+      <c r="L1" s="173" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4360,13 +4188,13 @@
       <c r="A2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="L2" s="175" t="s">
-        <v>259</v>
+      <c r="L2" s="174" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4375,16 +4203,16 @@
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="203"/>
-      <c r="H4" s="202" t="s">
+      <c r="G4" s="254"/>
+      <c r="H4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="203"/>
+      <c r="I4" s="254"/>
       <c r="L4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4417,10 +4245,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="211"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="36">
         <v>43607</v>
       </c>
@@ -4444,8 +4272,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="205"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -4483,8 +4311,8 @@
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="205"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -4507,7 +4335,7 @@
         <v>137</v>
       </c>
       <c r="J8" s="108"/>
-      <c r="K8" s="176"/>
+      <c r="K8" s="175"/>
       <c r="L8" s="1"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4522,8 +4350,8 @@
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="205"/>
-      <c r="B9" s="209"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="37">
         <v>44034</v>
       </c>
@@ -4546,7 +4374,7 @@
         <v>87.53</v>
       </c>
       <c r="J9" s="107"/>
-      <c r="K9" s="176"/>
+      <c r="K9" s="175"/>
       <c r="L9" s="1"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -4561,10 +4389,10 @@
       <c r="W9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="208"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="45">
         <v>43607</v>
       </c>
@@ -4586,12 +4414,12 @@
       <c r="I10" s="72">
         <v>50.554834324345521</v>
       </c>
-      <c r="K10" s="176"/>
+      <c r="K10" s="175"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="205"/>
-      <c r="B11" s="209"/>
+      <c r="A11" s="256"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="37">
         <v>43670</v>
       </c>
@@ -4617,8 +4445,8 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="205"/>
-      <c r="B12" s="209"/>
+      <c r="A12" s="256"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="135">
         <v>43971</v>
       </c>
@@ -4644,8 +4472,8 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="207"/>
-      <c r="B13" s="210"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="237"/>
       <c r="C13" s="48">
         <v>44034</v>
       </c>
@@ -4669,62 +4497,62 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="208">
+      <c r="B14" s="236">
         <v>19</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="198">
         <v>43607</v>
       </c>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="F14" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="187" t="s">
+      <c r="H14" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="186" t="s">
+      <c r="I14" s="185" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="205"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="177">
+      <c r="A15" s="256"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="176">
         <v>43670</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="180">
+      <c r="F15" s="179">
         <v>8.16</v>
       </c>
-      <c r="G15" s="181" t="s">
+      <c r="G15" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="182" t="s">
+      <c r="H15" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="180" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="205"/>
-      <c r="B16" s="209"/>
+      <c r="A16" s="256"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="135">
         <v>43971</v>
       </c>
@@ -4748,8 +4576,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="207"/>
-      <c r="B17" s="210"/>
+      <c r="A17" s="258"/>
+      <c r="B17" s="237"/>
       <c r="C17" s="48">
         <v>44034</v>
       </c>
@@ -4773,60 +4601,60 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="257" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="188">
+      <c r="B18" s="236"/>
+      <c r="C18" s="187">
         <v>43607</v>
       </c>
-      <c r="D18" s="189" t="s">
+      <c r="D18" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="190">
+      <c r="E18" s="189">
         <v>38.449369999999995</v>
       </c>
-      <c r="F18" s="191" t="s">
+      <c r="F18" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="192">
+      <c r="G18" s="191">
         <v>5.0691949101186182</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="192">
         <v>67.599999999999994</v>
       </c>
-      <c r="I18" s="192">
+      <c r="I18" s="191">
         <v>46.218870417240375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="205"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="194">
+      <c r="A19" s="256"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="193">
         <v>43670</v>
       </c>
-      <c r="D19" s="195" t="s">
+      <c r="D19" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="196">
+      <c r="E19" s="195">
         <v>73.583059999999989</v>
       </c>
-      <c r="F19" s="197" t="s">
+      <c r="F19" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="197">
         <v>8.8269936178549457</v>
       </c>
       <c r="H19" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="197">
         <v>79.595787160671918</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="205"/>
-      <c r="B20" s="209"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="135">
         <v>43971</v>
       </c>
@@ -4850,8 +4678,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="207"/>
-      <c r="B21" s="210"/>
+      <c r="A21" s="258"/>
+      <c r="B21" s="237"/>
       <c r="C21" s="48">
         <v>44034</v>
       </c>
@@ -4875,10 +4703,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="225" t="s">
+      <c r="A22" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="209"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="34">
         <v>43607</v>
       </c>
@@ -4902,8 +4730,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="225"/>
-      <c r="B23" s="209"/>
+      <c r="A23" s="249"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="37">
         <v>43670</v>
       </c>
@@ -4927,8 +4755,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="225"/>
-      <c r="B24" s="209"/>
+      <c r="A24" s="249"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="135">
         <v>43971</v>
       </c>
@@ -4952,8 +4780,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="228"/>
-      <c r="B25" s="210"/>
+      <c r="A25" s="252"/>
+      <c r="B25" s="237"/>
       <c r="C25" s="48">
         <v>44034</v>
       </c>
@@ -4977,10 +4805,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="227" t="s">
+      <c r="A26" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="208">
+      <c r="B26" s="236">
         <v>50</v>
       </c>
       <c r="C26" s="45">
@@ -5006,8 +4834,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="225"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="249"/>
+      <c r="B27" s="234"/>
       <c r="C27" s="37">
         <v>43670</v>
       </c>
@@ -5031,8 +4859,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="225"/>
-      <c r="B28" s="209"/>
+      <c r="A28" s="249"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="135">
         <v>43971</v>
       </c>
@@ -5056,8 +4884,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="228"/>
-      <c r="B29" s="210"/>
+      <c r="A29" s="252"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="48">
         <v>44034</v>
       </c>
@@ -5081,10 +4909,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="209">
+      <c r="B30" s="234">
         <v>70</v>
       </c>
       <c r="C30" s="34">
@@ -5110,8 +4938,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="225"/>
-      <c r="B31" s="209"/>
+      <c r="A31" s="249"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="37">
         <v>43670</v>
       </c>
@@ -5135,8 +4963,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="225"/>
-      <c r="B32" s="209"/>
+      <c r="A32" s="249"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="135">
         <v>43971</v>
       </c>
@@ -5160,8 +4988,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="226"/>
-      <c r="B33" s="213"/>
+      <c r="A33" s="250"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="34">
         <v>44034</v>
       </c>
@@ -5185,75 +5013,67 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="214"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="215"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="238"/>
+      <c r="G34" s="238"/>
+      <c r="H34" s="238"/>
+      <c r="I34" s="239"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="240" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="217"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="218"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="242"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="221"/>
+      <c r="A36" s="243"/>
+      <c r="B36" s="244"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="245"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="219"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="221"/>
+      <c r="A37" s="243"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="245"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="222"/>
-      <c r="B38" s="223"/>
-      <c r="C38" s="223"/>
-      <c r="D38" s="223"/>
-      <c r="E38" s="223"/>
-      <c r="F38" s="223"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="223"/>
-      <c r="I38" s="224"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="247"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="248"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -5264,6 +5084,14 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5286,26 +5114,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
       <c r="E2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="E3" s="172" t="s">
-        <v>255</v>
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="E3" s="171" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5318,8 +5146,8 @@
       <c r="C4" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="171" t="s">
-        <v>256</v>
+      <c r="E4" s="170" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -5357,14 +5185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="249" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="199" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
@@ -5376,54 +5204,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="262"/>
-      <c r="B1" s="263"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="265" t="s">
+      <c r="A1" s="209"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="266"/>
-      <c r="H1" s="267" t="s">
+      <c r="G1" s="281"/>
+      <c r="H1" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="268"/>
+      <c r="I1" s="283"/>
     </row>
     <row r="2" spans="1:9" s="144" customFormat="1" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="270" t="s">
+      <c r="D2" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="271" t="s">
+      <c r="E2" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="271" t="s">
+      <c r="F2" s="214" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="273" t="s">
+      <c r="H2" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="274" t="s">
+      <c r="I2" s="217" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="144" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="251" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="235"/>
+      <c r="A3" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="265"/>
       <c r="C3" s="45">
         <v>43585</v>
       </c>
@@ -5442,13 +5270,13 @@
       <c r="H3" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="252">
+      <c r="I3" s="201">
         <v>39.92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="253"/>
-      <c r="B4" s="232"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="266"/>
       <c r="C4" s="37">
         <v>43676</v>
       </c>
@@ -5467,40 +5295,40 @@
       <c r="H4" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="254" t="s">
+      <c r="I4" s="202" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="255"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="256">
+      <c r="A5" s="279"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="203">
         <v>44033</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="204" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="258" t="s">
+      <c r="F5" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="259" t="s">
+      <c r="G5" s="206" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="261" t="s">
+      <c r="I5" s="208" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="208"/>
+      <c r="A6" s="277" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="236"/>
       <c r="C6" s="45">
         <v>43607</v>
       </c>
@@ -5519,13 +5347,13 @@
       <c r="H6" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="275">
+      <c r="I6" s="218">
         <v>39.916682611895808</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="253"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="278"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -5544,13 +5372,13 @@
       <c r="H7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="276">
+      <c r="I7" s="219">
         <v>58.197868948497153</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="253"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="278"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -5569,14 +5397,14 @@
       <c r="H8" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="276" t="s">
+      <c r="I8" s="219" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="255"/>
-      <c r="B9" s="210"/>
-      <c r="C9" s="256">
+      <c r="A9" s="279"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="203">
         <v>44034</v>
       </c>
       <c r="D9" s="49" t="s">
@@ -5594,15 +5422,15 @@
       <c r="H9" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="277">
+      <c r="I9" s="220">
         <v>87.53</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="251" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="235"/>
+      <c r="A10" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="265"/>
       <c r="C10" s="45">
         <v>43585</v>
       </c>
@@ -5621,13 +5449,13 @@
       <c r="H10" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="252">
+      <c r="I10" s="201">
         <v>50.55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="253"/>
-      <c r="B11" s="232"/>
+      <c r="A11" s="278"/>
+      <c r="B11" s="266"/>
       <c r="C11" s="37">
         <v>43676</v>
       </c>
@@ -5646,40 +5474,40 @@
       <c r="H11" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="I11" s="254">
+      <c r="I11" s="202">
         <v>79.66</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="255"/>
-      <c r="B12" s="236"/>
-      <c r="C12" s="256">
+      <c r="A12" s="279"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="203">
         <v>44033</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="257">
+      <c r="E12" s="204">
         <v>63.36</v>
       </c>
-      <c r="F12" s="258" t="s">
+      <c r="F12" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="259">
+      <c r="G12" s="206">
         <v>7.77</v>
       </c>
-      <c r="H12" s="260" t="s">
+      <c r="H12" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="261">
+      <c r="I12" s="208">
         <v>70.12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="208"/>
+      <c r="A13" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="236"/>
       <c r="C13" s="45">
         <v>43607</v>
       </c>
@@ -5698,13 +5526,13 @@
       <c r="H13" s="64">
         <v>77.8</v>
       </c>
-      <c r="I13" s="275">
+      <c r="I13" s="218">
         <v>50.554834324345521</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="253"/>
-      <c r="B14" s="209"/>
+      <c r="A14" s="278"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="37">
         <v>43670</v>
       </c>
@@ -5723,13 +5551,13 @@
       <c r="H14" s="62">
         <v>64.400000000000006</v>
       </c>
-      <c r="I14" s="276">
+      <c r="I14" s="219">
         <v>79.66169033588649</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="278"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="135">
         <v>43971</v>
       </c>
@@ -5748,13 +5576,13 @@
       <c r="H15" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="276" t="s">
+      <c r="I15" s="219" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="255"/>
-      <c r="B16" s="210"/>
+      <c r="A16" s="279"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="48">
         <v>44034</v>
       </c>
@@ -5773,15 +5601,15 @@
       <c r="H16" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="277" t="s">
+      <c r="I16" s="220" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="278" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="235"/>
+      <c r="A17" s="262" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="265"/>
       <c r="C17" s="45">
         <v>43585</v>
       </c>
@@ -5800,13 +5628,13 @@
       <c r="H17" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="I17" s="252" t="s">
+      <c r="I17" s="201" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="279"/>
-      <c r="B18" s="232"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="266"/>
       <c r="C18" s="37">
         <v>43676</v>
       </c>
@@ -5825,90 +5653,90 @@
       <c r="H18" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="I18" s="254">
+      <c r="I18" s="202">
         <v>79.599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="280"/>
-      <c r="B19" s="236"/>
-      <c r="C19" s="256">
+      <c r="A19" s="264"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="203">
         <v>44033</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="257">
+      <c r="E19" s="204">
         <v>62.29</v>
       </c>
-      <c r="F19" s="258" t="s">
+      <c r="F19" s="205" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="259">
+      <c r="G19" s="206">
         <v>7.66</v>
       </c>
-      <c r="H19" s="260" t="s">
+      <c r="H19" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="261">
+      <c r="I19" s="208">
         <v>69.12</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="251" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="188">
+      <c r="A20" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="236"/>
+      <c r="C20" s="187">
         <v>43607</v>
       </c>
-      <c r="D20" s="189" t="s">
+      <c r="D20" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="190">
+      <c r="E20" s="189">
         <v>38.449369999999995</v>
       </c>
-      <c r="F20" s="191" t="s">
+      <c r="F20" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="192">
+      <c r="G20" s="191">
         <v>5.0691949101186182</v>
       </c>
-      <c r="H20" s="193">
+      <c r="H20" s="192">
         <v>67.599999999999994</v>
       </c>
-      <c r="I20" s="281">
+      <c r="I20" s="221">
         <v>46.218870417240375</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="253"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="194">
+      <c r="A21" s="278"/>
+      <c r="B21" s="234"/>
+      <c r="C21" s="193">
         <v>43670</v>
       </c>
-      <c r="D21" s="195" t="s">
+      <c r="D21" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="196">
+      <c r="E21" s="195">
         <v>73.583059999999989</v>
       </c>
-      <c r="F21" s="197" t="s">
+      <c r="F21" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="197">
         <v>8.8269936178549457</v>
       </c>
       <c r="H21" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="282">
+      <c r="I21" s="222">
         <v>79.595787160671918</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="253"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="278"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="135">
         <v>43971</v>
       </c>
@@ -5927,13 +5755,13 @@
       <c r="H22" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="276" t="s">
+      <c r="I22" s="219" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="255"/>
-      <c r="B23" s="210"/>
+      <c r="A23" s="279"/>
+      <c r="B23" s="237"/>
       <c r="C23" s="48">
         <v>44034</v>
       </c>
@@ -5952,15 +5780,15 @@
       <c r="H23" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="277">
+      <c r="I23" s="220">
         <v>57.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="278" t="s">
-        <v>264</v>
-      </c>
-      <c r="B24" s="235"/>
+      <c r="A24" s="262" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="265"/>
       <c r="C24" s="45">
         <v>43585</v>
       </c>
@@ -5979,13 +5807,13 @@
       <c r="H24" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="I24" s="252">
+      <c r="I24" s="201">
         <v>65.959999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="279"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="263"/>
+      <c r="B25" s="266"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -6004,40 +5832,40 @@
       <c r="H25" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="254">
+      <c r="I25" s="202">
         <v>86.7</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="280"/>
-      <c r="B26" s="236"/>
-      <c r="C26" s="256">
+      <c r="A26" s="264"/>
+      <c r="B26" s="267"/>
+      <c r="C26" s="203">
         <v>44033</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="257">
+      <c r="E26" s="204">
         <v>77.099999999999994</v>
       </c>
-      <c r="F26" s="258" t="s">
+      <c r="F26" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="259">
+      <c r="G26" s="206">
         <v>9.19</v>
       </c>
-      <c r="H26" s="260" t="s">
+      <c r="H26" s="207" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="261">
+      <c r="I26" s="208">
         <v>82.81</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="278" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="208"/>
+      <c r="A27" s="262" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="236"/>
       <c r="C27" s="45">
         <v>43607</v>
       </c>
@@ -6056,13 +5884,13 @@
       <c r="H27" s="66">
         <v>48.5</v>
       </c>
-      <c r="I27" s="275">
+      <c r="I27" s="218">
         <v>65.956467062491583</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="279"/>
-      <c r="B28" s="209"/>
+      <c r="A28" s="263"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="37">
         <v>43670</v>
       </c>
@@ -6081,13 +5909,13 @@
       <c r="H28" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="276">
+      <c r="I28" s="219">
         <v>86.696105818258914</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="279"/>
-      <c r="B29" s="209"/>
+      <c r="A29" s="263"/>
+      <c r="B29" s="234"/>
       <c r="C29" s="135">
         <v>43971</v>
       </c>
@@ -6106,13 +5934,13 @@
       <c r="H29" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="276" t="s">
+      <c r="I29" s="219" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="280"/>
-      <c r="B30" s="210"/>
+      <c r="A30" s="264"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="48">
         <v>44034</v>
       </c>
@@ -6131,15 +5959,15 @@
       <c r="H30" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="277">
+      <c r="I30" s="220">
         <v>57.16</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="278" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="235"/>
+      <c r="A31" s="262" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="265"/>
       <c r="C31" s="136">
         <v>43585</v>
       </c>
@@ -6158,13 +5986,13 @@
       <c r="H31" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="252">
+      <c r="I31" s="201">
         <v>41.8</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="279"/>
-      <c r="B32" s="232"/>
+      <c r="A32" s="263"/>
+      <c r="B32" s="266"/>
       <c r="C32" s="135">
         <v>43676</v>
       </c>
@@ -6183,40 +6011,40 @@
       <c r="H32" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="254">
+      <c r="I32" s="202">
         <v>49.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="280"/>
-      <c r="B33" s="236"/>
+      <c r="A33" s="264"/>
+      <c r="B33" s="267"/>
       <c r="C33" s="48">
         <v>44033</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="257">
+      <c r="E33" s="204">
         <v>38.130000000000003</v>
       </c>
-      <c r="F33" s="258" t="s">
+      <c r="F33" s="205" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="259">
+      <c r="G33" s="206">
         <v>5.03</v>
       </c>
-      <c r="H33" s="260" t="s">
+      <c r="H33" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="261">
+      <c r="I33" s="208">
         <v>45.6</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="251" t="s">
+      <c r="A34" s="277" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="298">
+      <c r="B34" s="274">
         <v>1.5</v>
       </c>
       <c r="C34" s="45">
@@ -6237,13 +6065,13 @@
       <c r="H34" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="252" t="s">
+      <c r="I34" s="201" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="253"/>
-      <c r="B35" s="299"/>
+      <c r="A35" s="278"/>
+      <c r="B35" s="275"/>
       <c r="C35" s="37">
         <v>43676</v>
       </c>
@@ -6262,40 +6090,40 @@
       <c r="H35" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="254">
+      <c r="I35" s="202">
         <v>80.87</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="255"/>
-      <c r="B36" s="300"/>
-      <c r="C36" s="256">
+      <c r="A36" s="279"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="203">
         <v>44033</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="257">
+      <c r="E36" s="204">
         <v>50.23</v>
       </c>
-      <c r="F36" s="258" t="s">
+      <c r="F36" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="259">
+      <c r="G36" s="206">
         <v>6.37</v>
       </c>
-      <c r="H36" s="260" t="s">
+      <c r="H36" s="207" t="s">
         <v>190</v>
       </c>
-      <c r="I36" s="261">
+      <c r="I36" s="208">
         <v>57.6</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="251" t="s">
+      <c r="A37" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="298">
+      <c r="B37" s="274">
         <v>6.5</v>
       </c>
       <c r="C37" s="45">
@@ -6316,13 +6144,13 @@
       <c r="H37" s="151" t="s">
         <v>213</v>
       </c>
-      <c r="I37" s="252">
+      <c r="I37" s="201">
         <v>44.29</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="253"/>
-      <c r="B38" s="299"/>
+      <c r="A38" s="278"/>
+      <c r="B38" s="275"/>
       <c r="C38" s="37">
         <v>43676</v>
       </c>
@@ -6341,40 +6169,40 @@
       <c r="H38" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="254">
+      <c r="I38" s="202">
         <v>41.12</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="255"/>
-      <c r="B39" s="300"/>
-      <c r="C39" s="256">
+      <c r="A39" s="279"/>
+      <c r="B39" s="276"/>
+      <c r="C39" s="203">
         <v>44033</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="257">
+      <c r="E39" s="204">
         <v>33.229999999999997</v>
       </c>
-      <c r="F39" s="258" t="s">
+      <c r="F39" s="205" t="s">
         <v>212</v>
       </c>
-      <c r="G39" s="259">
+      <c r="G39" s="206">
         <v>4.47</v>
       </c>
-      <c r="H39" s="260" t="s">
+      <c r="H39" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="I39" s="261">
+      <c r="I39" s="208">
         <v>40.58</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="278" t="s">
+      <c r="A40" s="262" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="298">
+      <c r="B40" s="274">
         <v>10.1</v>
       </c>
       <c r="C40" s="45">
@@ -6395,13 +6223,13 @@
       <c r="H40" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="I40" s="252">
+      <c r="I40" s="201">
         <v>41.62</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="279"/>
-      <c r="B41" s="299"/>
+      <c r="A41" s="263"/>
+      <c r="B41" s="275"/>
       <c r="C41" s="37">
         <v>43676</v>
       </c>
@@ -6420,40 +6248,40 @@
       <c r="H41" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="I41" s="254">
+      <c r="I41" s="202">
         <v>40.99</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="280"/>
-      <c r="B42" s="300"/>
-      <c r="C42" s="256">
+      <c r="A42" s="264"/>
+      <c r="B42" s="276"/>
+      <c r="C42" s="203">
         <v>44033</v>
       </c>
       <c r="D42" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="257">
+      <c r="E42" s="204">
         <v>31.16</v>
       </c>
-      <c r="F42" s="258" t="s">
+      <c r="F42" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="259">
+      <c r="G42" s="206">
         <v>4.24</v>
       </c>
-      <c r="H42" s="260" t="s">
+      <c r="H42" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="261">
+      <c r="I42" s="208">
         <v>38.43</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="278" t="s">
+      <c r="A43" s="262" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="298">
+      <c r="B43" s="274">
         <v>12.5</v>
       </c>
       <c r="C43" s="45">
@@ -6474,13 +6302,13 @@
       <c r="H43" s="151" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="252">
+      <c r="I43" s="201">
         <v>41.28</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="279"/>
-      <c r="B44" s="299"/>
+      <c r="A44" s="263"/>
+      <c r="B44" s="275"/>
       <c r="C44" s="37">
         <v>43676</v>
       </c>
@@ -6499,40 +6327,40 @@
       <c r="H44" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="I44" s="254">
+      <c r="I44" s="202">
         <v>40.94</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="280"/>
-      <c r="B45" s="300"/>
-      <c r="C45" s="256">
+      <c r="A45" s="264"/>
+      <c r="B45" s="276"/>
+      <c r="C45" s="203">
         <v>44033</v>
       </c>
       <c r="D45" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="257">
+      <c r="E45" s="204">
         <v>30.83</v>
       </c>
-      <c r="F45" s="258" t="s">
+      <c r="F45" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="259">
+      <c r="G45" s="206">
         <v>4.2</v>
       </c>
-      <c r="H45" s="260" t="s">
+      <c r="H45" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="261">
+      <c r="I45" s="208">
         <v>38.08</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="278" t="s">
+      <c r="A46" s="262" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="298">
+      <c r="B46" s="274">
         <v>18</v>
       </c>
       <c r="C46" s="45">
@@ -6553,13 +6381,13 @@
       <c r="H46" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="252">
+      <c r="I46" s="201">
         <v>41.92</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="279"/>
-      <c r="B47" s="299"/>
+      <c r="A47" s="263"/>
+      <c r="B47" s="275"/>
       <c r="C47" s="37">
         <v>43676</v>
       </c>
@@ -6578,92 +6406,92 @@
       <c r="H47" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="254">
+      <c r="I47" s="202">
         <v>41.25</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="280"/>
-      <c r="B48" s="300"/>
-      <c r="C48" s="256">
+      <c r="A48" s="264"/>
+      <c r="B48" s="276"/>
+      <c r="C48" s="203">
         <v>44033</v>
       </c>
       <c r="D48" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="257">
+      <c r="E48" s="204">
         <v>29.96</v>
       </c>
-      <c r="F48" s="258" t="s">
+      <c r="F48" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="259">
+      <c r="G48" s="206">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H48" s="260" t="s">
+      <c r="H48" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="261">
+      <c r="I48" s="208">
         <v>37.17</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="251" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" s="298">
+      <c r="A49" s="277" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="274">
         <v>19</v>
       </c>
-      <c r="C49" s="199">
+      <c r="C49" s="198">
         <v>43607</v>
       </c>
-      <c r="D49" s="183" t="s">
+      <c r="D49" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="184" t="s">
+      <c r="E49" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="185" t="s">
+      <c r="F49" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="186" t="s">
+      <c r="G49" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="187" t="s">
+      <c r="H49" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="283" t="s">
+      <c r="I49" s="223" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="253"/>
-      <c r="B50" s="299"/>
-      <c r="C50" s="177">
+      <c r="A50" s="278"/>
+      <c r="B50" s="275"/>
+      <c r="C50" s="176">
         <v>43670</v>
       </c>
-      <c r="D50" s="178" t="s">
+      <c r="D50" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="179" t="s">
+      <c r="E50" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="180">
+      <c r="F50" s="179">
         <v>8.16</v>
       </c>
-      <c r="G50" s="181" t="s">
+      <c r="G50" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="182" t="s">
+      <c r="H50" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="284" t="s">
+      <c r="I50" s="224" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="253"/>
-      <c r="B51" s="299"/>
+      <c r="A51" s="278"/>
+      <c r="B51" s="275"/>
       <c r="C51" s="135">
         <v>43971</v>
       </c>
@@ -6682,13 +6510,13 @@
       <c r="H51" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="276" t="s">
+      <c r="I51" s="219" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="255"/>
-      <c r="B52" s="300"/>
+      <c r="A52" s="279"/>
+      <c r="B52" s="276"/>
       <c r="C52" s="48">
         <v>44034</v>
       </c>
@@ -6707,15 +6535,15 @@
       <c r="H52" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I52" s="277" t="s">
+      <c r="I52" s="220" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="278" t="s">
+      <c r="A53" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="298">
+      <c r="B53" s="274">
         <v>21</v>
       </c>
       <c r="C53" s="45">
@@ -6736,13 +6564,13 @@
       <c r="H53" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="I53" s="252">
+      <c r="I53" s="201">
         <v>40.85</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="279"/>
-      <c r="B54" s="299"/>
+      <c r="A54" s="263"/>
+      <c r="B54" s="275"/>
       <c r="C54" s="37">
         <v>43676</v>
       </c>
@@ -6761,40 +6589,40 @@
       <c r="H54" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="254">
+      <c r="I54" s="202">
         <v>40.94</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="280"/>
-      <c r="B55" s="300"/>
-      <c r="C55" s="256">
+      <c r="A55" s="264"/>
+      <c r="B55" s="276"/>
+      <c r="C55" s="203">
         <v>44033</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="257">
+      <c r="E55" s="204">
         <v>30.33</v>
       </c>
-      <c r="F55" s="258" t="s">
+      <c r="F55" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="259">
+      <c r="G55" s="206">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H55" s="260" t="s">
+      <c r="H55" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="261">
+      <c r="I55" s="208">
         <v>37.57</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="278" t="s">
+      <c r="A56" s="262" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="298">
+      <c r="B56" s="274">
         <v>23</v>
       </c>
       <c r="C56" s="45">
@@ -6815,13 +6643,13 @@
       <c r="H56" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="I56" s="252">
+      <c r="I56" s="201">
         <v>41.49</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="279"/>
-      <c r="B57" s="299"/>
+      <c r="A57" s="263"/>
+      <c r="B57" s="275"/>
       <c r="C57" s="37">
         <v>43676</v>
       </c>
@@ -6840,40 +6668,40 @@
       <c r="H57" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="254">
+      <c r="I57" s="202">
         <v>40.69</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="280"/>
-      <c r="B58" s="300"/>
-      <c r="C58" s="256">
+      <c r="A58" s="264"/>
+      <c r="B58" s="276"/>
+      <c r="C58" s="203">
         <v>44033</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="257">
+      <c r="E58" s="204">
         <v>30.08</v>
       </c>
-      <c r="F58" s="258" t="s">
+      <c r="F58" s="205" t="s">
         <v>207</v>
       </c>
-      <c r="G58" s="259">
+      <c r="G58" s="206">
         <v>4.1100000000000003</v>
       </c>
-      <c r="H58" s="260" t="s">
+      <c r="H58" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="261">
+      <c r="I58" s="208">
         <v>37.299999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="278" t="s">
+      <c r="A59" s="262" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="298">
+      <c r="B59" s="274">
         <v>50</v>
       </c>
       <c r="C59" s="45">
@@ -6894,13 +6722,13 @@
       <c r="H59" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="275">
+      <c r="I59" s="218">
         <v>40.055408244062285</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="279"/>
-      <c r="B60" s="299"/>
+      <c r="A60" s="263"/>
+      <c r="B60" s="275"/>
       <c r="C60" s="37">
         <v>43670</v>
       </c>
@@ -6919,13 +6747,13 @@
       <c r="H60" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="276">
+      <c r="I60" s="219">
         <v>40.555774461639999</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="279"/>
-      <c r="B61" s="299"/>
+      <c r="A61" s="263"/>
+      <c r="B61" s="275"/>
       <c r="C61" s="135">
         <v>43971</v>
       </c>
@@ -6944,13 +6772,13 @@
       <c r="H61" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="I61" s="276" t="s">
+      <c r="I61" s="219" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="280"/>
-      <c r="B62" s="300"/>
+      <c r="A62" s="264"/>
+      <c r="B62" s="276"/>
       <c r="C62" s="48">
         <v>44034</v>
       </c>
@@ -6969,42 +6797,42 @@
       <c r="H62" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I62" s="277">
+      <c r="I62" s="220">
         <v>40.950000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="278" t="s">
+      <c r="A63" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="298">
+      <c r="B63" s="274">
         <v>70</v>
       </c>
       <c r="C63" s="45">
         <v>43607</v>
       </c>
-      <c r="D63" s="285" t="s">
+      <c r="D63" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="286">
+      <c r="E63" s="226">
         <v>42.940949999999994</v>
       </c>
-      <c r="F63" s="287" t="s">
+      <c r="F63" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="288">
+      <c r="G63" s="228">
         <v>5.5710873525624374</v>
       </c>
-      <c r="H63" s="289" t="s">
+      <c r="H63" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="290">
+      <c r="I63" s="230">
         <v>50.431439204138087</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="279"/>
-      <c r="B64" s="299"/>
+      <c r="A64" s="263"/>
+      <c r="B64" s="275"/>
       <c r="C64" s="37">
         <v>43670</v>
       </c>
@@ -7023,13 +6851,13 @@
       <c r="H64" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="I64" s="276">
+      <c r="I64" s="219">
         <v>47.560267438577668</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="279"/>
-      <c r="B65" s="299"/>
+      <c r="A65" s="263"/>
+      <c r="B65" s="275"/>
       <c r="C65" s="135">
         <v>43971</v>
       </c>
@@ -7048,13 +6876,13 @@
       <c r="H65" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I65" s="291" t="s">
+      <c r="I65" s="231" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="280"/>
-      <c r="B66" s="300"/>
+      <c r="A66" s="264"/>
+      <c r="B66" s="276"/>
       <c r="C66" s="48">
         <v>44034</v>
       </c>
@@ -7073,77 +6901,95 @@
       <c r="H66" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="I66" s="277">
+      <c r="I66" s="220">
         <v>50.26</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="295" t="s">
+      <c r="A67" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="296"/>
-      <c r="C67" s="296"/>
-      <c r="D67" s="296"/>
-      <c r="E67" s="296"/>
-      <c r="F67" s="296"/>
-      <c r="G67" s="296"/>
-      <c r="H67" s="296"/>
-      <c r="I67" s="297"/>
+      <c r="B67" s="272"/>
+      <c r="C67" s="272"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="272"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="272"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="273"/>
     </row>
     <row r="68" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="292" t="s">
+      <c r="A68" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="293"/>
-      <c r="C68" s="293"/>
-      <c r="D68" s="293"/>
-      <c r="E68" s="293"/>
-      <c r="F68" s="293"/>
-      <c r="G68" s="293"/>
-      <c r="H68" s="293"/>
-      <c r="I68" s="294"/>
+      <c r="B68" s="269"/>
+      <c r="C68" s="269"/>
+      <c r="D68" s="269"/>
+      <c r="E68" s="269"/>
+      <c r="F68" s="269"/>
+      <c r="G68" s="269"/>
+      <c r="H68" s="269"/>
+      <c r="I68" s="270"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="250"/>
-      <c r="B69" s="250"/>
-      <c r="C69" s="250"/>
-      <c r="D69" s="250"/>
-      <c r="E69" s="250"/>
-      <c r="F69" s="250"/>
-      <c r="G69" s="250"/>
-      <c r="H69" s="250"/>
-      <c r="I69" s="250"/>
+      <c r="A69" s="200"/>
+      <c r="B69" s="200"/>
+      <c r="C69" s="200"/>
+      <c r="D69" s="200"/>
+      <c r="E69" s="200"/>
+      <c r="F69" s="200"/>
+      <c r="G69" s="200"/>
+      <c r="H69" s="200"/>
+      <c r="I69" s="200"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="250"/>
-      <c r="B70" s="250"/>
-      <c r="C70" s="250"/>
-      <c r="D70" s="250"/>
-      <c r="E70" s="250"/>
-      <c r="F70" s="250"/>
-      <c r="G70" s="250"/>
-      <c r="H70" s="250"/>
-      <c r="I70" s="250"/>
+      <c r="A70" s="200"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="200"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="200"/>
+      <c r="F70" s="200"/>
+      <c r="G70" s="200"/>
+      <c r="H70" s="200"/>
+      <c r="I70" s="200"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="250"/>
-      <c r="B71" s="250"/>
-      <c r="C71" s="250"/>
-      <c r="D71" s="250"/>
-      <c r="E71" s="250"/>
-      <c r="F71" s="250"/>
-      <c r="G71" s="250"/>
-      <c r="H71" s="250"/>
-      <c r="I71" s="250"/>
+      <c r="A71" s="200"/>
+      <c r="B71" s="200"/>
+      <c r="C71" s="200"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="200"/>
+      <c r="F71" s="200"/>
+      <c r="G71" s="200"/>
+      <c r="H71" s="200"/>
+      <c r="I71" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="A56:A58"/>
@@ -7152,34 +6998,16 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7232,17 +7060,17 @@
       <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="292" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -7275,14 +7103,14 @@
       <c r="C4" s="35"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="203"/>
-      <c r="H4" s="202" t="s">
+      <c r="G4" s="254"/>
+      <c r="H4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="203"/>
+      <c r="I4" s="254"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -7327,10 +7155,10 @@
       <c r="L5" s="150"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="239"/>
+      <c r="B6" s="294"/>
       <c r="C6" s="36">
         <v>43585</v>
       </c>
@@ -7365,8 +7193,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
-      <c r="B7" s="232"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="37">
         <v>43676</v>
       </c>
@@ -7393,8 +7221,8 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="238"/>
-      <c r="B8" s="232"/>
+      <c r="A8" s="288"/>
+      <c r="B8" s="266"/>
       <c r="C8" s="37">
         <v>44033</v>
       </c>
@@ -7421,10 +7249,10 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="287" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="235">
+      <c r="B9" s="265">
         <v>1.5</v>
       </c>
       <c r="C9" s="45">
@@ -7461,8 +7289,8 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
-      <c r="B10" s="232"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="266"/>
       <c r="C10" s="37">
         <v>43676</v>
       </c>
@@ -7497,8 +7325,8 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="241"/>
-      <c r="B11" s="236"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="267"/>
       <c r="C11" s="37">
         <v>44033</v>
       </c>
@@ -7533,10 +7361,10 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="287" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="235">
+      <c r="B12" s="265">
         <v>6.5</v>
       </c>
       <c r="C12" s="45">
@@ -7573,8 +7401,8 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="238"/>
-      <c r="B13" s="232"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="266"/>
       <c r="C13" s="37">
         <v>43676</v>
       </c>
@@ -7609,8 +7437,8 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="241"/>
-      <c r="B14" s="236"/>
+      <c r="A14" s="289"/>
+      <c r="B14" s="267"/>
       <c r="C14" s="37">
         <v>44033</v>
       </c>
@@ -7645,10 +7473,10 @@
       <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="240" t="s">
+      <c r="A15" s="287" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="235"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="45">
         <v>43585</v>
       </c>
@@ -7683,8 +7511,8 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="232"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="266"/>
       <c r="C16" s="37">
         <v>43676</v>
       </c>
@@ -7719,8 +7547,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="241"/>
-      <c r="B17" s="236"/>
+      <c r="A17" s="289"/>
+      <c r="B17" s="267"/>
       <c r="C17" s="37">
         <v>44033</v>
       </c>
@@ -7755,10 +7583,10 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="231" t="s">
+      <c r="A18" s="284" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="232">
+      <c r="B18" s="266">
         <v>10.1</v>
       </c>
       <c r="C18" s="45">
@@ -7795,8 +7623,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="232"/>
+      <c r="A19" s="284"/>
+      <c r="B19" s="266"/>
       <c r="C19" s="37">
         <v>43676</v>
       </c>
@@ -7831,8 +7659,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="234"/>
-      <c r="B20" s="236"/>
+      <c r="A20" s="291"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="37">
         <v>44033</v>
       </c>
@@ -7867,10 +7695,10 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="233" t="s">
+      <c r="A21" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="235">
+      <c r="B21" s="265">
         <v>12.5</v>
       </c>
       <c r="C21" s="45">
@@ -7907,8 +7735,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="231"/>
-      <c r="B22" s="232"/>
+      <c r="A22" s="284"/>
+      <c r="B22" s="266"/>
       <c r="C22" s="37">
         <v>43676</v>
       </c>
@@ -7943,8 +7771,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="234"/>
-      <c r="B23" s="236"/>
+      <c r="A23" s="291"/>
+      <c r="B23" s="267"/>
       <c r="C23" s="37">
         <v>44033</v>
       </c>
@@ -7979,10 +7807,10 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="231" t="s">
+      <c r="A24" s="284" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="232">
+      <c r="B24" s="266">
         <v>18</v>
       </c>
       <c r="C24" s="45">
@@ -8019,8 +7847,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="231"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="284"/>
+      <c r="B25" s="266"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -8055,8 +7883,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="231"/>
-      <c r="B26" s="232"/>
+      <c r="A26" s="284"/>
+      <c r="B26" s="266"/>
       <c r="C26" s="37">
         <v>44033</v>
       </c>
@@ -8091,10 +7919,10 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="235"/>
+      <c r="B27" s="265"/>
       <c r="C27" s="45">
         <v>43585</v>
       </c>
@@ -8129,8 +7957,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="231"/>
-      <c r="B28" s="232"/>
+      <c r="A28" s="284"/>
+      <c r="B28" s="266"/>
       <c r="C28" s="37">
         <v>43676</v>
       </c>
@@ -8165,8 +7993,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="234"/>
-      <c r="B29" s="236"/>
+      <c r="A29" s="291"/>
+      <c r="B29" s="267"/>
       <c r="C29" s="37">
         <v>44033</v>
       </c>
@@ -8201,10 +8029,10 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="290" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="235">
+      <c r="B30" s="265">
         <v>21</v>
       </c>
       <c r="C30" s="45">
@@ -8241,8 +8069,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="231"/>
-      <c r="B31" s="232"/>
+      <c r="A31" s="284"/>
+      <c r="B31" s="266"/>
       <c r="C31" s="37">
         <v>43676</v>
       </c>
@@ -8277,8 +8105,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="234"/>
-      <c r="B32" s="236"/>
+      <c r="A32" s="291"/>
+      <c r="B32" s="267"/>
       <c r="C32" s="37">
         <v>44033</v>
       </c>
@@ -8313,10 +8141,10 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="233" t="s">
+      <c r="A33" s="290" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="235"/>
+      <c r="B33" s="265"/>
       <c r="C33" s="45">
         <v>43585</v>
       </c>
@@ -8351,8 +8179,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="231"/>
-      <c r="B34" s="232"/>
+      <c r="A34" s="284"/>
+      <c r="B34" s="266"/>
       <c r="C34" s="37">
         <v>43676</v>
       </c>
@@ -8387,8 +8215,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="234"/>
-      <c r="B35" s="236"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="267"/>
       <c r="C35" s="37">
         <v>44033</v>
       </c>
@@ -8423,10 +8251,10 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="233" t="s">
+      <c r="A36" s="290" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="235">
+      <c r="B36" s="265">
         <v>23</v>
       </c>
       <c r="C36" s="45">
@@ -8463,8 +8291,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
-      <c r="B37" s="232"/>
+      <c r="A37" s="284"/>
+      <c r="B37" s="266"/>
       <c r="C37" s="37">
         <v>43676</v>
       </c>
@@ -8499,8 +8327,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="234"/>
-      <c r="B38" s="236"/>
+      <c r="A38" s="291"/>
+      <c r="B38" s="267"/>
       <c r="C38" s="37">
         <v>44033</v>
       </c>
@@ -8535,10 +8363,10 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="231" t="s">
+      <c r="A39" s="284" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="232"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="136">
         <v>43585</v>
       </c>
@@ -8573,8 +8401,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="231"/>
-      <c r="B40" s="232"/>
+      <c r="A40" s="284"/>
+      <c r="B40" s="266"/>
       <c r="C40" s="135">
         <v>43676</v>
       </c>
@@ -8609,8 +8437,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="242"/>
-      <c r="B41" s="243"/>
+      <c r="A41" s="285"/>
+      <c r="B41" s="286"/>
       <c r="C41" s="34">
         <v>44033</v>
       </c>
@@ -8645,17 +8473,17 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="215"/>
+      <c r="B42" s="238"/>
+      <c r="C42" s="238"/>
+      <c r="D42" s="238"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="238"/>
+      <c r="G42" s="238"/>
+      <c r="H42" s="238"/>
+      <c r="I42" s="239"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -8669,17 +8497,17 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="240" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
-      <c r="D43" s="217"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="217"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="217"/>
-      <c r="I43" s="218"/>
+      <c r="B43" s="241"/>
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="242"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -8693,15 +8521,15 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
-      <c r="B44" s="220"/>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
-      <c r="H44" s="220"/>
-      <c r="I44" s="221"/>
+      <c r="A44" s="243"/>
+      <c r="B44" s="244"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="244"/>
+      <c r="E44" s="244"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="245"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -8715,44 +8543,30 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="219"/>
-      <c r="B45" s="220"/>
-      <c r="C45" s="220"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="220"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="221"/>
+      <c r="A45" s="243"/>
+      <c r="B45" s="244"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="245"/>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="222"/>
-      <c r="B46" s="223"/>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="223"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="224"/>
+      <c r="A46" s="246"/>
+      <c r="B46" s="247"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="247"/>
+      <c r="E46" s="247"/>
+      <c r="F46" s="247"/>
+      <c r="G46" s="247"/>
+      <c r="H46" s="247"/>
+      <c r="I46" s="248"/>
     </row>
     <row r="47" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -8768,6 +8582,20 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8813,15 +8641,15 @@
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="156"/>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="297" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="244" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="295" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="245"/>
+      <c r="F3" s="296"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8914,15 +8742,15 @@
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="156"/>
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="297" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="244" t="s">
+      <c r="C10" s="298"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="295" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="245"/>
+      <c r="F10" s="296"/>
       <c r="G10" s="154"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/data/AllData_ZnCuCaMg_19-20.xlsx
+++ b/data/AllData_ZnCuCaMg_19-20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\KWF_Metals_2020\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\KWF_Metals_2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Comments, notes" sheetId="2" r:id="rId1"/>
@@ -2983,22 +2983,49 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3046,33 +3073,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3082,15 +3124,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3109,69 +3142,39 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3186,9 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3855,11 +3855,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4011,11 +4011,11 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="232" t="s">
+      <c r="A20" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="233"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4061,13 +4061,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="300" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="232" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4090,11 +4090,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
       <c r="E1" t="s">
         <v>243</v>
       </c>
@@ -4203,14 +4203,14 @@
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="254"/>
-      <c r="H4" s="253" t="s">
+      <c r="G4" s="236"/>
+      <c r="H4" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="236"/>
       <c r="L4" t="s">
         <v>247</v>
       </c>
@@ -4245,10 +4245,10 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="259"/>
+      <c r="B6" s="244"/>
       <c r="C6" s="36">
         <v>43607</v>
       </c>
@@ -4272,8 +4272,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="256"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="238"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -4311,8 +4311,8 @@
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="256"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="242"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="256"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="238"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="37">
         <v>44034</v>
       </c>
@@ -4389,10 +4389,10 @@
       <c r="W9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="236"/>
+      <c r="B10" s="241"/>
       <c r="C10" s="45">
         <v>43607</v>
       </c>
@@ -4418,8 +4418,8 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="256"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="238"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="37">
         <v>43670</v>
       </c>
@@ -4445,8 +4445,8 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="256"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="238"/>
+      <c r="B12" s="242"/>
       <c r="C12" s="135">
         <v>43971</v>
       </c>
@@ -4472,8 +4472,8 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="258"/>
-      <c r="B13" s="237"/>
+      <c r="A13" s="240"/>
+      <c r="B13" s="243"/>
       <c r="C13" s="48">
         <v>44034</v>
       </c>
@@ -4497,10 +4497,10 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="257" t="s">
+      <c r="A14" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="236">
+      <c r="B14" s="241">
         <v>19</v>
       </c>
       <c r="C14" s="198">
@@ -4526,8 +4526,8 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="256"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="238"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="176">
         <v>43670</v>
       </c>
@@ -4551,8 +4551,8 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="256"/>
-      <c r="B16" s="234"/>
+      <c r="A16" s="238"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="135">
         <v>43971</v>
       </c>
@@ -4576,8 +4576,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="258"/>
-      <c r="B17" s="237"/>
+      <c r="A17" s="240"/>
+      <c r="B17" s="243"/>
       <c r="C17" s="48">
         <v>44034</v>
       </c>
@@ -4601,10 +4601,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="236"/>
+      <c r="B18" s="241"/>
       <c r="C18" s="187">
         <v>43607</v>
       </c>
@@ -4628,8 +4628,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="256"/>
-      <c r="B19" s="234"/>
+      <c r="A19" s="238"/>
+      <c r="B19" s="242"/>
       <c r="C19" s="193">
         <v>43670</v>
       </c>
@@ -4653,8 +4653,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="256"/>
-      <c r="B20" s="234"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="242"/>
       <c r="C20" s="135">
         <v>43971</v>
       </c>
@@ -4678,8 +4678,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="258"/>
-      <c r="B21" s="237"/>
+      <c r="A21" s="240"/>
+      <c r="B21" s="243"/>
       <c r="C21" s="48">
         <v>44034</v>
       </c>
@@ -4703,10 +4703,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="249" t="s">
+      <c r="A22" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="234"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="34">
         <v>43607</v>
       </c>
@@ -4730,8 +4730,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
-      <c r="B23" s="234"/>
+      <c r="A23" s="258"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="37">
         <v>43670</v>
       </c>
@@ -4755,8 +4755,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="249"/>
-      <c r="B24" s="234"/>
+      <c r="A24" s="258"/>
+      <c r="B24" s="242"/>
       <c r="C24" s="135">
         <v>43971</v>
       </c>
@@ -4780,8 +4780,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="252"/>
-      <c r="B25" s="237"/>
+      <c r="A25" s="261"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="48">
         <v>44034</v>
       </c>
@@ -4805,10 +4805,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="251" t="s">
+      <c r="A26" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="236">
+      <c r="B26" s="241">
         <v>50</v>
       </c>
       <c r="C26" s="45">
@@ -4834,8 +4834,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="249"/>
-      <c r="B27" s="234"/>
+      <c r="A27" s="258"/>
+      <c r="B27" s="242"/>
       <c r="C27" s="37">
         <v>43670</v>
       </c>
@@ -4859,8 +4859,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="249"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="258"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="135">
         <v>43971</v>
       </c>
@@ -4884,8 +4884,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="252"/>
-      <c r="B29" s="237"/>
+      <c r="A29" s="261"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="48">
         <v>44034</v>
       </c>
@@ -4909,10 +4909,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="249" t="s">
+      <c r="A30" s="258" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="234">
+      <c r="B30" s="242">
         <v>70</v>
       </c>
       <c r="C30" s="34">
@@ -4938,8 +4938,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="249"/>
-      <c r="B31" s="234"/>
+      <c r="A31" s="258"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="37">
         <v>43670</v>
       </c>
@@ -4963,8 +4963,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="249"/>
-      <c r="B32" s="234"/>
+      <c r="A32" s="258"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="135">
         <v>43971</v>
       </c>
@@ -4988,8 +4988,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="250"/>
-      <c r="B33" s="235"/>
+      <c r="A33" s="259"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="34">
         <v>44034</v>
       </c>
@@ -5013,67 +5013,75 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="238" t="s">
+      <c r="A34" s="247" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="238"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="238"/>
-      <c r="I34" s="239"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="248"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="240" t="s">
+      <c r="A35" s="249" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="241"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="242"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="250"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="251"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="243"/>
-      <c r="B36" s="244"/>
-      <c r="C36" s="244"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="245"/>
+      <c r="A36" s="252"/>
+      <c r="B36" s="253"/>
+      <c r="C36" s="253"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="253"/>
+      <c r="F36" s="253"/>
+      <c r="G36" s="253"/>
+      <c r="H36" s="253"/>
+      <c r="I36" s="254"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="243"/>
-      <c r="B37" s="244"/>
-      <c r="C37" s="244"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="245"/>
+      <c r="A37" s="252"/>
+      <c r="B37" s="253"/>
+      <c r="C37" s="253"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="253"/>
+      <c r="F37" s="253"/>
+      <c r="G37" s="253"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="254"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="246"/>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="247"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="248"/>
+      <c r="A38" s="255"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="256"/>
+      <c r="D38" s="256"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
+      <c r="H38" s="256"/>
+      <c r="I38" s="257"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -5084,14 +5092,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5114,24 +5114,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="233"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
       <c r="E2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="261"/>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
+      <c r="A3" s="262"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
       <c r="E3" s="171" t="s">
         <v>241</v>
       </c>
@@ -5185,9 +5185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5209,14 +5209,14 @@
       <c r="C1" s="211"/>
       <c r="D1" s="210"/>
       <c r="E1" s="210"/>
-      <c r="F1" s="280" t="s">
+      <c r="F1" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="281"/>
-      <c r="H1" s="282" t="s">
+      <c r="G1" s="264"/>
+      <c r="H1" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="283"/>
+      <c r="I1" s="266"/>
     </row>
     <row r="2" spans="1:9" s="144" customFormat="1" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="212" t="s">
@@ -5248,10 +5248,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="144" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="265"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="45">
         <v>43585</v>
       </c>
@@ -5275,8 +5275,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="278"/>
-      <c r="B4" s="266"/>
+      <c r="A4" s="268"/>
+      <c r="B4" s="271"/>
       <c r="C4" s="37">
         <v>43676</v>
       </c>
@@ -5300,8 +5300,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="279"/>
-      <c r="B5" s="267"/>
+      <c r="A5" s="269"/>
+      <c r="B5" s="272"/>
       <c r="C5" s="203">
         <v>44033</v>
       </c>
@@ -5325,10 +5325,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="267" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="236"/>
+      <c r="B6" s="241"/>
       <c r="C6" s="45">
         <v>43607</v>
       </c>
@@ -5352,8 +5352,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="278"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="268"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -5377,8 +5377,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="278"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="268"/>
+      <c r="B8" s="242"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -5402,8 +5402,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="279"/>
-      <c r="B9" s="237"/>
+      <c r="A9" s="269"/>
+      <c r="B9" s="243"/>
       <c r="C9" s="203">
         <v>44034</v>
       </c>
@@ -5427,10 +5427,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="265"/>
+      <c r="B10" s="270"/>
       <c r="C10" s="45">
         <v>43585</v>
       </c>
@@ -5454,8 +5454,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="278"/>
-      <c r="B11" s="266"/>
+      <c r="A11" s="268"/>
+      <c r="B11" s="271"/>
       <c r="C11" s="37">
         <v>43676</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="279"/>
-      <c r="B12" s="267"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="203">
         <v>44033</v>
       </c>
@@ -5504,10 +5504,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="236"/>
+      <c r="B13" s="241"/>
       <c r="C13" s="45">
         <v>43607</v>
       </c>
@@ -5531,8 +5531,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="278"/>
-      <c r="B14" s="234"/>
+      <c r="A14" s="268"/>
+      <c r="B14" s="242"/>
       <c r="C14" s="37">
         <v>43670</v>
       </c>
@@ -5556,8 +5556,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="278"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="268"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="135">
         <v>43971</v>
       </c>
@@ -5581,8 +5581,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="279"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="243"/>
       <c r="C16" s="48">
         <v>44034</v>
       </c>
@@ -5606,10 +5606,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="262" t="s">
+      <c r="A17" s="276" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="265"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="45">
         <v>43585</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="263"/>
-      <c r="B18" s="266"/>
+      <c r="A18" s="277"/>
+      <c r="B18" s="271"/>
       <c r="C18" s="37">
         <v>43676</v>
       </c>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="264"/>
-      <c r="B19" s="267"/>
+      <c r="A19" s="278"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="203">
         <v>44033</v>
       </c>
@@ -5683,10 +5683,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="277" t="s">
+      <c r="A20" s="267" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="236"/>
+      <c r="B20" s="241"/>
       <c r="C20" s="187">
         <v>43607</v>
       </c>
@@ -5710,8 +5710,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="278"/>
-      <c r="B21" s="234"/>
+      <c r="A21" s="268"/>
+      <c r="B21" s="242"/>
       <c r="C21" s="193">
         <v>43670</v>
       </c>
@@ -5735,8 +5735,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="278"/>
-      <c r="B22" s="234"/>
+      <c r="A22" s="268"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="135">
         <v>43971</v>
       </c>
@@ -5760,8 +5760,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="279"/>
-      <c r="B23" s="237"/>
+      <c r="A23" s="269"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="48">
         <v>44034</v>
       </c>
@@ -5785,10 +5785,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="262" t="s">
+      <c r="A24" s="276" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="265"/>
+      <c r="B24" s="270"/>
       <c r="C24" s="45">
         <v>43585</v>
       </c>
@@ -5812,8 +5812,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="263"/>
-      <c r="B25" s="266"/>
+      <c r="A25" s="277"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -5837,8 +5837,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="264"/>
-      <c r="B26" s="267"/>
+      <c r="A26" s="278"/>
+      <c r="B26" s="272"/>
       <c r="C26" s="203">
         <v>44033</v>
       </c>
@@ -5862,10 +5862,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="262" t="s">
+      <c r="A27" s="276" t="s">
         <v>255</v>
       </c>
-      <c r="B27" s="236"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="45">
         <v>43607</v>
       </c>
@@ -5889,8 +5889,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="263"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="277"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="37">
         <v>43670</v>
       </c>
@@ -5914,8 +5914,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="263"/>
-      <c r="B29" s="234"/>
+      <c r="A29" s="277"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="135">
         <v>43971</v>
       </c>
@@ -5939,8 +5939,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="264"/>
-      <c r="B30" s="237"/>
+      <c r="A30" s="278"/>
+      <c r="B30" s="243"/>
       <c r="C30" s="48">
         <v>44034</v>
       </c>
@@ -5964,10 +5964,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="262" t="s">
+      <c r="A31" s="276" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="265"/>
+      <c r="B31" s="270"/>
       <c r="C31" s="136">
         <v>43585</v>
       </c>
@@ -5991,8 +5991,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="263"/>
-      <c r="B32" s="266"/>
+      <c r="A32" s="277"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="135">
         <v>43676</v>
       </c>
@@ -6016,8 +6016,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="264"/>
-      <c r="B33" s="267"/>
+      <c r="A33" s="278"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="48">
         <v>44033</v>
       </c>
@@ -6041,10 +6041,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="277" t="s">
+      <c r="A34" s="267" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="274">
+      <c r="B34" s="273">
         <v>1.5</v>
       </c>
       <c r="C34" s="45">
@@ -6070,8 +6070,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="278"/>
-      <c r="B35" s="275"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="274"/>
       <c r="C35" s="37">
         <v>43676</v>
       </c>
@@ -6095,8 +6095,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="279"/>
-      <c r="B36" s="276"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="275"/>
       <c r="C36" s="203">
         <v>44033</v>
       </c>
@@ -6120,10 +6120,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="277" t="s">
+      <c r="A37" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="274">
+      <c r="B37" s="273">
         <v>6.5</v>
       </c>
       <c r="C37" s="45">
@@ -6149,8 +6149,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="278"/>
-      <c r="B38" s="275"/>
+      <c r="A38" s="268"/>
+      <c r="B38" s="274"/>
       <c r="C38" s="37">
         <v>43676</v>
       </c>
@@ -6174,8 +6174,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="279"/>
-      <c r="B39" s="276"/>
+      <c r="A39" s="269"/>
+      <c r="B39" s="275"/>
       <c r="C39" s="203">
         <v>44033</v>
       </c>
@@ -6199,10 +6199,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="276" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="274">
+      <c r="B40" s="273">
         <v>10.1</v>
       </c>
       <c r="C40" s="45">
@@ -6228,8 +6228,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="263"/>
-      <c r="B41" s="275"/>
+      <c r="A41" s="277"/>
+      <c r="B41" s="274"/>
       <c r="C41" s="37">
         <v>43676</v>
       </c>
@@ -6253,8 +6253,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="264"/>
-      <c r="B42" s="276"/>
+      <c r="A42" s="278"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="203">
         <v>44033</v>
       </c>
@@ -6278,10 +6278,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="262" t="s">
+      <c r="A43" s="276" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="274">
+      <c r="B43" s="273">
         <v>12.5</v>
       </c>
       <c r="C43" s="45">
@@ -6307,8 +6307,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="263"/>
-      <c r="B44" s="275"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="274"/>
       <c r="C44" s="37">
         <v>43676</v>
       </c>
@@ -6332,8 +6332,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="264"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="278"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="203">
         <v>44033</v>
       </c>
@@ -6357,10 +6357,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="262" t="s">
+      <c r="A46" s="276" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="274">
+      <c r="B46" s="273">
         <v>18</v>
       </c>
       <c r="C46" s="45">
@@ -6386,8 +6386,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="263"/>
-      <c r="B47" s="275"/>
+      <c r="A47" s="277"/>
+      <c r="B47" s="274"/>
       <c r="C47" s="37">
         <v>43676</v>
       </c>
@@ -6411,8 +6411,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="264"/>
-      <c r="B48" s="276"/>
+      <c r="A48" s="278"/>
+      <c r="B48" s="275"/>
       <c r="C48" s="203">
         <v>44033</v>
       </c>
@@ -6436,10 +6436,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="267" t="s">
         <v>257</v>
       </c>
-      <c r="B49" s="274">
+      <c r="B49" s="273">
         <v>19</v>
       </c>
       <c r="C49" s="198">
@@ -6465,8 +6465,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="278"/>
-      <c r="B50" s="275"/>
+      <c r="A50" s="268"/>
+      <c r="B50" s="274"/>
       <c r="C50" s="176">
         <v>43670</v>
       </c>
@@ -6490,8 +6490,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="278"/>
-      <c r="B51" s="275"/>
+      <c r="A51" s="268"/>
+      <c r="B51" s="274"/>
       <c r="C51" s="135">
         <v>43971</v>
       </c>
@@ -6515,8 +6515,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="279"/>
-      <c r="B52" s="276"/>
+      <c r="A52" s="269"/>
+      <c r="B52" s="275"/>
       <c r="C52" s="48">
         <v>44034</v>
       </c>
@@ -6540,10 +6540,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="262" t="s">
+      <c r="A53" s="276" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="274">
+      <c r="B53" s="273">
         <v>21</v>
       </c>
       <c r="C53" s="45">
@@ -6569,8 +6569,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="263"/>
-      <c r="B54" s="275"/>
+      <c r="A54" s="277"/>
+      <c r="B54" s="274"/>
       <c r="C54" s="37">
         <v>43676</v>
       </c>
@@ -6594,8 +6594,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="264"/>
-      <c r="B55" s="276"/>
+      <c r="A55" s="278"/>
+      <c r="B55" s="275"/>
       <c r="C55" s="203">
         <v>44033</v>
       </c>
@@ -6619,10 +6619,10 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="262" t="s">
+      <c r="A56" s="276" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="274">
+      <c r="B56" s="273">
         <v>23</v>
       </c>
       <c r="C56" s="45">
@@ -6648,8 +6648,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="263"/>
-      <c r="B57" s="275"/>
+      <c r="A57" s="277"/>
+      <c r="B57" s="274"/>
       <c r="C57" s="37">
         <v>43676</v>
       </c>
@@ -6673,8 +6673,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="264"/>
-      <c r="B58" s="276"/>
+      <c r="A58" s="278"/>
+      <c r="B58" s="275"/>
       <c r="C58" s="203">
         <v>44033</v>
       </c>
@@ -6698,10 +6698,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="262" t="s">
+      <c r="A59" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="274">
+      <c r="B59" s="273">
         <v>50</v>
       </c>
       <c r="C59" s="45">
@@ -6727,8 +6727,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="263"/>
-      <c r="B60" s="275"/>
+      <c r="A60" s="277"/>
+      <c r="B60" s="274"/>
       <c r="C60" s="37">
         <v>43670</v>
       </c>
@@ -6752,8 +6752,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="263"/>
-      <c r="B61" s="275"/>
+      <c r="A61" s="277"/>
+      <c r="B61" s="274"/>
       <c r="C61" s="135">
         <v>43971</v>
       </c>
@@ -6777,8 +6777,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="264"/>
-      <c r="B62" s="276"/>
+      <c r="A62" s="278"/>
+      <c r="B62" s="275"/>
       <c r="C62" s="48">
         <v>44034</v>
       </c>
@@ -6802,10 +6802,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="262" t="s">
+      <c r="A63" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="274">
+      <c r="B63" s="273">
         <v>70</v>
       </c>
       <c r="C63" s="45">
@@ -6831,8 +6831,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="263"/>
-      <c r="B64" s="275"/>
+      <c r="A64" s="277"/>
+      <c r="B64" s="274"/>
       <c r="C64" s="37">
         <v>43670</v>
       </c>
@@ -6856,8 +6856,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="263"/>
-      <c r="B65" s="275"/>
+      <c r="A65" s="277"/>
+      <c r="B65" s="274"/>
       <c r="C65" s="135">
         <v>43971</v>
       </c>
@@ -6881,8 +6881,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="264"/>
-      <c r="B66" s="276"/>
+      <c r="A66" s="278"/>
+      <c r="B66" s="275"/>
       <c r="C66" s="48">
         <v>44034</v>
       </c>
@@ -6906,30 +6906,30 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="271" t="s">
+      <c r="A67" s="282" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="272"/>
-      <c r="C67" s="272"/>
-      <c r="D67" s="272"/>
-      <c r="E67" s="272"/>
-      <c r="F67" s="272"/>
-      <c r="G67" s="272"/>
-      <c r="H67" s="272"/>
-      <c r="I67" s="273"/>
+      <c r="B67" s="283"/>
+      <c r="C67" s="283"/>
+      <c r="D67" s="283"/>
+      <c r="E67" s="283"/>
+      <c r="F67" s="283"/>
+      <c r="G67" s="283"/>
+      <c r="H67" s="283"/>
+      <c r="I67" s="284"/>
     </row>
     <row r="68" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="268" t="s">
+      <c r="A68" s="279" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="269"/>
-      <c r="C68" s="269"/>
-      <c r="D68" s="269"/>
-      <c r="E68" s="269"/>
-      <c r="F68" s="269"/>
-      <c r="G68" s="269"/>
-      <c r="H68" s="269"/>
-      <c r="I68" s="270"/>
+      <c r="B68" s="280"/>
+      <c r="C68" s="280"/>
+      <c r="D68" s="280"/>
+      <c r="E68" s="280"/>
+      <c r="F68" s="280"/>
+      <c r="G68" s="280"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="281"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="200"/>
@@ -6966,6 +6966,38 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A6:A9"/>
@@ -6974,40 +7006,8 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7060,17 +7060,17 @@
       <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="285" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -7103,14 +7103,14 @@
       <c r="C4" s="35"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="260" t="s">
+      <c r="F4" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="254"/>
-      <c r="H4" s="253" t="s">
+      <c r="G4" s="236"/>
+      <c r="H4" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="254"/>
+      <c r="I4" s="236"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -7155,10 +7155,10 @@
       <c r="L5" s="150"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="293" t="s">
+      <c r="A6" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="294"/>
+      <c r="B6" s="291"/>
       <c r="C6" s="36">
         <v>43585</v>
       </c>
@@ -7193,8 +7193,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="288"/>
-      <c r="B7" s="266"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="37">
         <v>43676</v>
       </c>
@@ -7221,8 +7221,8 @@
       <c r="L7"/>
     </row>
     <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="288"/>
-      <c r="B8" s="266"/>
+      <c r="A8" s="290"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="37">
         <v>44033</v>
       </c>
@@ -7249,10 +7249,10 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="287" t="s">
+      <c r="A9" s="292" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="265">
+      <c r="B9" s="270">
         <v>1.5</v>
       </c>
       <c r="C9" s="45">
@@ -7289,8 +7289,8 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="288"/>
-      <c r="B10" s="266"/>
+      <c r="A10" s="290"/>
+      <c r="B10" s="271"/>
       <c r="C10" s="37">
         <v>43676</v>
       </c>
@@ -7325,8 +7325,8 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="289"/>
-      <c r="B11" s="267"/>
+      <c r="A11" s="293"/>
+      <c r="B11" s="272"/>
       <c r="C11" s="37">
         <v>44033</v>
       </c>
@@ -7361,10 +7361,10 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="265">
+      <c r="B12" s="270">
         <v>6.5</v>
       </c>
       <c r="C12" s="45">
@@ -7401,8 +7401,8 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="288"/>
-      <c r="B13" s="266"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="271"/>
       <c r="C13" s="37">
         <v>43676</v>
       </c>
@@ -7437,8 +7437,8 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="289"/>
-      <c r="B14" s="267"/>
+      <c r="A14" s="293"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="37">
         <v>44033</v>
       </c>
@@ -7473,10 +7473,10 @@
       <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="287" t="s">
+      <c r="A15" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="45">
         <v>43585</v>
       </c>
@@ -7511,8 +7511,8 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="288"/>
-      <c r="B16" s="266"/>
+      <c r="A16" s="290"/>
+      <c r="B16" s="271"/>
       <c r="C16" s="37">
         <v>43676</v>
       </c>
@@ -7547,8 +7547,8 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="289"/>
-      <c r="B17" s="267"/>
+      <c r="A17" s="293"/>
+      <c r="B17" s="272"/>
       <c r="C17" s="37">
         <v>44033</v>
       </c>
@@ -7583,10 +7583,10 @@
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="266">
+      <c r="B18" s="271">
         <v>10.1</v>
       </c>
       <c r="C18" s="45">
@@ -7623,8 +7623,8 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="284"/>
-      <c r="B19" s="266"/>
+      <c r="A19" s="286"/>
+      <c r="B19" s="271"/>
       <c r="C19" s="37">
         <v>43676</v>
       </c>
@@ -7659,8 +7659,8 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="291"/>
-      <c r="B20" s="267"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="272"/>
       <c r="C20" s="37">
         <v>44033</v>
       </c>
@@ -7695,10 +7695,10 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="290" t="s">
+      <c r="A21" s="287" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="265">
+      <c r="B21" s="270">
         <v>12.5</v>
       </c>
       <c r="C21" s="45">
@@ -7735,8 +7735,8 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="284"/>
-      <c r="B22" s="266"/>
+      <c r="A22" s="286"/>
+      <c r="B22" s="271"/>
       <c r="C22" s="37">
         <v>43676</v>
       </c>
@@ -7771,8 +7771,8 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="291"/>
-      <c r="B23" s="267"/>
+      <c r="A23" s="288"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="37">
         <v>44033</v>
       </c>
@@ -7807,10 +7807,10 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="284" t="s">
+      <c r="A24" s="286" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="266">
+      <c r="B24" s="271">
         <v>18</v>
       </c>
       <c r="C24" s="45">
@@ -7847,8 +7847,8 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="284"/>
-      <c r="B25" s="266"/>
+      <c r="A25" s="286"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -7883,8 +7883,8 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="284"/>
-      <c r="B26" s="266"/>
+      <c r="A26" s="286"/>
+      <c r="B26" s="271"/>
       <c r="C26" s="37">
         <v>44033</v>
       </c>
@@ -7919,10 +7919,10 @@
       <c r="W26" s="20"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="290" t="s">
+      <c r="A27" s="287" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="265"/>
+      <c r="B27" s="270"/>
       <c r="C27" s="45">
         <v>43585</v>
       </c>
@@ -7957,8 +7957,8 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="284"/>
-      <c r="B28" s="266"/>
+      <c r="A28" s="286"/>
+      <c r="B28" s="271"/>
       <c r="C28" s="37">
         <v>43676</v>
       </c>
@@ -7993,8 +7993,8 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="291"/>
-      <c r="B29" s="267"/>
+      <c r="A29" s="288"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="37">
         <v>44033</v>
       </c>
@@ -8029,10 +8029,10 @@
       <c r="W29" s="20"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="290" t="s">
+      <c r="A30" s="287" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="265">
+      <c r="B30" s="270">
         <v>21</v>
       </c>
       <c r="C30" s="45">
@@ -8069,8 +8069,8 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="284"/>
-      <c r="B31" s="266"/>
+      <c r="A31" s="286"/>
+      <c r="B31" s="271"/>
       <c r="C31" s="37">
         <v>43676</v>
       </c>
@@ -8105,8 +8105,8 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="291"/>
-      <c r="B32" s="267"/>
+      <c r="A32" s="288"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="37">
         <v>44033</v>
       </c>
@@ -8141,10 +8141,10 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="290" t="s">
+      <c r="A33" s="287" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="265"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="45">
         <v>43585</v>
       </c>
@@ -8179,8 +8179,8 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="284"/>
-      <c r="B34" s="266"/>
+      <c r="A34" s="286"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="37">
         <v>43676</v>
       </c>
@@ -8215,8 +8215,8 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="291"/>
-      <c r="B35" s="267"/>
+      <c r="A35" s="288"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="37">
         <v>44033</v>
       </c>
@@ -8251,10 +8251,10 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="290" t="s">
+      <c r="A36" s="287" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="265">
+      <c r="B36" s="270">
         <v>23</v>
       </c>
       <c r="C36" s="45">
@@ -8291,8 +8291,8 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="284"/>
-      <c r="B37" s="266"/>
+      <c r="A37" s="286"/>
+      <c r="B37" s="271"/>
       <c r="C37" s="37">
         <v>43676</v>
       </c>
@@ -8327,8 +8327,8 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="291"/>
-      <c r="B38" s="267"/>
+      <c r="A38" s="288"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="37">
         <v>44033</v>
       </c>
@@ -8363,10 +8363,10 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="284" t="s">
+      <c r="A39" s="286" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="266"/>
+      <c r="B39" s="271"/>
       <c r="C39" s="136">
         <v>43585</v>
       </c>
@@ -8401,8 +8401,8 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="284"/>
-      <c r="B40" s="266"/>
+      <c r="A40" s="286"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="135">
         <v>43676</v>
       </c>
@@ -8437,8 +8437,8 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="285"/>
-      <c r="B41" s="286"/>
+      <c r="A41" s="294"/>
+      <c r="B41" s="295"/>
       <c r="C41" s="34">
         <v>44033</v>
       </c>
@@ -8473,17 +8473,17 @@
       <c r="W41" s="20"/>
     </row>
     <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="238" t="s">
+      <c r="A42" s="247" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="238"/>
-      <c r="C42" s="238"/>
-      <c r="D42" s="238"/>
-      <c r="E42" s="238"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="238"/>
-      <c r="I42" s="239"/>
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="247"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="248"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -8497,17 +8497,17 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="240" t="s">
+      <c r="A43" s="249" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="241"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="242"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="250"/>
+      <c r="I43" s="251"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -8521,15 +8521,15 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="243"/>
-      <c r="B44" s="244"/>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
-      <c r="I44" s="245"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="253"/>
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="254"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -8543,30 +8543,44 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="243"/>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="245"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="253"/>
+      <c r="C45" s="253"/>
+      <c r="D45" s="253"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="253"/>
+      <c r="G45" s="253"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="254"/>
     </row>
     <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="246"/>
-      <c r="B46" s="247"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="247"/>
-      <c r="E46" s="247"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="247"/>
-      <c r="I46" s="248"/>
+      <c r="A46" s="255"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="256"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="257"/>
     </row>
     <row r="47" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -8582,20 +8596,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8641,15 +8641,15 @@
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="156"/>
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="298" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="295" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="296" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="296"/>
+      <c r="F3" s="297"/>
       <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8742,15 +8742,15 @@
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="156"/>
-      <c r="B10" s="297" t="s">
+      <c r="B10" s="298" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="298"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="295" t="s">
+      <c r="C10" s="299"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="296" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="296"/>
+      <c r="F10" s="297"/>
       <c r="G10" s="154"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/data/AllData_ZnCuCaMg_19-20.xlsx
+++ b/data/AllData_ZnCuCaMg_19-20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14424" tabRatio="925" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25590" windowHeight="14430" tabRatio="925" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Comments, notes" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="FINALREPORT_Weather" sheetId="8" r:id="rId7"/>
     <sheet name="Raw_Baseline_19-20" sheetId="5" r:id="rId8"/>
     <sheet name="Raw_ZnCuSampling_2020" sheetId="1" r:id="rId9"/>
-    <sheet name="BM_Edit_FINALREPORT_ZnCuSmplg_1" sheetId="10" r:id="rId10"/>
+    <sheet name="select_hardness_calcs" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Raw_Baseline_19-20'!$A$1:$AA$41</definedName>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="271">
   <si>
     <t>KR RM 70-Jims Landing</t>
   </si>
@@ -833,6 +836,45 @@
   </si>
   <si>
     <t>Slikok Creek Kenai River Confluence</t>
+  </si>
+  <si>
+    <t>ca_mg_l</t>
+  </si>
+  <si>
+    <t>mg_mg_l</t>
+  </si>
+  <si>
+    <t>to do: calc hardness and CCC values for this site using lcosest upstream site (poachers cove) and re-preintg and analyize results.  Fix results table 4</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>data/compiled_KRBWQM_data_2014_2019</t>
+  </si>
+  <si>
+    <t>data_origin_site</t>
+  </si>
+  <si>
+    <t>data_application_site</t>
+  </si>
+  <si>
+    <t>data_origin_date</t>
+  </si>
+  <si>
+    <t>data_application_date</t>
+  </si>
+  <si>
+    <t>hardness</t>
+  </si>
+  <si>
+    <t>cu_ccc</t>
+  </si>
+  <si>
+    <t>zn_ccc</t>
+  </si>
+  <si>
+    <t>data/compiled_KRBWQM_data_2014_2020</t>
   </si>
 </sst>
 </file>
@@ -843,7 +885,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,6 +991,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2341,7 +2389,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2956,12 +3004,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2992,6 +3034,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3010,72 +3109,69 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3088,93 +3184,39 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3188,6 +3230,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3545,6 +3592,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Intro"/>
+      <sheetName val="Master"/>
+      <sheetName val="DONT_EDIT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3848,30 +3912,30 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="98.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="98.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3886,7 +3950,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3901,7 +3965,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3912,7 +3976,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3928,7 +3992,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3945,7 +4009,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3957,7 +4021,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -3965,7 +4029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -3973,10 +4037,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>50</v>
@@ -3985,7 +4049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
@@ -3996,7 +4060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>48</v>
       </c>
@@ -4007,42 +4071,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="233" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="233"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -4059,18 +4123,142 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:10" s="230" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="230" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="230" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="230" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="230" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="230" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="230" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="230" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="230" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="230" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="230" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="300">
+        <v>43585</v>
+      </c>
+      <c r="D2" s="300">
+        <v>43607</v>
+      </c>
+      <c r="E2">
+        <v>11.6</v>
+      </c>
+      <c r="F2">
+        <v>1.35</v>
+      </c>
+      <c r="G2">
+        <f>(2.497*E2)+4.119*F2</f>
+        <v>34.525849999999998</v>
+      </c>
+      <c r="H2">
+        <f>EXP(0.8545*(LN($G2)-1.702))*0.96</f>
+        <v>4.6237624830229311</v>
+      </c>
+      <c r="I2">
+        <f>EXP(0.8473*(LN($G2)+0.884))*0.986</f>
+        <v>41.921705933684031</v>
+      </c>
+      <c r="J2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="300">
+        <v>43676</v>
+      </c>
+      <c r="D3" s="300">
+        <v>43670</v>
+      </c>
+      <c r="E3">
+        <v>11.7</v>
+      </c>
+      <c r="F3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G3">
+        <f>(2.497*E3)+4.119*F3</f>
+        <v>33.869369999999996</v>
+      </c>
+      <c r="H3">
+        <f>EXP(0.8545*(LN($G3)-1.702))*0.96</f>
+        <v>4.5485327638904272</v>
+      </c>
+      <c r="I3">
+        <f>EXP(0.8473*(LN($G3)+0.884))*0.986</f>
+        <v>41.245330317503104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[Compiled_KRBWQM_data_2014_2019.xlsx]DONT_EDIT!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4082,24 +4270,24 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:5" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="232" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
       <c r="E1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
         <v>36</v>
       </c>
@@ -4113,7 +4301,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
@@ -4135,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4152,23 +4340,23 @@
       <selection activeCell="A4" sqref="A4:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.33203125" style="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.28515625" style="20" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.109375" style="20" collapsed="1"/>
-    <col min="11" max="23" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9.109375" style="20" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="20" collapsed="1"/>
+    <col min="11" max="23" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>136</v>
       </c>
@@ -4184,7 +4372,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>114</v>
       </c>
@@ -4192,30 +4380,30 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="245" t="s">
+      <c r="F4" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="236"/>
-      <c r="H4" s="235" t="s">
+      <c r="G4" s="253"/>
+      <c r="H4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="236"/>
+      <c r="I4" s="253"/>
       <c r="L4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
@@ -4244,11 +4432,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="244"/>
+      <c r="B6" s="258"/>
       <c r="C6" s="36">
         <v>43607</v>
       </c>
@@ -4271,9 +4459,9 @@
         <v>39.916682611895808</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="238"/>
-      <c r="B7" s="242"/>
+    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="255"/>
+      <c r="B7" s="233"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -4310,9 +4498,9 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
-      <c r="B8" s="242"/>
+    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="255"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -4349,9 +4537,9 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="238"/>
-      <c r="B9" s="242"/>
+    <row r="9" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="255"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="37">
         <v>44034</v>
       </c>
@@ -4388,11 +4576,11 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="239" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="45">
         <v>43607</v>
       </c>
@@ -4417,9 +4605,9 @@
       <c r="K10" s="175"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="238"/>
-      <c r="B11" s="242"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="255"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="37">
         <v>43670</v>
       </c>
@@ -4444,9 +4632,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="238"/>
-      <c r="B12" s="242"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="255"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="135">
         <v>43971</v>
       </c>
@@ -4471,9 +4659,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="240"/>
-      <c r="B13" s="243"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="257"/>
+      <c r="B13" s="236"/>
       <c r="C13" s="48">
         <v>44034</v>
       </c>
@@ -4496,11 +4684,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="239" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="256" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="241">
+      <c r="B14" s="235">
         <v>19</v>
       </c>
       <c r="C14" s="198">
@@ -4525,9 +4713,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="238"/>
-      <c r="B15" s="242"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="255"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="176">
         <v>43670</v>
       </c>
@@ -4550,9 +4738,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="242"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="255"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="135">
         <v>43971</v>
       </c>
@@ -4575,9 +4763,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="240"/>
-      <c r="B17" s="243"/>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="257"/>
+      <c r="B17" s="236"/>
       <c r="C17" s="48">
         <v>44034</v>
       </c>
@@ -4600,11 +4788,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="239" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="241"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="187">
         <v>43607</v>
       </c>
@@ -4627,9 +4815,9 @@
         <v>46.218870417240375</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="238"/>
-      <c r="B19" s="242"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="255"/>
+      <c r="B19" s="233"/>
       <c r="C19" s="193">
         <v>43670</v>
       </c>
@@ -4652,9 +4840,9 @@
         <v>79.595787160671918</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="238"/>
-      <c r="B20" s="242"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="255"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="135">
         <v>43971</v>
       </c>
@@ -4677,9 +4865,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="240"/>
-      <c r="B21" s="243"/>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="257"/>
+      <c r="B21" s="236"/>
       <c r="C21" s="48">
         <v>44034</v>
       </c>
@@ -4702,11 +4890,11 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="258" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="242"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="34">
         <v>43607</v>
       </c>
@@ -4729,9 +4917,9 @@
         <v>65.956467062491583</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="258"/>
-      <c r="B23" s="242"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="248"/>
+      <c r="B23" s="233"/>
       <c r="C23" s="37">
         <v>43670</v>
       </c>
@@ -4754,9 +4942,9 @@
         <v>86.696105818258914</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="258"/>
-      <c r="B24" s="242"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="248"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="135">
         <v>43971</v>
       </c>
@@ -4779,9 +4967,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="261"/>
-      <c r="B25" s="243"/>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+      <c r="B25" s="236"/>
       <c r="C25" s="48">
         <v>44034</v>
       </c>
@@ -4804,11 +4992,11 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="260" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="241">
+      <c r="B26" s="235">
         <v>50</v>
       </c>
       <c r="C26" s="45">
@@ -4833,9 +5021,9 @@
         <v>40.055408244062285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="258"/>
-      <c r="B27" s="242"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="248"/>
+      <c r="B27" s="233"/>
       <c r="C27" s="37">
         <v>43670</v>
       </c>
@@ -4858,9 +5046,9 @@
         <v>40.555774461639999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="258"/>
-      <c r="B28" s="242"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="248"/>
+      <c r="B28" s="233"/>
       <c r="C28" s="135">
         <v>43971</v>
       </c>
@@ -4883,9 +5071,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="261"/>
-      <c r="B29" s="243"/>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="251"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="48">
         <v>44034</v>
       </c>
@@ -4908,11 +5096,11 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="258" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="242">
+      <c r="B30" s="233">
         <v>70</v>
       </c>
       <c r="C30" s="34">
@@ -4937,9 +5125,9 @@
         <v>50.431439204138087</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="258"/>
-      <c r="B31" s="242"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="248"/>
+      <c r="B31" s="233"/>
       <c r="C31" s="37">
         <v>43670</v>
       </c>
@@ -4962,9 +5150,9 @@
         <v>47.560267438577668</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="258"/>
-      <c r="B32" s="242"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="248"/>
+      <c r="B32" s="233"/>
       <c r="C32" s="135">
         <v>43971</v>
       </c>
@@ -4987,9 +5175,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="259"/>
-      <c r="B33" s="246"/>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="249"/>
+      <c r="B33" s="234"/>
       <c r="C33" s="34">
         <v>44034</v>
       </c>
@@ -5012,76 +5200,68 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="247" t="s">
+    <row r="34" spans="1:9" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="247"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="247"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="248"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="249" t="s">
+      <c r="B34" s="237"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="237"/>
+      <c r="E34" s="237"/>
+      <c r="F34" s="237"/>
+      <c r="G34" s="237"/>
+      <c r="H34" s="237"/>
+      <c r="I34" s="238"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="239" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="250"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="251"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="252"/>
-      <c r="B36" s="253"/>
-      <c r="C36" s="253"/>
-      <c r="D36" s="253"/>
-      <c r="E36" s="253"/>
-      <c r="F36" s="253"/>
-      <c r="G36" s="253"/>
-      <c r="H36" s="253"/>
-      <c r="I36" s="254"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="252"/>
-      <c r="B37" s="253"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="253"/>
-      <c r="F37" s="253"/>
-      <c r="G37" s="253"/>
-      <c r="H37" s="253"/>
-      <c r="I37" s="254"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="255"/>
-      <c r="B38" s="256"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-      <c r="H38" s="256"/>
-      <c r="I38" s="257"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B35" s="240"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="240"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="240"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="241"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="242"/>
+      <c r="B36" s="243"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="243"/>
+      <c r="I36" s="244"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="242"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="244"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="245"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="246"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="247"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:I38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -5092,6 +5272,14 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I38"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5106,37 +5294,37 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="232"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
       <c r="E2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="260"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
       <c r="E3" s="171" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
         <v>36</v>
       </c>
@@ -5150,7 +5338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>1</v>
       </c>
@@ -5161,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C3"/>
@@ -5186,39 +5374,39 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="199" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="199" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="209"/>
       <c r="B1" s="210"/>
       <c r="C1" s="211"/>
       <c r="D1" s="210"/>
       <c r="E1" s="210"/>
-      <c r="F1" s="263" t="s">
+      <c r="F1" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="265" t="s">
+      <c r="G1" s="280"/>
+      <c r="H1" s="281" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="266"/>
-    </row>
-    <row r="2" spans="1:9" s="144" customFormat="1" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="282"/>
+    </row>
+    <row r="2" spans="1:9" s="144" customFormat="1" ht="49.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="212" t="s">
         <v>55</v>
       </c>
@@ -5247,11 +5435,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="144" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="267" t="s">
+    <row r="3" spans="1:9" s="144" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="276" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="270"/>
+      <c r="B3" s="264"/>
       <c r="C3" s="45">
         <v>43585</v>
       </c>
@@ -5274,9 +5462,9 @@
         <v>39.92</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="268"/>
-      <c r="B4" s="271"/>
+    <row r="4" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="277"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="37">
         <v>43676</v>
       </c>
@@ -5299,9 +5487,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="269"/>
-      <c r="B5" s="272"/>
+    <row r="5" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="278"/>
+      <c r="B5" s="266"/>
       <c r="C5" s="203">
         <v>44033</v>
       </c>
@@ -5324,11 +5512,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="267" t="s">
+    <row r="6" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="276" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="241"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="45">
         <v>43607</v>
       </c>
@@ -5351,9 +5539,9 @@
         <v>39.916682611895808</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="268"/>
-      <c r="B7" s="242"/>
+    <row r="7" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="277"/>
+      <c r="B7" s="233"/>
       <c r="C7" s="37">
         <v>43670</v>
       </c>
@@ -5376,9 +5564,9 @@
         <v>58.197868948497153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="268"/>
-      <c r="B8" s="242"/>
+    <row r="8" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="277"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="37">
         <v>43971</v>
       </c>
@@ -5401,9 +5589,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="269"/>
-      <c r="B9" s="243"/>
+    <row r="9" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="278"/>
+      <c r="B9" s="236"/>
       <c r="C9" s="203">
         <v>44034</v>
       </c>
@@ -5426,11 +5614,11 @@
         <v>87.53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="267" t="s">
+    <row r="10" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="276" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="270"/>
+      <c r="B10" s="264"/>
       <c r="C10" s="45">
         <v>43585</v>
       </c>
@@ -5453,9 +5641,9 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="268"/>
-      <c r="B11" s="271"/>
+    <row r="11" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="277"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="37">
         <v>43676</v>
       </c>
@@ -5478,9 +5666,9 @@
         <v>79.66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="269"/>
-      <c r="B12" s="272"/>
+    <row r="12" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="278"/>
+      <c r="B12" s="266"/>
       <c r="C12" s="203">
         <v>44033</v>
       </c>
@@ -5503,11 +5691,11 @@
         <v>70.12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="267" t="s">
+    <row r="13" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="276" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="241"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="45">
         <v>43607</v>
       </c>
@@ -5530,9 +5718,9 @@
         <v>50.554834324345521</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="268"/>
-      <c r="B14" s="242"/>
+    <row r="14" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="277"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="37">
         <v>43670</v>
       </c>
@@ -5555,9 +5743,9 @@
         <v>79.66169033588649</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="268"/>
-      <c r="B15" s="242"/>
+    <row r="15" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="277"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="135">
         <v>43971</v>
       </c>
@@ -5580,9 +5768,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="269"/>
-      <c r="B16" s="243"/>
+    <row r="16" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="278"/>
+      <c r="B16" s="236"/>
       <c r="C16" s="48">
         <v>44034</v>
       </c>
@@ -5605,11 +5793,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="276" t="s">
+    <row r="17" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="261" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="270"/>
+      <c r="B17" s="264"/>
       <c r="C17" s="45">
         <v>43585</v>
       </c>
@@ -5632,9 +5820,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="277"/>
-      <c r="B18" s="271"/>
+    <row r="18" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="262"/>
+      <c r="B18" s="265"/>
       <c r="C18" s="37">
         <v>43676</v>
       </c>
@@ -5657,9 +5845,9 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="278"/>
-      <c r="B19" s="272"/>
+    <row r="19" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="263"/>
+      <c r="B19" s="266"/>
       <c r="C19" s="203">
         <v>44033</v>
       </c>
@@ -5682,11 +5870,11 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="267" t="s">
+    <row r="20" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="276" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="241"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="187">
         <v>43607</v>
       </c>
@@ -5709,9 +5897,9 @@
         <v>46.218870417240375</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="268"/>
-      <c r="B21" s="242"/>
+    <row r="21" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="277"/>
+      <c r="B21" s="233"/>
       <c r="C21" s="193">
         <v>43670</v>
       </c>
@@ -5734,9 +5922,9 @@
         <v>79.595787160671918</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="268"/>
-      <c r="B22" s="242"/>
+    <row r="22" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="277"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="135">
         <v>43971</v>
       </c>
@@ -5759,9 +5947,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="269"/>
-      <c r="B23" s="243"/>
+    <row r="23" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="278"/>
+      <c r="B23" s="236"/>
       <c r="C23" s="48">
         <v>44034</v>
       </c>
@@ -5784,11 +5972,11 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="276" t="s">
+    <row r="24" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="261" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="270"/>
+      <c r="B24" s="264"/>
       <c r="C24" s="45">
         <v>43585</v>
       </c>
@@ -5811,9 +5999,9 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="277"/>
-      <c r="B25" s="271"/>
+    <row r="25" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="262"/>
+      <c r="B25" s="265"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -5836,9 +6024,9 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="278"/>
-      <c r="B26" s="272"/>
+    <row r="26" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="263"/>
+      <c r="B26" s="266"/>
       <c r="C26" s="203">
         <v>44033</v>
       </c>
@@ -5861,11 +6049,11 @@
         <v>82.81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="147" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="276" t="s">
+    <row r="27" spans="1:9" s="147" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="261" t="s">
         <v>255</v>
       </c>
-      <c r="B27" s="241"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="45">
         <v>43607</v>
       </c>
@@ -5888,9 +6076,9 @@
         <v>65.956467062491583</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="277"/>
-      <c r="B28" s="242"/>
+    <row r="28" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="262"/>
+      <c r="B28" s="233"/>
       <c r="C28" s="37">
         <v>43670</v>
       </c>
@@ -5913,9 +6101,9 @@
         <v>86.696105818258914</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="277"/>
-      <c r="B29" s="242"/>
+    <row r="29" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="262"/>
+      <c r="B29" s="233"/>
       <c r="C29" s="135">
         <v>43971</v>
       </c>
@@ -5938,9 +6126,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="278"/>
-      <c r="B30" s="243"/>
+    <row r="30" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="263"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="48">
         <v>44034</v>
       </c>
@@ -5963,11 +6151,11 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="276" t="s">
+    <row r="31" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="261" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="270"/>
+      <c r="B31" s="264"/>
       <c r="C31" s="136">
         <v>43585</v>
       </c>
@@ -5990,9 +6178,9 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="277"/>
-      <c r="B32" s="271"/>
+    <row r="32" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="262"/>
+      <c r="B32" s="265"/>
       <c r="C32" s="135">
         <v>43676</v>
       </c>
@@ -6015,9 +6203,9 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="278"/>
-      <c r="B33" s="272"/>
+    <row r="33" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="263"/>
+      <c r="B33" s="266"/>
       <c r="C33" s="48">
         <v>44033</v>
       </c>
@@ -6040,8 +6228,8 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="267" t="s">
+    <row r="34" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="276" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="273">
@@ -6069,8 +6257,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="268"/>
+    <row r="35" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="277"/>
       <c r="B35" s="274"/>
       <c r="C35" s="37">
         <v>43676</v>
@@ -6094,8 +6282,8 @@
         <v>80.87</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="269"/>
+    <row r="36" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="278"/>
       <c r="B36" s="275"/>
       <c r="C36" s="203">
         <v>44033</v>
@@ -6119,8 +6307,8 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="267" t="s">
+    <row r="37" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="276" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="273">
@@ -6148,8 +6336,8 @@
         <v>44.29</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="268"/>
+    <row r="38" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="277"/>
       <c r="B38" s="274"/>
       <c r="C38" s="37">
         <v>43676</v>
@@ -6173,8 +6361,8 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="269"/>
+    <row r="39" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="278"/>
       <c r="B39" s="275"/>
       <c r="C39" s="203">
         <v>44033</v>
@@ -6198,8 +6386,8 @@
         <v>40.58</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="276" t="s">
+    <row r="40" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="261" t="s">
         <v>162</v>
       </c>
       <c r="B40" s="273">
@@ -6227,8 +6415,8 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="277"/>
+    <row r="41" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="262"/>
       <c r="B41" s="274"/>
       <c r="C41" s="37">
         <v>43676</v>
@@ -6252,8 +6440,8 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="278"/>
+    <row r="42" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="263"/>
       <c r="B42" s="275"/>
       <c r="C42" s="203">
         <v>44033</v>
@@ -6277,8 +6465,8 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="276" t="s">
+    <row r="43" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="261" t="s">
         <v>163</v>
       </c>
       <c r="B43" s="273">
@@ -6306,8 +6494,8 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="277"/>
+    <row r="44" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="262"/>
       <c r="B44" s="274"/>
       <c r="C44" s="37">
         <v>43676</v>
@@ -6331,8 +6519,8 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="278"/>
+    <row r="45" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="263"/>
       <c r="B45" s="275"/>
       <c r="C45" s="203">
         <v>44033</v>
@@ -6356,8 +6544,8 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="276" t="s">
+    <row r="46" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="261" t="s">
         <v>164</v>
       </c>
       <c r="B46" s="273">
@@ -6385,8 +6573,8 @@
         <v>41.92</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="277"/>
+    <row r="47" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="262"/>
       <c r="B47" s="274"/>
       <c r="C47" s="37">
         <v>43676</v>
@@ -6410,8 +6598,8 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="278"/>
+    <row r="48" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="263"/>
       <c r="B48" s="275"/>
       <c r="C48" s="203">
         <v>44033</v>
@@ -6435,62 +6623,62 @@
         <v>37.17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="267" t="s">
+    <row r="49" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="276" t="s">
         <v>257</v>
       </c>
       <c r="B49" s="273">
         <v>19</v>
       </c>
-      <c r="C49" s="198">
+      <c r="C49" s="187">
         <v>43607</v>
       </c>
-      <c r="D49" s="182" t="s">
+      <c r="D49" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="183" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="184" t="s">
+      <c r="E49" s="189">
+        <v>34.53</v>
+      </c>
+      <c r="F49" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="185" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="186" t="s">
+      <c r="G49" s="191">
+        <v>4.62</v>
+      </c>
+      <c r="H49" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="223" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="268"/>
+      <c r="I49" s="221">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="277"/>
       <c r="B50" s="274"/>
-      <c r="C50" s="176">
+      <c r="C50" s="193">
         <v>43670</v>
       </c>
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="178" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="179">
+      <c r="E50" s="195">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="F50" s="301">
         <v>8.16</v>
       </c>
-      <c r="G50" s="180" t="s">
-        <v>61</v>
-      </c>
-      <c r="H50" s="181" t="s">
+      <c r="G50" s="197">
+        <v>4.55</v>
+      </c>
+      <c r="H50" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="224" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="268"/>
+      <c r="I50" s="222">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="277"/>
       <c r="B51" s="274"/>
       <c r="C51" s="135">
         <v>43971</v>
@@ -6514,8 +6702,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="269"/>
+    <row r="52" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="278"/>
       <c r="B52" s="275"/>
       <c r="C52" s="48">
         <v>44034</v>
@@ -6539,8 +6727,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="276" t="s">
+    <row r="53" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="261" t="s">
         <v>165</v>
       </c>
       <c r="B53" s="273">
@@ -6568,8 +6756,8 @@
         <v>40.85</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="277"/>
+    <row r="54" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="262"/>
       <c r="B54" s="274"/>
       <c r="C54" s="37">
         <v>43676</v>
@@ -6593,8 +6781,8 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="278"/>
+    <row r="55" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="263"/>
       <c r="B55" s="275"/>
       <c r="C55" s="203">
         <v>44033</v>
@@ -6618,8 +6806,8 @@
         <v>37.57</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="276" t="s">
+    <row r="56" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="261" t="s">
         <v>166</v>
       </c>
       <c r="B56" s="273">
@@ -6647,8 +6835,8 @@
         <v>41.49</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="277"/>
+    <row r="57" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="262"/>
       <c r="B57" s="274"/>
       <c r="C57" s="37">
         <v>43676</v>
@@ -6672,8 +6860,8 @@
         <v>40.69</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="278"/>
+    <row r="58" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="263"/>
       <c r="B58" s="275"/>
       <c r="C58" s="203">
         <v>44033</v>
@@ -6697,8 +6885,8 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="276" t="s">
+    <row r="59" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="261" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="273">
@@ -6726,8 +6914,8 @@
         <v>40.055408244062285</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="277"/>
+    <row r="60" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="262"/>
       <c r="B60" s="274"/>
       <c r="C60" s="37">
         <v>43670</v>
@@ -6751,8 +6939,8 @@
         <v>40.555774461639999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="277"/>
+    <row r="61" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="262"/>
       <c r="B61" s="274"/>
       <c r="C61" s="135">
         <v>43971</v>
@@ -6776,8 +6964,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="278"/>
+    <row r="62" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="263"/>
       <c r="B62" s="275"/>
       <c r="C62" s="48">
         <v>44034</v>
@@ -6801,8 +6989,8 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="276" t="s">
+    <row r="63" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="261" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="273">
@@ -6811,27 +6999,27 @@
       <c r="C63" s="45">
         <v>43607</v>
       </c>
-      <c r="D63" s="225" t="s">
+      <c r="D63" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="226">
+      <c r="E63" s="224">
         <v>42.940949999999994</v>
       </c>
-      <c r="F63" s="227" t="s">
+      <c r="F63" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="228">
+      <c r="G63" s="226">
         <v>5.5710873525624374</v>
       </c>
-      <c r="H63" s="229" t="s">
+      <c r="H63" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="230">
+      <c r="I63" s="228">
         <v>50.431439204138087</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="277"/>
+    <row r="64" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="262"/>
       <c r="B64" s="274"/>
       <c r="C64" s="37">
         <v>43670</v>
@@ -6855,8 +7043,8 @@
         <v>47.560267438577668</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="277"/>
+    <row r="65" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="262"/>
       <c r="B65" s="274"/>
       <c r="C65" s="135">
         <v>43971</v>
@@ -6876,12 +7064,12 @@
       <c r="H65" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I65" s="231" t="s">
+      <c r="I65" s="229" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="278"/>
+    <row r="66" spans="1:9" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="263"/>
       <c r="B66" s="275"/>
       <c r="C66" s="48">
         <v>44034</v>
@@ -6905,33 +7093,33 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="282" t="s">
+    <row r="67" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="270" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="283"/>
-      <c r="C67" s="283"/>
-      <c r="D67" s="283"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="284"/>
-    </row>
-    <row r="68" spans="1:9" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="279" t="s">
+      <c r="B67" s="271"/>
+      <c r="C67" s="271"/>
+      <c r="D67" s="271"/>
+      <c r="E67" s="271"/>
+      <c r="F67" s="271"/>
+      <c r="G67" s="271"/>
+      <c r="H67" s="271"/>
+      <c r="I67" s="272"/>
+    </row>
+    <row r="68" spans="1:9" ht="67.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="280"/>
-      <c r="C68" s="280"/>
-      <c r="D68" s="280"/>
-      <c r="E68" s="280"/>
-      <c r="F68" s="280"/>
-      <c r="G68" s="280"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="281"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="268"/>
+      <c r="C68" s="268"/>
+      <c r="D68" s="268"/>
+      <c r="E68" s="268"/>
+      <c r="F68" s="268"/>
+      <c r="G68" s="268"/>
+      <c r="H68" s="268"/>
+      <c r="I68" s="269"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="200"/>
       <c r="B69" s="200"/>
       <c r="C69" s="200"/>
@@ -6942,7 +7130,7 @@
       <c r="H69" s="200"/>
       <c r="I69" s="200"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="200"/>
       <c r="B70" s="200"/>
       <c r="C70" s="200"/>
@@ -6953,7 +7141,7 @@
       <c r="H70" s="200"/>
       <c r="I70" s="200"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="200"/>
       <c r="B71" s="200"/>
       <c r="C71" s="200"/>
@@ -6966,36 +7154,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="F1:G1"/>
@@ -7008,6 +7166,36 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7022,22 +7210,22 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="149" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.6640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.77734375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.44140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.6640625" style="20" collapsed="1"/>
-    <col min="24" max="16384" width="29.6640625" style="20" collapsed="1"/>
+    <col min="2" max="2" width="5.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.42578125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" style="20" collapsed="1"/>
+    <col min="24" max="16384" width="29.7109375" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="148"/>
       <c r="B1" s="87"/>
       <c r="C1" s="88"/>
@@ -7059,18 +7247,18 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="285" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="291" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -7083,7 +7271,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="152"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -7097,20 +7285,20 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="35"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="245" t="s">
+      <c r="F4" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="236"/>
-      <c r="H4" s="235" t="s">
+      <c r="G4" s="253"/>
+      <c r="H4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="236"/>
+      <c r="I4" s="253"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
@@ -7123,7 +7311,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" s="21" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="21" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
@@ -7154,11 +7342,11 @@
       <c r="K5" s="150"/>
       <c r="L5" s="150"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="289" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="291"/>
+      <c r="B6" s="293"/>
       <c r="C6" s="36">
         <v>43585</v>
       </c>
@@ -7192,9 +7380,9 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
-      <c r="B7" s="271"/>
+    <row r="7" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="287"/>
+      <c r="B7" s="265"/>
       <c r="C7" s="37">
         <v>43676</v>
       </c>
@@ -7220,9 +7408,9 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="290"/>
-      <c r="B8" s="271"/>
+    <row r="8" spans="1:23" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="287"/>
+      <c r="B8" s="265"/>
       <c r="C8" s="37">
         <v>44033</v>
       </c>
@@ -7248,11 +7436,11 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="292" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="286" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="270">
+      <c r="B9" s="264">
         <v>1.5</v>
       </c>
       <c r="C9" s="45">
@@ -7288,9 +7476,9 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
-      <c r="B10" s="271"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="287"/>
+      <c r="B10" s="265"/>
       <c r="C10" s="37">
         <v>43676</v>
       </c>
@@ -7324,9 +7512,9 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="293"/>
-      <c r="B11" s="272"/>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="288"/>
+      <c r="B11" s="266"/>
       <c r="C11" s="37">
         <v>44033</v>
       </c>
@@ -7360,11 +7548,11 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="292" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="270">
+      <c r="B12" s="264">
         <v>6.5</v>
       </c>
       <c r="C12" s="45">
@@ -7400,9 +7588,9 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
-      <c r="B13" s="271"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="287"/>
+      <c r="B13" s="265"/>
       <c r="C13" s="37">
         <v>43676</v>
       </c>
@@ -7436,9 +7624,9 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="293"/>
-      <c r="B14" s="272"/>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="288"/>
+      <c r="B14" s="266"/>
       <c r="C14" s="37">
         <v>44033</v>
       </c>
@@ -7472,11 +7660,11 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="292" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="270"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="45">
         <v>43585</v>
       </c>
@@ -7510,9 +7698,9 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
-      <c r="B16" s="271"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="287"/>
+      <c r="B16" s="265"/>
       <c r="C16" s="37">
         <v>43676</v>
       </c>
@@ -7546,9 +7734,9 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="293"/>
-      <c r="B17" s="272"/>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="288"/>
+      <c r="B17" s="266"/>
       <c r="C17" s="37">
         <v>44033</v>
       </c>
@@ -7582,11 +7770,11 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="286" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="271">
+      <c r="B18" s="265">
         <v>10.1</v>
       </c>
       <c r="C18" s="45">
@@ -7622,9 +7810,9 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="286"/>
-      <c r="B19" s="271"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="283"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="37">
         <v>43676</v>
       </c>
@@ -7658,9 +7846,9 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="288"/>
-      <c r="B20" s="272"/>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="290"/>
+      <c r="B20" s="266"/>
       <c r="C20" s="37">
         <v>44033</v>
       </c>
@@ -7694,11 +7882,11 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="287" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="270">
+      <c r="B21" s="264">
         <v>12.5</v>
       </c>
       <c r="C21" s="45">
@@ -7734,9 +7922,9 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="286"/>
-      <c r="B22" s="271"/>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="283"/>
+      <c r="B22" s="265"/>
       <c r="C22" s="37">
         <v>43676</v>
       </c>
@@ -7770,9 +7958,9 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="288"/>
-      <c r="B23" s="272"/>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="290"/>
+      <c r="B23" s="266"/>
       <c r="C23" s="37">
         <v>44033</v>
       </c>
@@ -7806,11 +7994,11 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="286" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="283" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="271">
+      <c r="B24" s="265">
         <v>18</v>
       </c>
       <c r="C24" s="45">
@@ -7846,9 +8034,9 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="286"/>
-      <c r="B25" s="271"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="283"/>
+      <c r="B25" s="265"/>
       <c r="C25" s="37">
         <v>43676</v>
       </c>
@@ -7882,9 +8070,9 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="286"/>
-      <c r="B26" s="271"/>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="283"/>
+      <c r="B26" s="265"/>
       <c r="C26" s="37">
         <v>44033</v>
       </c>
@@ -7918,11 +8106,11 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="287" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="289" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="270"/>
+      <c r="B27" s="264"/>
       <c r="C27" s="45">
         <v>43585</v>
       </c>
@@ -7956,9 +8144,9 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="286"/>
-      <c r="B28" s="271"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="283"/>
+      <c r="B28" s="265"/>
       <c r="C28" s="37">
         <v>43676</v>
       </c>
@@ -7992,9 +8180,9 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="288"/>
-      <c r="B29" s="272"/>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="290"/>
+      <c r="B29" s="266"/>
       <c r="C29" s="37">
         <v>44033</v>
       </c>
@@ -8028,11 +8216,11 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="287" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="289" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="270">
+      <c r="B30" s="264">
         <v>21</v>
       </c>
       <c r="C30" s="45">
@@ -8068,9 +8256,9 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="286"/>
-      <c r="B31" s="271"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="283"/>
+      <c r="B31" s="265"/>
       <c r="C31" s="37">
         <v>43676</v>
       </c>
@@ -8104,9 +8292,9 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="288"/>
-      <c r="B32" s="272"/>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="290"/>
+      <c r="B32" s="266"/>
       <c r="C32" s="37">
         <v>44033</v>
       </c>
@@ -8140,11 +8328,11 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="287" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="289" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="270"/>
+      <c r="B33" s="264"/>
       <c r="C33" s="45">
         <v>43585</v>
       </c>
@@ -8178,9 +8366,9 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="286"/>
-      <c r="B34" s="271"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="283"/>
+      <c r="B34" s="265"/>
       <c r="C34" s="37">
         <v>43676</v>
       </c>
@@ -8214,9 +8402,9 @@
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
     </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="288"/>
-      <c r="B35" s="272"/>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="290"/>
+      <c r="B35" s="266"/>
       <c r="C35" s="37">
         <v>44033</v>
       </c>
@@ -8250,11 +8438,11 @@
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="287" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="289" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="270">
+      <c r="B36" s="264">
         <v>23</v>
       </c>
       <c r="C36" s="45">
@@ -8290,9 +8478,9 @@
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="286"/>
-      <c r="B37" s="271"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="283"/>
+      <c r="B37" s="265"/>
       <c r="C37" s="37">
         <v>43676</v>
       </c>
@@ -8326,9 +8514,9 @@
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
     </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="288"/>
-      <c r="B38" s="272"/>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="290"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="37">
         <v>44033</v>
       </c>
@@ -8362,11 +8550,11 @@
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="286" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="271"/>
+      <c r="B39" s="265"/>
       <c r="C39" s="136">
         <v>43585</v>
       </c>
@@ -8400,9 +8588,9 @@
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="286"/>
-      <c r="B40" s="271"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="283"/>
+      <c r="B40" s="265"/>
       <c r="C40" s="135">
         <v>43676</v>
       </c>
@@ -8436,9 +8624,9 @@
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
     </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="294"/>
-      <c r="B41" s="295"/>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="284"/>
+      <c r="B41" s="285"/>
       <c r="C41" s="34">
         <v>44033</v>
       </c>
@@ -8472,18 +8660,18 @@
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="247" t="s">
+    <row r="42" spans="1:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="247"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="247"/>
-      <c r="E42" s="247"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="248"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="237"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
+      <c r="H42" s="237"/>
+      <c r="I42" s="238"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -8496,18 +8684,18 @@
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
     </row>
-    <row r="43" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="249" t="s">
+    <row r="43" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="239" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250"/>
-      <c r="F43" s="250"/>
-      <c r="G43" s="250"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="251"/>
+      <c r="B43" s="240"/>
+      <c r="C43" s="240"/>
+      <c r="D43" s="240"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="240"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="240"/>
+      <c r="I43" s="241"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -8520,16 +8708,16 @@
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="252"/>
-      <c r="B44" s="253"/>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="254"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="242"/>
+      <c r="B44" s="243"/>
+      <c r="C44" s="243"/>
+      <c r="D44" s="243"/>
+      <c r="E44" s="243"/>
+      <c r="F44" s="243"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="243"/>
+      <c r="I44" s="244"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -8542,45 +8730,31 @@
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="252"/>
-      <c r="B45" s="253"/>
-      <c r="C45" s="253"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="253"/>
-      <c r="F45" s="253"/>
-      <c r="G45" s="253"/>
-      <c r="H45" s="253"/>
-      <c r="I45" s="254"/>
-    </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="255"/>
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="257"/>
-    </row>
-    <row r="47" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="242"/>
+      <c r="B45" s="243"/>
+      <c r="C45" s="243"/>
+      <c r="D45" s="243"/>
+      <c r="E45" s="243"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="243"/>
+      <c r="H45" s="243"/>
+      <c r="I45" s="244"/>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="245"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="246"/>
+      <c r="G46" s="246"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="247"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -8596,6 +8770,20 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8610,19 +8798,19 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="155" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" style="155" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="155" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.44140625" style="155" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.44140625" style="155" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.109375" style="155" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" style="155" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" style="155" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="155" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="153" t="s">
         <v>236</v>
       </c>
@@ -8638,21 +8826,21 @@
       <c r="K1" s="153"/>
       <c r="L1" s="153"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156"/>
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="296" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="296" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="294" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="297"/>
+      <c r="F3" s="295"/>
       <c r="G3" s="154"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="169" t="s">
         <v>232</v>
       </c>
@@ -8673,7 +8861,7 @@
       </c>
       <c r="G4" s="154"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="160">
         <v>43585</v>
       </c>
@@ -8694,7 +8882,7 @@
       </c>
       <c r="G5" s="154"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="160">
         <v>43676</v>
       </c>
@@ -8715,7 +8903,7 @@
       </c>
       <c r="G6" s="154"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="164">
         <v>44033</v>
       </c>
@@ -8736,24 +8924,24 @@
       </c>
       <c r="G7" s="154"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="168"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="296" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="296" t="s">
+      <c r="C10" s="297"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="294" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="297"/>
+      <c r="F10" s="295"/>
       <c r="G10" s="154"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="169" t="s">
         <v>232</v>
       </c>
@@ -8774,7 +8962,7 @@
       </c>
       <c r="G11" s="154"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="160">
         <v>43607</v>
       </c>
@@ -8795,7 +8983,7 @@
       </c>
       <c r="G12" s="154"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="160">
         <v>43670</v>
       </c>
@@ -8816,7 +9004,7 @@
       </c>
       <c r="G13" s="154"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="160">
         <v>43971</v>
       </c>
@@ -8837,7 +9025,7 @@
       </c>
       <c r="G14" s="154"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="164">
         <v>44034</v>
       </c>
@@ -8858,7 +9046,7 @@
       </c>
       <c r="G15" s="154"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:F3"/>
@@ -8879,38 +9067,38 @@
       <selection pane="topRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="150" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>14</v>
       </c>
@@ -8993,7 +9181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="83">
         <v>43585</v>
       </c>
@@ -9079,7 +9267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="112">
         <v>43585</v>
       </c>
@@ -9165,7 +9353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="112">
         <v>43585</v>
       </c>
@@ -9251,7 +9439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <v>43585</v>
       </c>
@@ -9337,7 +9525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <v>43585</v>
       </c>
@@ -9423,7 +9611,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <v>43585</v>
       </c>
@@ -9509,7 +9697,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
         <v>43585</v>
       </c>
@@ -9595,7 +9783,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="83">
         <v>43585</v>
       </c>
@@ -9681,7 +9869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
         <v>43585</v>
       </c>
@@ -9767,7 +9955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
         <v>43585</v>
       </c>
@@ -9853,7 +10041,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <v>43585</v>
       </c>
@@ -9939,7 +10127,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
         <v>43585</v>
       </c>
@@ -10025,7 +10213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
         <v>43585</v>
       </c>
@@ -10111,7 +10299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
         <v>43585</v>
       </c>
@@ -10197,7 +10385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
         <v>43676</v>
       </c>
@@ -10283,7 +10471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
         <v>43676</v>
       </c>
@@ -10369,7 +10557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="83">
         <v>43676</v>
       </c>
@@ -10455,7 +10643,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
         <v>43676</v>
       </c>
@@ -10541,7 +10729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
         <v>43676</v>
       </c>
@@ -10627,7 +10815,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="83">
         <v>43676</v>
       </c>
@@ -10713,7 +10901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="83">
         <v>43676</v>
       </c>
@@ -10799,7 +10987,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <v>43676</v>
       </c>
@@ -10885,7 +11073,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <v>43676</v>
       </c>
@@ -10971,7 +11159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="83">
         <v>43676</v>
       </c>
@@ -11057,7 +11245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <v>43676</v>
       </c>
@@ -11143,7 +11331,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <v>43676</v>
       </c>
@@ -11229,7 +11417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <v>43676</v>
       </c>
@@ -11315,7 +11503,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83">
         <v>44033</v>
       </c>
@@ -11401,7 +11589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83">
         <v>44033</v>
       </c>
@@ -11487,7 +11675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="83">
         <v>44033</v>
       </c>
@@ -11573,7 +11761,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="83">
         <v>44033</v>
       </c>
@@ -11659,7 +11847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="83">
         <v>44033</v>
       </c>
@@ -11745,7 +11933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="83">
         <v>44033</v>
       </c>
@@ -11831,7 +12019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="83">
         <v>44033</v>
       </c>
@@ -11917,7 +12105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="83">
         <v>44033</v>
       </c>
@@ -12003,7 +12191,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="83">
         <v>44033</v>
       </c>
@@ -12089,7 +12277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="83">
         <v>44033</v>
       </c>
@@ -12175,7 +12363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="83">
         <v>44033</v>
       </c>
@@ -12261,7 +12449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="83">
         <v>44033</v>
       </c>
@@ -12347,7 +12535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="83">
         <v>44033</v>
       </c>
@@ -12446,46 +12634,46 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="27" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="14.44140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="14.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="14.44140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="14.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.28515625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.33203125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="11.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.28515625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11.7109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="16" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.109375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.44140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.77734375" style="10" collapsed="1"/>
+    <col min="36" max="36" width="16.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.42578125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.7109375" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -12598,7 +12786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43971</v>
       </c>
@@ -12714,7 +12902,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43971</v>
       </c>
@@ -12830,7 +13018,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43971</v>
       </c>
@@ -12946,7 +13134,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43971</v>
       </c>
@@ -13062,7 +13250,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43971</v>
       </c>
@@ -13178,7 +13366,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43971</v>
       </c>
@@ -13294,7 +13482,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43971</v>
       </c>
@@ -13410,7 +13598,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43971</v>
       </c>
@@ -13526,7 +13714,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43971</v>
       </c>
@@ -13642,7 +13830,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43971</v>
       </c>
@@ -13758,7 +13946,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43971</v>
       </c>
@@ -13874,7 +14062,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43971</v>
       </c>
@@ -13990,7 +14178,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43971</v>
       </c>
@@ -14106,7 +14294,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43971</v>
       </c>
@@ -14222,7 +14410,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44034</v>
       </c>
@@ -14338,7 +14526,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44034</v>
       </c>
@@ -14454,7 +14642,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44034</v>
       </c>
@@ -14570,7 +14758,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44034</v>
       </c>
@@ -14686,7 +14874,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44034</v>
       </c>
@@ -14802,7 +14990,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44034</v>
       </c>
@@ -14918,7 +15106,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44034</v>
       </c>
@@ -15034,7 +15222,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44034</v>
       </c>
@@ -15150,7 +15338,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44034</v>
       </c>
@@ -15266,100 +15454,100 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
   </sheetData>
